--- a/Covid_19_Dataset_and_References/References/83.xlsx
+++ b/Covid_19_Dataset_and_References/References/83.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="126">
   <si>
     <t>Doi</t>
   </si>
@@ -585,6 +585,146 @@
   </si>
   <si>
     <t>[Kevin%Hur%NULL%1,   Caroline P. E.%Price%NULL%1,   Elizabeth L.%Gray%NULL%1,   Reeti K.%Gulati%NULL%1,   Matthew%Maksimoski%NULL%1,   Samuel D.%Racette%NULL%1,   Alexander L.%Schneider%NULL%1,   Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
+ The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
+Methods
+id="Par2"&gt;A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
+Results
+id="Par3"&gt;A total of 226 patients were included.
+ Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
+ The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
+ Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
+ Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
+ Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
+ By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
+Conclusions
+id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
+ COVID-19 poses a great strain on critical care resources in hospitals.
+Trial registration
+id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
+chictr.
+org.
+cn/edit.
+aspx?pid=49983&amp;amp;htm=4
+</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,    Dan%Xu%NULL%2,    Shouzhi%Fu%NULL%3,    Jun%Zhang%NULL%2,    Xiaobo%Yang%NULL%2,    Liang%Xu%NULL%2,    Jiqian%Xu%NULL%4,    Yongran%Wu%NULL%4,    Chaolin%Huang%NULL%2,    Yaqi%Ouyang%NULL%2,    Luyu%Yang%NULL%2,    Minghao%Fang%NULL%4,    Hongwen%Xiao%NULL%2,    Jing%Ma%NULL%2,    Wei%Zhu%NULL%2,    Song%Hu%NULL%2,    Quan%Hu%NULL%2,    Daoyin%Ding%NULL%2,    Ming%Hu%NULL%2,    Guochao%Zhu%NULL%2,    Weijiang%Xu%NULL%2,    Jun%Guo%NULL%2,    Jinglong%Xu%NULL%2,    Haitao%Yuan%NULL%2,    Bin%Zhang%NULL%2,    Zhui%Yu%yuzhui@whu.edu.cn%4,    Dechang%Chen%icudechangchen@163.com%2,    Shiying%Yuan%yuan_shiying@163.com%4,    You%Shang%you_shanghust@163.com%5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
+ The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
+Methods
+A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
+Results
+id="Par3"&gt;A total of 226 patients were included.
+ Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
+ The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
+ Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
+ Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
+ Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
+ By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
+Conclusions
+id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
+ COVID-19 poses a great strain on critical care resources in hospitals.
+Trial registration
+id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
+chictr.
+org.
+cn/edit.
+aspx?pid=49983&amp;amp;htm=4
+</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,     Dan%Xu%NULL%0,     Shouzhi%Fu%NULL%2,     Jun%Zhang%NULL%2,     Xiaobo%Yang%NULL%2,     Liang%Xu%NULL%2,     Jiqian%Xu%NULL%0,     Yongran%Wu%NULL%0,     Chaolin%Huang%NULL%3,     Yaqi%Ouyang%NULL%2,     Luyu%Yang%NULL%0,     Minghao%Fang%NULL%0,     Hongwen%Xiao%NULL%2,     Jing%Ma%NULL%2,     Wei%Zhu%NULL%2,     Song%Hu%NULL%2,     Quan%Hu%NULL%2,     Daoyin%Ding%NULL%2,     Ming%Hu%NULL%2,     Guochao%Zhu%NULL%2,     Weijiang%Xu%NULL%2,     Jun%Guo%NULL%2,     Jinglong%Xu%NULL%2,     Haitao%Yuan%NULL%2,     Bin%Zhang%NULL%2,     Zhui%Yu%yuzhui@whu.edu.cn%0,     Dechang%Chen%icudechangchen@163.com%2,     Shiying%Yuan%yuan_shiying@163.com%0,     You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
+ The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
+Methods
+A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
+Results
+A total of 226 patients were included.
+ Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
+ The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
+ Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
+ Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
+ Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
+ By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
+Conclusions
+id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
+ COVID-19 poses a great strain on critical care resources in hospitals.
+Trial registration
+id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
+chictr.
+org.
+cn/edit.
+aspx?pid=49983&amp;amp;htm=4
+</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,      Dan%Xu%NULL%2,      Shouzhi%Fu%NULL%2,      Jun%Zhang%NULL%2,      Xiaobo%Yang%NULL%2,      Liang%Xu%NULL%2,      Jiqian%Xu%NULL%2,      Yongran%Wu%NULL%2,      Chaolin%Huang%NULL%2,      Yaqi%Ouyang%NULL%2,      Luyu%Yang%NULL%2,      Minghao%Fang%NULL%2,      Hongwen%Xiao%NULL%2,      Jing%Ma%NULL%2,      Wei%Zhu%NULL%2,      Song%Hu%NULL%2,      Quan%Hu%NULL%2,      Daoyin%Ding%NULL%2,      Ming%Hu%NULL%2,      Guochao%Zhu%NULL%2,      Weijiang%Xu%NULL%2,      Jun%Guo%NULL%2,      Jinglong%Xu%NULL%2,      Haitao%Yuan%NULL%2,      Bin%Zhang%NULL%2,      Zhui%Yu%yuzhui@whu.edu.cn%2,      Dechang%Chen%icudechangchen@163.com%2,      Shiying%Yuan%yuan_shiying@163.com%2,      You%Shang%you_shanghust@163.com%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
+ The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
+Methods
+A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
+Results
+A total of 226 patients were included.
+ Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
+ The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
+ Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
+ Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
+ Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
+ By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
+Conclusions
+Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
+ COVID-19 poses a great strain on critical care resources in hospitals.
+Trial registration
+id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
+chictr.
+org.
+cn/edit.
+aspx?pid=49983&amp;amp;htm=4
+</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,       Dan%Xu%NULL%2,       Shouzhi%Fu%NULL%0,       Jun%Zhang%NULL%0,       Xiaobo%Yang%NULL%2,       Liang%Xu%NULL%2,       Jiqian%Xu%NULL%2,       Yongran%Wu%NULL%2,       Chaolin%Huang%NULL%0,       Yaqi%Ouyang%NULL%2,       Luyu%Yang%NULL%2,       Minghao%Fang%NULL%2,       Hongwen%Xiao%NULL%2,       Jing%Ma%NULL%2,       Wei%Zhu%NULL%2,       Song%Hu%NULL%2,       Quan%Hu%NULL%2,       Daoyin%Ding%NULL%2,       Ming%Hu%NULL%2,       Guochao%Zhu%NULL%2,       Weijiang%Xu%NULL%2,       Jun%Guo%NULL%2,       Jinglong%Xu%NULL%2,       Haitao%Yuan%NULL%2,       Bin%Zhang%NULL%2,       Zhui%Yu%yuzhui@whu.edu.cn%2,       Dechang%Chen%icudechangchen@163.com%2,       Shiying%Yuan%yuan_shiying@163.com%2,       You%Shang%you_shanghust@163.com%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
+ The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
+Methods
+A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
+Results
+A total of 226 patients were included.
+ Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
+ The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
+ Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
+ Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
+ Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
+ By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
+Conclusions
+Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
+ COVID-19 poses a great strain on critical care resources in hospitals.
+Trial registration
+Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
+chictr.
+org.
+cn/edit.
+aspx?pid=49983&amp;amp;htm=4
+</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,        Dan%Xu%NULL%0,        Shouzhi%Fu%NULL%0,        Jun%Zhang%NULL%0,        Xiaobo%Yang%NULL%0,        Liang%Xu%NULL%0,        Jiqian%Xu%NULL%0,        Yongran%Wu%NULL%0,        Chaolin%Huang%NULL%0,        Yaqi%Ouyang%NULL%0,        Luyu%Yang%NULL%0,        Minghao%Fang%NULL%0,        Hongwen%Xiao%NULL%0,        Jing%Ma%NULL%0,        Wei%Zhu%NULL%0,        Song%Hu%NULL%0,        Quan%Hu%NULL%0,        Daoyin%Ding%NULL%0,        Ming%Hu%NULL%0,        Guochao%Zhu%NULL%0,        Weijiang%Xu%NULL%0,        Jun%Guo%NULL%0,        Jinglong%Xu%NULL%0,        Haitao%Yuan%NULL%0,        Bin%Zhang%NULL%0,        Zhui%Yu%yuzhui@whu.edu.cn%0,        Dechang%Chen%icudechangchen@163.com%0,        Shiying%Yuan%yuan_shiying@163.com%0,        You%Shang%you_shanghust@163.com%0]</t>
   </si>
 </sst>
 </file>
@@ -968,10 +1108,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>

--- a/Covid_19_Dataset_and_References/References/83.xlsx
+++ b/Covid_19_Dataset_and_References/References/83.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="116">
   <si>
     <t>Doi</t>
   </si>
@@ -585,146 +585,6 @@
   </si>
   <si>
     <t>[Kevin%Hur%NULL%1,   Caroline P. E.%Price%NULL%1,   Elizabeth L.%Gray%NULL%1,   Reeti K.%Gulati%NULL%1,   Matthew%Maksimoski%NULL%1,   Samuel D.%Racette%NULL%1,   Alexander L.%Schneider%NULL%1,   Ashoke R.%Khanwalkar%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
- The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
-Methods
-id="Par2"&gt;A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
-Results
-id="Par3"&gt;A total of 226 patients were included.
- Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
- The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
- Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
- Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
- Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
- By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
-Conclusions
-id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
- COVID-19 poses a great strain on critical care resources in hospitals.
-Trial registration
-id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
-chictr.
-org.
-cn/edit.
-aspx?pid=49983&amp;amp;htm=4
-</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,    Dan%Xu%NULL%2,    Shouzhi%Fu%NULL%3,    Jun%Zhang%NULL%2,    Xiaobo%Yang%NULL%2,    Liang%Xu%NULL%2,    Jiqian%Xu%NULL%4,    Yongran%Wu%NULL%4,    Chaolin%Huang%NULL%2,    Yaqi%Ouyang%NULL%2,    Luyu%Yang%NULL%2,    Minghao%Fang%NULL%4,    Hongwen%Xiao%NULL%2,    Jing%Ma%NULL%2,    Wei%Zhu%NULL%2,    Song%Hu%NULL%2,    Quan%Hu%NULL%2,    Daoyin%Ding%NULL%2,    Ming%Hu%NULL%2,    Guochao%Zhu%NULL%2,    Weijiang%Xu%NULL%2,    Jun%Guo%NULL%2,    Jinglong%Xu%NULL%2,    Haitao%Yuan%NULL%2,    Bin%Zhang%NULL%2,    Zhui%Yu%yuzhui@whu.edu.cn%4,    Dechang%Chen%icudechangchen@163.com%2,    Shiying%Yuan%yuan_shiying@163.com%4,    You%Shang%you_shanghust@163.com%5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
- The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
-Methods
-A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
-Results
-id="Par3"&gt;A total of 226 patients were included.
- Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
- The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
- Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
- Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
- Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
- By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
-Conclusions
-id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
- COVID-19 poses a great strain on critical care resources in hospitals.
-Trial registration
-id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
-chictr.
-org.
-cn/edit.
-aspx?pid=49983&amp;amp;htm=4
-</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,     Dan%Xu%NULL%0,     Shouzhi%Fu%NULL%2,     Jun%Zhang%NULL%2,     Xiaobo%Yang%NULL%2,     Liang%Xu%NULL%2,     Jiqian%Xu%NULL%0,     Yongran%Wu%NULL%0,     Chaolin%Huang%NULL%3,     Yaqi%Ouyang%NULL%2,     Luyu%Yang%NULL%0,     Minghao%Fang%NULL%0,     Hongwen%Xiao%NULL%2,     Jing%Ma%NULL%2,     Wei%Zhu%NULL%2,     Song%Hu%NULL%2,     Quan%Hu%NULL%2,     Daoyin%Ding%NULL%2,     Ming%Hu%NULL%2,     Guochao%Zhu%NULL%2,     Weijiang%Xu%NULL%2,     Jun%Guo%NULL%2,     Jinglong%Xu%NULL%2,     Haitao%Yuan%NULL%2,     Bin%Zhang%NULL%2,     Zhui%Yu%yuzhui@whu.edu.cn%0,     Dechang%Chen%icudechangchen@163.com%2,     Shiying%Yuan%yuan_shiying@163.com%0,     You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
- The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
-Methods
-A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
-Results
-A total of 226 patients were included.
- Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
- The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
- Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
- Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
- Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
- By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
-Conclusions
-id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
- COVID-19 poses a great strain on critical care resources in hospitals.
-Trial registration
-id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
-chictr.
-org.
-cn/edit.
-aspx?pid=49983&amp;amp;htm=4
-</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,      Dan%Xu%NULL%2,      Shouzhi%Fu%NULL%2,      Jun%Zhang%NULL%2,      Xiaobo%Yang%NULL%2,      Liang%Xu%NULL%2,      Jiqian%Xu%NULL%2,      Yongran%Wu%NULL%2,      Chaolin%Huang%NULL%2,      Yaqi%Ouyang%NULL%2,      Luyu%Yang%NULL%2,      Minghao%Fang%NULL%2,      Hongwen%Xiao%NULL%2,      Jing%Ma%NULL%2,      Wei%Zhu%NULL%2,      Song%Hu%NULL%2,      Quan%Hu%NULL%2,      Daoyin%Ding%NULL%2,      Ming%Hu%NULL%2,      Guochao%Zhu%NULL%2,      Weijiang%Xu%NULL%2,      Jun%Guo%NULL%2,      Jinglong%Xu%NULL%2,      Haitao%Yuan%NULL%2,      Bin%Zhang%NULL%2,      Zhui%Yu%yuzhui@whu.edu.cn%2,      Dechang%Chen%icudechangchen@163.com%2,      Shiying%Yuan%yuan_shiying@163.com%2,      You%Shang%you_shanghust@163.com%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
- The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
-Methods
-A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
-Results
-A total of 226 patients were included.
- Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
- The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
- Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
- Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
- Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
- By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
-Conclusions
-Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
- COVID-19 poses a great strain on critical care resources in hospitals.
-Trial registration
-id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
-chictr.
-org.
-cn/edit.
-aspx?pid=49983&amp;amp;htm=4
-</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,       Dan%Xu%NULL%2,       Shouzhi%Fu%NULL%0,       Jun%Zhang%NULL%0,       Xiaobo%Yang%NULL%2,       Liang%Xu%NULL%2,       Jiqian%Xu%NULL%2,       Yongran%Wu%NULL%2,       Chaolin%Huang%NULL%0,       Yaqi%Ouyang%NULL%2,       Luyu%Yang%NULL%2,       Minghao%Fang%NULL%2,       Hongwen%Xiao%NULL%2,       Jing%Ma%NULL%2,       Wei%Zhu%NULL%2,       Song%Hu%NULL%2,       Quan%Hu%NULL%2,       Daoyin%Ding%NULL%2,       Ming%Hu%NULL%2,       Guochao%Zhu%NULL%2,       Weijiang%Xu%NULL%2,       Jun%Guo%NULL%2,       Jinglong%Xu%NULL%2,       Haitao%Yuan%NULL%2,       Bin%Zhang%NULL%2,       Zhui%Yu%yuzhui@whu.edu.cn%2,       Dechang%Chen%icudechangchen@163.com%2,       Shiying%Yuan%yuan_shiying@163.com%2,       You%Shang%you_shanghust@163.com%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
- The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
-Methods
-A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
-Results
-A total of 226 patients were included.
- Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
- The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
- Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
- Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
- Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
- By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
-Conclusions
-Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
- COVID-19 poses a great strain on critical care resources in hospitals.
-Trial registration
-Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
-chictr.
-org.
-cn/edit.
-aspx?pid=49983&amp;amp;htm=4
-</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,        Dan%Xu%NULL%0,        Shouzhi%Fu%NULL%0,        Jun%Zhang%NULL%0,        Xiaobo%Yang%NULL%0,        Liang%Xu%NULL%0,        Jiqian%Xu%NULL%0,        Yongran%Wu%NULL%0,        Chaolin%Huang%NULL%0,        Yaqi%Ouyang%NULL%0,        Luyu%Yang%NULL%0,        Minghao%Fang%NULL%0,        Hongwen%Xiao%NULL%0,        Jing%Ma%NULL%0,        Wei%Zhu%NULL%0,        Song%Hu%NULL%0,        Quan%Hu%NULL%0,        Daoyin%Ding%NULL%0,        Ming%Hu%NULL%0,        Guochao%Zhu%NULL%0,        Weijiang%Xu%NULL%0,        Jun%Guo%NULL%0,        Jinglong%Xu%NULL%0,        Haitao%Yuan%NULL%0,        Bin%Zhang%NULL%0,        Zhui%Yu%yuzhui@whu.edu.cn%0,        Dechang%Chen%icudechangchen@163.com%0,        Shiying%Yuan%yuan_shiying@163.com%0,        You%Shang%you_shanghust@163.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1108,10 +968,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>

--- a/Covid_19_Dataset_and_References/References/83.xlsx
+++ b/Covid_19_Dataset_and_References/References/83.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="134">
   <si>
     <t>Doi</t>
   </si>
@@ -585,6 +585,60 @@
   </si>
   <si>
     <t>[Kevin%Hur%NULL%1,   Caroline P. E.%Price%NULL%1,   Elizabeth L.%Gray%NULL%1,   Reeti K.%Gulati%NULL%1,   Matthew%Maksimoski%NULL%1,   Samuel D.%Racette%NULL%1,   Alexander L.%Schneider%NULL%1,   Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,    Di%Wu%NULL%0,    Huilong%Chen%NULL%0,    Weiming%Yan%NULL%0,    Danlei%Yang%NULL%0,    Guang%Chen%NULL%0,    Ke%Ma%NULL%0,    Dong%Xu%NULL%0,    Haijing%Yu%NULL%0,    Hongwu%Wang%NULL%0,    Tao%Wang%NULL%0,    Wei%Guo%NULL%0,    Jia%Chen%NULL%0,    Chen%Ding%NULL%0,    Xiaoping%Zhang%NULL%0,    Jiaquan%Huang%NULL%0,    Meifang%Han%NULL%0,    Shusheng%Li%NULL%0,    Xiaoping%Luo%NULL%0,    Jianping%Zhao%NULL%0,    Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,    Dan%Xu%NULL%0,    Shouzhi%Fu%NULL%0,    Jun%Zhang%NULL%0,    Xiaobo%Yang%NULL%0,    Liang%Xu%NULL%0,    Jiqian%Xu%NULL%0,    Yongran%Wu%NULL%0,    Chaolin%Huang%NULL%0,    Yaqi%Ouyang%NULL%0,    Luyu%Yang%NULL%0,    Minghao%Fang%NULL%0,    Hongwen%Xiao%NULL%0,    Jing%Ma%NULL%0,    Wei%Zhu%NULL%0,    Song%Hu%NULL%0,    Quan%Hu%NULL%0,    Daoyin%Ding%NULL%0,    Ming%Hu%NULL%0,    Guochao%Zhu%NULL%0,    Weijiang%Xu%NULL%0,    Jun%Guo%NULL%0,    Jinglong%Xu%NULL%0,    Haitao%Yuan%NULL%0,    Bin%Zhang%NULL%0,    Zhui%Yu%yuzhui@whu.edu.cn%0,    Dechang%Chen%icudechangchen@163.com%0,    Shiying%Yuan%yuan_shiying@163.com%0,    You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,   Becker%L.B.%coreGivesNoEmail%0,   Chelico%J.D.%coreGivesNoEmail%0,   Cohen%S.L.%coreGivesNoEmail%0,   Cookingham%J.%coreGivesNoEmail%0,   Coppa%K.%coreGivesNoEmail%0,   Crawford%J.M.%coreGivesNoEmail%0,   Davidson%K.W.%coreGivesNoEmail%0,   Diefenbach%M.A.%coreGivesNoEmail%0,   Dominello%A.J.%coreGivesNoEmail%0,   Duer-Hefele%J.%coreGivesNoEmail%0,   Falzon%L.%coreGivesNoEmail%0,   Gitlin%J.%coreGivesNoEmail%0,   Hajizadeh%N.%coreGivesNoEmail%0,   Harvin%T.G.%coreGivesNoEmail%0,   Hirsch%J.S.%coreGivesNoEmail%0,   Hirschwerk%D.A.%coreGivesNoEmail%0,   Kim%E.J.%coreGivesNoEmail%0,   Kozel%Z.M.%coreGivesNoEmail%0,   Marrast%L.M.%coreGivesNoEmail%0,   McGinn%T.%coreGivesNoEmail%0,   Mogavero%J.N.%coreGivesNoEmail%0,   Narasimhan%M.%coreGivesNoEmail%0,   Osorio%G.A.%coreGivesNoEmail%0,   Qiu%M.%coreGivesNoEmail%0,   Richardson%S.%coreGivesNoEmail%0,   Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,   Cabrini%Luca%coreGivesNoEmail%0,   Castelli%Antonio%coreGivesNoEmail%0,   Cecconi%Maurizio%coreGivesNoEmail%0,   Cereda%Danilo%coreGivesNoEmail%0,   Coluccello%Antonio%coreGivesNoEmail%0,   Foti%Giuseppe%coreGivesNoEmail%0,   Fumagalli%Roberto%coreGivesNoEmail%0,   Grasselli%Giacomo%coreGivesNoEmail%0,   Iotti%Giorgio%coreGivesNoEmail%0,   Latronico%Nicola%coreGivesNoEmail%0,   Lorini%Luca%coreGivesNoEmail%0,   Merler%Stefano%coreGivesNoEmail%0,   Natalini%Giuseppe%coreGivesNoEmail%0,   Pesenti%Antonio%coreGivesNoEmail%0,   Piatti%Alessandra%coreGivesNoEmail%0,   Ranieri%Marco Vito%coreGivesNoEmail%0,   Scandroglio%Anna Mara%coreGivesNoEmail%0,   Storti%Enrico%coreGivesNoEmail%0,   Zanella%Alberto%coreGivesNoEmail%0,   Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,    Bijan J.%Ghassemieh%NULL%0,    Michelle%Nichols%NULL%0,    Richard%Kim%NULL%0,    Keith R.%Jerome%NULL%0,    Arun K.%Nalla%NULL%0,    Alexander L.%Greninger%NULL%0,    Sudhakar%Pipavath%NULL%0,    Mark M.%Wurfel%NULL%0,    Laura%Evans%NULL%0,    Patricia A.%Kritek%NULL%0,    T. Eoin%West%NULL%0,    Andrew%Luks%NULL%0,    Anthony%Gerbino%NULL%0,    Chris R.%Dale%NULL%0,    Jason D.%Goldman%NULL%0,    Shane%O’Mahony%NULL%0,    Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,    Hiroyuki%Shimizu%NULL%1,    Yasushi%Shibue%NULL%1,    Tomohiro%Hosoda%NULL%1,    Keisuke%Iwabuchi%NULL%1,    Kotaro%Nagamine%NULL%1,    Hiroki%Saito%NULL%1,    Reimin%Sawada%NULL%1,    Takayuki%Oishi%NULL%1,    Jun%Tsukiji%NULL%1,    Hiroyuki%Fujita%NULL%1,    Ryosuke%Furuya%NULL%1,    Makoto%Masuda%NULL%1,    Osamu%Akasaka%NULL%1,    Yu%Ikeda%NULL%1,    Mitsuo%Sakamoto%NULL%1,    Kazuya%Sakai%NULL%1,    Munehito%Uchiyama%NULL%1,    Hiroki%Watanabe%NULL%1,    Nobuhiro%Yamaguchi%NULL%1,    Ryoko%Higa%NULL%1,    Akiko%Sasaki%NULL%1,    Katsuaki%Tanaka%NULL%1,    Yukitoshi%Toyoda%NULL%1,    Shinsuke%Hamanaka%NULL%1,    Naoki%Miyazawa%NULL%1,    Atsuko%Shimizu%NULL%1,    Fumie%Fukase%NULL%1,    Shunsuke%Iwai%NULL%1,    Yuko%Komase%NULL%1,    Tsutomu%Kawasaki%NULL%1,    Isao%Nagata%NULL%1,    Yusuke%Nakayama%NULL%1,    Tetsuhiro%Takei%NULL%1,    Katsuo%Kimura%NULL%1,    Reiko%Kunisaki%NULL%1,    Makoto%Kudo%NULL%1,    Ichiro%Takeuchi%NULL%0,    Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,    Yuan%Yu%NULL%0,    Jiqian%Xu%NULL%0,    Huaqing%Shu%NULL%0,    Jia'an%Xia%NULL%0,    Hong%Liu%NULL%0,    Yongran%Wu%NULL%0,    Lu%Zhang%NULL%0,    Zhui%Yu%NULL%0,    Minghao%Fang%NULL%0,    Ting%Yu%NULL%0,    Yaxin%Wang%NULL%0,    Shangwen%Pan%NULL%0,    Xiaojing%Zou%NULL%0,    Shiying%Yuan%NULL%0,    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,    Rong Hua%Tian%NULL%1,    Song%Luo%NULL%0,    Zi Yue%Zu%NULL%1,    Bin%Fan%NULL%1,    Xi Ming%Wang%NULL%1,    Kai%Xu%NULL%1,    Jiang Tao%Wang%NULL%1,    Juan%Zhu%NULL%1,    Ji Chan%Shi%NULL%1,    Feng%Chen%NULL%1,    Bing%Wan%NULL%1,    Zhi Han%Yan%NULL%1,    Rong Pin%Wang%NULL%1,    Wen%Chen%NULL%1,    Wen Hui%Fan%NULL%1,    Can%Zhang%NULL%1,    Meng Jie%Lu%NULL%1,    Zhi Yuan%Sun%NULL%0,    Chang Sheng%Zhou%NULL%0,    Li Na%Zhang%NULL%1,    Fei%Xia%NULL%0,    Li%Qi%NULL%1,    Wei%Zhang%NULL%0,    Jing%Zhong%NULL%1,    Xiao Xue%Liu%NULL%1,    Qi Rui%Zhang%NULL%1,    Guang Ming%Lu%NULL%0,    Long Jiang%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,    Matthew R%Baldwin%NULL%0,    Darryl%Abrams%NULL%1,    Samuel D%Jacobson%NULL%1,    Benjamin J%Meyer%NULL%1,    Elizabeth M%Balough%NULL%1,    Justin G%Aaron%NULL%1,    Jan%Claassen%NULL%1,    LeRoy E%Rabbani%NULL%1,    Jonathan%Hastie%NULL%1,    Beth R%Hochman%NULL%1,    John%Salazar-Schicchi%NULL%1,    Natalie H%Yip%NULL%1,    Daniel%Brodie%NULL%0,    Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,    Samuel L%Bruce%NULL%0,    Cody L%Slater%NULL%0,    Jonathan R%Tiao%NULL%0,    Matthew R%Baldwin%NULL%0,    R Graham%Barr%NULL%0,    Bernard P%Chang%NULL%0,    Katherine H%Chau%NULL%0,    Justin J%Choi%NULL%0,    Nicholas%Gavin%NULL%0,    Parag%Goyal%NULL%0,    Angela M%Mills%NULL%0,    Ashmi A%Patel%NULL%0,    Marie-Laure S%Romney%NULL%0,    Monika M%Safford%NULL%0,    Neil W%Schluger%NULL%0,    Soumitra%Sengupta%NULL%0,    Magdalena E%Sobieszczyk%NULL%0,    Jason E%Zucker%NULL%0,    Paul A%Asadourian%NULL%0,    Fletcher M%Bell%NULL%0,    Rebekah%Boyd%NULL%0,    Matthew F%Cohen%NULL%0,    MacAlistair I%Colquhoun%NULL%0,    Lucy A%Colville%NULL%0,    Joseph H%de Jonge%NULL%0,    Lyle B%Dershowitz%NULL%0,    Shirin A%Dey%NULL%0,    Katherine A%Eiseman%NULL%0,    Zachary P%Girvin%NULL%0,    Daniella T%Goni%NULL%0,    Amro A%Harb%NULL%0,    Nicholas%Herzik%NULL%0,    Sarah%Householder%NULL%0,    Lara E%Karaaslan%NULL%0,    Heather%Lee%NULL%0,    Evan%Lieberman%NULL%0,    Andrew%Ling%NULL%0,    Ree%Lu%NULL%0,    Arthur Y%Shou%NULL%0,    Alexander C%Sisti%NULL%0,    Zachary E%Snow%NULL%0,    Colin P%Sperring%NULL%0,    Yuqing%Xiong%NULL%0,    Henry W%Zhou%NULL%0,    Karthik%Natarajan%NULL%0,    George%Hripcsak%NULL%0,    Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,     Nicholas A.%Fergusson%null%0,     Elisa%Lloyd-Smith%null%0,     Andrew%Wormsbecker%null%0,     Denise%Foster%null%0,     Andrei%Karpov%null%0,     Sarah%Crowe%null%0,     Greg%Haljan%null%0,     Dean R.%Chittock%null%0,     Hussein D.%Kanji%null%0,     Mypinder S.%Sekhon%null%0,     Donald E.G.%Griesdale%null%0,  Anish R.%Mitra%null%0,  Nicholas A.%Fergusson%null%1,  Elisa%Lloyd-Smith%null%1,  Andrew%Wormsbecker%null%1,  Denise%Foster%null%1,  Andrei%Karpov%null%1,  Sarah%Crowe%null%1,  Greg%Haljan%null%1,  Dean R.%Chittock%null%1,  Hussein D.%Kanji%null%1,  Mypinder S.%Sekhon%null%1,  Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,    Mark%Caridi-Scheible%NULL%0,    James M.%Blum%NULL%0,    Chad%Robichaux%NULL%0,    Colleen%Kraft%NULL%0,    Jesse T.%Jacob%NULL%0,    Craig S.%Jabaley%NULL%0,    David%Carpenter%NULL%0,    Roberta%Kaplow%NULL%0,    Alfonso C.%Hernandez-Romieu%NULL%0,    Max W.%Adelman%NULL%0,    Greg S.%Martin%NULL%0,    Craig M.%Coopersmith%NULL%0,    David J.%Murphy%NULL%0,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,    Caroline P. E.%Price%NULL%1,    Elizabeth L.%Gray%NULL%1,    Reeti K.%Gulati%NULL%1,    Matthew%Maksimoski%NULL%1,    Samuel D.%Racette%NULL%1,    Alexander L.%Schneider%NULL%1,    Ashoke R.%Khanwalkar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -904,6 +958,9 @@
       <c r="H1" t="s">
         <v>30</v>
       </c>
+      <c r="I1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -930,6 +987,9 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
+      <c r="I2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -945,7 +1005,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -955,6 +1015,9 @@
       </c>
       <c r="H3" t="s">
         <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4">
@@ -971,7 +1034,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -981,6 +1044,9 @@
       </c>
       <c r="H4" t="s">
         <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5">
@@ -997,16 +1063,19 @@
         <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6">
@@ -1023,16 +1092,19 @@
         <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7">
@@ -1049,7 +1121,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
@@ -1059,6 +1131,9 @@
       </c>
       <c r="H7" t="s">
         <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8">
@@ -1075,7 +1150,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1085,6 +1160,9 @@
       </c>
       <c r="H8" t="s">
         <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -1112,6 +1190,9 @@
       <c r="H9" t="s">
         <v>31</v>
       </c>
+      <c r="I9" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -1127,7 +1208,7 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1137,6 +1218,9 @@
       </c>
       <c r="H10" t="s">
         <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -1153,7 +1237,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1163,6 +1247,9 @@
       </c>
       <c r="H11" t="s">
         <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -1179,7 +1266,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1189,6 +1276,9 @@
       </c>
       <c r="H12" t="s">
         <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -1205,7 +1295,7 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F13" t="s">
         <v>68</v>
@@ -1215,6 +1305,9 @@
       </c>
       <c r="H13" t="s">
         <v>69</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14">
@@ -1231,7 +1324,7 @@
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F14" t="s">
         <v>73</v>
@@ -1241,6 +1334,9 @@
       </c>
       <c r="H14" t="s">
         <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15">
@@ -1257,7 +1353,7 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F15" t="s">
         <v>79</v>
@@ -1267,6 +1363,9 @@
       </c>
       <c r="H15" t="s">
         <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16">
@@ -1283,7 +1382,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -1293,6 +1392,9 @@
       </c>
       <c r="H16" t="s">
         <v>84</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/83.xlsx
+++ b/Covid_19_Dataset_and_References/References/83.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="173">
   <si>
     <t>Doi</t>
   </si>
@@ -639,6 +639,123 @@
   </si>
   <si>
     <t>[Kevin%Hur%NULL%1,    Caroline P. E.%Price%NULL%1,    Elizabeth L.%Gray%NULL%1,    Reeti K.%Gulati%NULL%1,    Matthew%Maksimoski%NULL%1,    Samuel D.%Racette%NULL%1,    Alexander L.%Schneider%NULL%1,    Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,     Di%Wu%NULL%0,     Huilong%Chen%NULL%0,     Weiming%Yan%NULL%0,     Danlei%Yang%NULL%0,     Guang%Chen%NULL%0,     Ke%Ma%NULL%0,     Dong%Xu%NULL%0,     Haijing%Yu%NULL%0,     Hongwu%Wang%NULL%0,     Tao%Wang%NULL%0,     Wei%Guo%NULL%0,     Jia%Chen%NULL%0,     Chen%Ding%NULL%0,     Xiaoping%Zhang%NULL%0,     Jiaquan%Huang%NULL%0,     Meifang%Han%NULL%0,     Shusheng%Li%NULL%0,     Xiaoping%Luo%NULL%0,     Jianping%Zhao%NULL%0,     Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,     Dan%Xu%NULL%0,     Shouzhi%Fu%NULL%0,     Jun%Zhang%NULL%0,     Xiaobo%Yang%NULL%0,     Liang%Xu%NULL%0,     Jiqian%Xu%NULL%0,     Yongran%Wu%NULL%0,     Chaolin%Huang%NULL%0,     Yaqi%Ouyang%NULL%0,     Luyu%Yang%NULL%0,     Minghao%Fang%NULL%0,     Hongwen%Xiao%NULL%0,     Jing%Ma%NULL%0,     Wei%Zhu%NULL%0,     Song%Hu%NULL%0,     Quan%Hu%NULL%0,     Daoyin%Ding%NULL%0,     Ming%Hu%NULL%0,     Guochao%Zhu%NULL%0,     Weijiang%Xu%NULL%0,     Jun%Guo%NULL%0,     Jinglong%Xu%NULL%0,     Haitao%Yuan%NULL%0,     Bin%Zhang%NULL%0,     Zhui%Yu%yuzhui@whu.edu.cn%0,     Dechang%Chen%icudechangchen@163.com%0,     Shiying%Yuan%yuan_shiying@163.com%0,     You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,    Becker%L.B.%coreGivesNoEmail%0,    Chelico%J.D.%coreGivesNoEmail%0,    Cohen%S.L.%coreGivesNoEmail%0,    Cookingham%J.%coreGivesNoEmail%0,    Coppa%K.%coreGivesNoEmail%0,    Crawford%J.M.%coreGivesNoEmail%0,    Davidson%K.W.%coreGivesNoEmail%0,    Diefenbach%M.A.%coreGivesNoEmail%0,    Dominello%A.J.%coreGivesNoEmail%0,    Duer-Hefele%J.%coreGivesNoEmail%0,    Falzon%L.%coreGivesNoEmail%0,    Gitlin%J.%coreGivesNoEmail%0,    Hajizadeh%N.%coreGivesNoEmail%0,    Harvin%T.G.%coreGivesNoEmail%0,    Hirsch%J.S.%coreGivesNoEmail%0,    Hirschwerk%D.A.%coreGivesNoEmail%0,    Kim%E.J.%coreGivesNoEmail%0,    Kozel%Z.M.%coreGivesNoEmail%0,    Marrast%L.M.%coreGivesNoEmail%0,    McGinn%T.%coreGivesNoEmail%0,    Mogavero%J.N.%coreGivesNoEmail%0,    Narasimhan%M.%coreGivesNoEmail%0,    Osorio%G.A.%coreGivesNoEmail%0,    Qiu%M.%coreGivesNoEmail%0,    Richardson%S.%coreGivesNoEmail%0,    Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,    Cabrini%Luca%coreGivesNoEmail%0,    Castelli%Antonio%coreGivesNoEmail%0,    Cecconi%Maurizio%coreGivesNoEmail%0,    Cereda%Danilo%coreGivesNoEmail%0,    Coluccello%Antonio%coreGivesNoEmail%0,    Foti%Giuseppe%coreGivesNoEmail%0,    Fumagalli%Roberto%coreGivesNoEmail%0,    Grasselli%Giacomo%coreGivesNoEmail%0,    Iotti%Giorgio%coreGivesNoEmail%0,    Latronico%Nicola%coreGivesNoEmail%0,    Lorini%Luca%coreGivesNoEmail%0,    Merler%Stefano%coreGivesNoEmail%0,    Natalini%Giuseppe%coreGivesNoEmail%0,    Pesenti%Antonio%coreGivesNoEmail%0,    Piatti%Alessandra%coreGivesNoEmail%0,    Ranieri%Marco Vito%coreGivesNoEmail%0,    Scandroglio%Anna Mara%coreGivesNoEmail%0,    Storti%Enrico%coreGivesNoEmail%0,    Zanella%Alberto%coreGivesNoEmail%0,    Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,     Bijan J.%Ghassemieh%NULL%0,     Michelle%Nichols%NULL%0,     Richard%Kim%NULL%0,     Keith R.%Jerome%NULL%0,     Arun K.%Nalla%NULL%0,     Alexander L.%Greninger%NULL%0,     Sudhakar%Pipavath%NULL%0,     Mark M.%Wurfel%NULL%0,     Laura%Evans%NULL%0,     Patricia A.%Kritek%NULL%0,     T. Eoin%West%NULL%0,     Andrew%Luks%NULL%0,     Anthony%Gerbino%NULL%0,     Chris R.%Dale%NULL%0,     Jason D.%Goldman%NULL%0,     Shane%O’Mahony%NULL%0,     Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,     Hiroyuki%Shimizu%NULL%1,     Yasushi%Shibue%NULL%1,     Tomohiro%Hosoda%NULL%1,     Keisuke%Iwabuchi%NULL%1,     Kotaro%Nagamine%NULL%1,     Hiroki%Saito%NULL%1,     Reimin%Sawada%NULL%1,     Takayuki%Oishi%NULL%1,     Jun%Tsukiji%NULL%1,     Hiroyuki%Fujita%NULL%1,     Ryosuke%Furuya%NULL%1,     Makoto%Masuda%NULL%1,     Osamu%Akasaka%NULL%1,     Yu%Ikeda%NULL%1,     Mitsuo%Sakamoto%NULL%1,     Kazuya%Sakai%NULL%1,     Munehito%Uchiyama%NULL%1,     Hiroki%Watanabe%NULL%1,     Nobuhiro%Yamaguchi%NULL%1,     Ryoko%Higa%NULL%1,     Akiko%Sasaki%NULL%1,     Katsuaki%Tanaka%NULL%1,     Yukitoshi%Toyoda%NULL%1,     Shinsuke%Hamanaka%NULL%1,     Naoki%Miyazawa%NULL%1,     Atsuko%Shimizu%NULL%1,     Fumie%Fukase%NULL%1,     Shunsuke%Iwai%NULL%1,     Yuko%Komase%NULL%1,     Tsutomu%Kawasaki%NULL%1,     Isao%Nagata%NULL%1,     Yusuke%Nakayama%NULL%1,     Tetsuhiro%Takei%NULL%1,     Katsuo%Kimura%NULL%1,     Reiko%Kunisaki%NULL%1,     Makoto%Kudo%NULL%1,     Ichiro%Takeuchi%NULL%0,     Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,     Yuan%Yu%NULL%0,     Jiqian%Xu%NULL%0,     Huaqing%Shu%NULL%0,     Jia'an%Xia%NULL%0,     Hong%Liu%NULL%0,     Yongran%Wu%NULL%0,     Lu%Zhang%NULL%0,     Zhui%Yu%NULL%0,     Minghao%Fang%NULL%0,     Ting%Yu%NULL%0,     Yaxin%Wang%NULL%0,     Shangwen%Pan%NULL%0,     Xiaojing%Zou%NULL%0,     Shiying%Yuan%NULL%0,     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,     Rong Hua%Tian%NULL%1,     Song%Luo%NULL%0,     Zi Yue%Zu%NULL%1,     Bin%Fan%NULL%1,     Xi Ming%Wang%NULL%1,     Kai%Xu%NULL%1,     Jiang Tao%Wang%NULL%1,     Juan%Zhu%NULL%1,     Ji Chan%Shi%NULL%1,     Feng%Chen%NULL%1,     Bing%Wan%NULL%1,     Zhi Han%Yan%NULL%1,     Rong Pin%Wang%NULL%1,     Wen%Chen%NULL%1,     Wen Hui%Fan%NULL%1,     Can%Zhang%NULL%1,     Meng Jie%Lu%NULL%1,     Zhi Yuan%Sun%NULL%0,     Chang Sheng%Zhou%NULL%0,     Li Na%Zhang%NULL%1,     Fei%Xia%NULL%0,     Li%Qi%NULL%1,     Wei%Zhang%NULL%0,     Jing%Zhong%NULL%1,     Xiao Xue%Liu%NULL%1,     Qi Rui%Zhang%NULL%1,     Guang Ming%Lu%NULL%0,     Long Jiang%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,     Matthew R%Baldwin%NULL%0,     Darryl%Abrams%NULL%1,     Samuel D%Jacobson%NULL%1,     Benjamin J%Meyer%NULL%1,     Elizabeth M%Balough%NULL%1,     Justin G%Aaron%NULL%1,     Jan%Claassen%NULL%1,     LeRoy E%Rabbani%NULL%1,     Jonathan%Hastie%NULL%1,     Beth R%Hochman%NULL%1,     John%Salazar-Schicchi%NULL%1,     Natalie H%Yip%NULL%1,     Daniel%Brodie%NULL%0,     Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,     Samuel L%Bruce%NULL%0,     Cody L%Slater%NULL%0,     Jonathan R%Tiao%NULL%0,     Matthew R%Baldwin%NULL%0,     R Graham%Barr%NULL%0,     Bernard P%Chang%NULL%0,     Katherine H%Chau%NULL%0,     Justin J%Choi%NULL%0,     Nicholas%Gavin%NULL%0,     Parag%Goyal%NULL%0,     Angela M%Mills%NULL%0,     Ashmi A%Patel%NULL%0,     Marie-Laure S%Romney%NULL%0,     Monika M%Safford%NULL%0,     Neil W%Schluger%NULL%0,     Soumitra%Sengupta%NULL%0,     Magdalena E%Sobieszczyk%NULL%0,     Jason E%Zucker%NULL%0,     Paul A%Asadourian%NULL%0,     Fletcher M%Bell%NULL%0,     Rebekah%Boyd%NULL%0,     Matthew F%Cohen%NULL%0,     MacAlistair I%Colquhoun%NULL%0,     Lucy A%Colville%NULL%0,     Joseph H%de Jonge%NULL%0,     Lyle B%Dershowitz%NULL%0,     Shirin A%Dey%NULL%0,     Katherine A%Eiseman%NULL%0,     Zachary P%Girvin%NULL%0,     Daniella T%Goni%NULL%0,     Amro A%Harb%NULL%0,     Nicholas%Herzik%NULL%0,     Sarah%Householder%NULL%0,     Lara E%Karaaslan%NULL%0,     Heather%Lee%NULL%0,     Evan%Lieberman%NULL%0,     Andrew%Ling%NULL%0,     Ree%Lu%NULL%0,     Arthur Y%Shou%NULL%0,     Alexander C%Sisti%NULL%0,     Zachary E%Snow%NULL%0,     Colin P%Sperring%NULL%0,     Yuqing%Xiong%NULL%0,     Henry W%Zhou%NULL%0,     Karthik%Natarajan%NULL%0,     George%Hripcsak%NULL%0,     Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,      Nicholas A.%Fergusson%null%0,      Elisa%Lloyd-Smith%null%0,      Andrew%Wormsbecker%null%0,      Denise%Foster%null%0,      Andrei%Karpov%null%0,      Sarah%Crowe%null%0,      Greg%Haljan%null%0,      Dean R.%Chittock%null%0,      Hussein D.%Kanji%null%0,      Mypinder S.%Sekhon%null%0,      Donald E.G.%Griesdale%null%0,   Anish R.%Mitra%null%1,   Nicholas A.%Fergusson%null%1,   Elisa%Lloyd-Smith%null%1,   Andrew%Wormsbecker%null%1,   Denise%Foster%null%1,   Andrei%Karpov%null%1,   Sarah%Crowe%null%1,   Greg%Haljan%null%1,   Dean R.%Chittock%null%1,   Hussein D.%Kanji%null%1,   Mypinder S.%Sekhon%null%1,   Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,     Mark%Caridi-Scheible%NULL%0,     James M.%Blum%NULL%0,     Chad%Robichaux%NULL%0,     Colleen%Kraft%NULL%0,     Jesse T.%Jacob%NULL%0,     Craig S.%Jabaley%NULL%0,     David%Carpenter%NULL%0,     Roberta%Kaplow%NULL%0,     Alfonso C.%Hernandez-Romieu%NULL%0,     Max W.%Adelman%NULL%0,     Greg S.%Martin%NULL%0,     Craig M.%Coopersmith%NULL%0,     David J.%Murphy%NULL%0,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,     Caroline P. E.%Price%NULL%1,     Elizabeth L.%Gray%NULL%1,     Reeti K.%Gulati%NULL%1,     Matthew%Maksimoski%NULL%1,     Samuel D.%Racette%NULL%1,     Alexander L.%Schneider%NULL%1,     Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,      Di%Wu%NULL%0,      Huilong%Chen%NULL%0,      Weiming%Yan%NULL%0,      Danlei%Yang%NULL%0,      Guang%Chen%NULL%0,      Ke%Ma%NULL%0,      Dong%Xu%NULL%0,      Haijing%Yu%NULL%0,      Hongwu%Wang%NULL%0,      Tao%Wang%NULL%0,      Wei%Guo%NULL%0,      Jia%Chen%NULL%0,      Chen%Ding%NULL%0,      Xiaoping%Zhang%NULL%0,      Jiaquan%Huang%NULL%0,      Meifang%Han%NULL%0,      Shusheng%Li%NULL%0,      Xiaoping%Luo%NULL%0,      Jianping%Zhao%NULL%0,      Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,      Dan%Xu%NULL%0,      Shouzhi%Fu%NULL%0,      Jun%Zhang%NULL%0,      Xiaobo%Yang%NULL%0,      Liang%Xu%NULL%0,      Jiqian%Xu%NULL%0,      Yongran%Wu%NULL%0,      Chaolin%Huang%NULL%0,      Yaqi%Ouyang%NULL%0,      Luyu%Yang%NULL%0,      Minghao%Fang%NULL%0,      Hongwen%Xiao%NULL%0,      Jing%Ma%NULL%0,      Wei%Zhu%NULL%0,      Song%Hu%NULL%0,      Quan%Hu%NULL%0,      Daoyin%Ding%NULL%0,      Ming%Hu%NULL%0,      Guochao%Zhu%NULL%0,      Weijiang%Xu%NULL%0,      Jun%Guo%NULL%0,      Jinglong%Xu%NULL%0,      Haitao%Yuan%NULL%0,      Bin%Zhang%NULL%0,      Zhui%Yu%yuzhui@whu.edu.cn%0,      Dechang%Chen%icudechangchen@163.com%0,      Shiying%Yuan%yuan_shiying@163.com%0,      You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,     Becker%L.B.%coreGivesNoEmail%0,     Chelico%J.D.%coreGivesNoEmail%0,     Cohen%S.L.%coreGivesNoEmail%0,     Cookingham%J.%coreGivesNoEmail%0,     Coppa%K.%coreGivesNoEmail%0,     Crawford%J.M.%coreGivesNoEmail%0,     Davidson%K.W.%coreGivesNoEmail%0,     Diefenbach%M.A.%coreGivesNoEmail%0,     Dominello%A.J.%coreGivesNoEmail%0,     Duer-Hefele%J.%coreGivesNoEmail%0,     Falzon%L.%coreGivesNoEmail%0,     Gitlin%J.%coreGivesNoEmail%0,     Hajizadeh%N.%coreGivesNoEmail%0,     Harvin%T.G.%coreGivesNoEmail%0,     Hirsch%J.S.%coreGivesNoEmail%0,     Hirschwerk%D.A.%coreGivesNoEmail%0,     Kim%E.J.%coreGivesNoEmail%0,     Kozel%Z.M.%coreGivesNoEmail%0,     Marrast%L.M.%coreGivesNoEmail%0,     McGinn%T.%coreGivesNoEmail%0,     Mogavero%J.N.%coreGivesNoEmail%0,     Narasimhan%M.%coreGivesNoEmail%0,     Osorio%G.A.%coreGivesNoEmail%0,     Qiu%M.%coreGivesNoEmail%0,     Richardson%S.%coreGivesNoEmail%0,     Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,     Cabrini%Luca%coreGivesNoEmail%0,     Castelli%Antonio%coreGivesNoEmail%0,     Cecconi%Maurizio%coreGivesNoEmail%0,     Cereda%Danilo%coreGivesNoEmail%0,     Coluccello%Antonio%coreGivesNoEmail%0,     Foti%Giuseppe%coreGivesNoEmail%0,     Fumagalli%Roberto%coreGivesNoEmail%0,     Grasselli%Giacomo%coreGivesNoEmail%0,     Iotti%Giorgio%coreGivesNoEmail%0,     Latronico%Nicola%coreGivesNoEmail%0,     Lorini%Luca%coreGivesNoEmail%0,     Merler%Stefano%coreGivesNoEmail%0,     Natalini%Giuseppe%coreGivesNoEmail%0,     Pesenti%Antonio%coreGivesNoEmail%0,     Piatti%Alessandra%coreGivesNoEmail%0,     Ranieri%Marco Vito%coreGivesNoEmail%0,     Scandroglio%Anna Mara%coreGivesNoEmail%0,     Storti%Enrico%coreGivesNoEmail%0,     Zanella%Alberto%coreGivesNoEmail%0,     Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,      Bijan J.%Ghassemieh%NULL%0,      Michelle%Nichols%NULL%0,      Richard%Kim%NULL%0,      Keith R.%Jerome%NULL%0,      Arun K.%Nalla%NULL%0,      Alexander L.%Greninger%NULL%0,      Sudhakar%Pipavath%NULL%0,      Mark M.%Wurfel%NULL%0,      Laura%Evans%NULL%0,      Patricia A.%Kritek%NULL%0,      T. Eoin%West%NULL%0,      Andrew%Luks%NULL%0,      Anthony%Gerbino%NULL%0,      Chris R.%Dale%NULL%0,      Jason D.%Goldman%NULL%0,      Shane%O’Mahony%NULL%0,      Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,      Hiroyuki%Shimizu%NULL%1,      Yasushi%Shibue%NULL%1,      Tomohiro%Hosoda%NULL%1,      Keisuke%Iwabuchi%NULL%1,      Kotaro%Nagamine%NULL%1,      Hiroki%Saito%NULL%1,      Reimin%Sawada%NULL%1,      Takayuki%Oishi%NULL%1,      Jun%Tsukiji%NULL%1,      Hiroyuki%Fujita%NULL%1,      Ryosuke%Furuya%NULL%1,      Makoto%Masuda%NULL%1,      Osamu%Akasaka%NULL%1,      Yu%Ikeda%NULL%1,      Mitsuo%Sakamoto%NULL%1,      Kazuya%Sakai%NULL%1,      Munehito%Uchiyama%NULL%1,      Hiroki%Watanabe%NULL%1,      Nobuhiro%Yamaguchi%NULL%1,      Ryoko%Higa%NULL%1,      Akiko%Sasaki%NULL%1,      Katsuaki%Tanaka%NULL%1,      Yukitoshi%Toyoda%NULL%1,      Shinsuke%Hamanaka%NULL%1,      Naoki%Miyazawa%NULL%1,      Atsuko%Shimizu%NULL%1,      Fumie%Fukase%NULL%1,      Shunsuke%Iwai%NULL%1,      Yuko%Komase%NULL%1,      Tsutomu%Kawasaki%NULL%1,      Isao%Nagata%NULL%1,      Yusuke%Nakayama%NULL%1,      Tetsuhiro%Takei%NULL%1,      Katsuo%Kimura%NULL%1,      Reiko%Kunisaki%NULL%1,      Makoto%Kudo%NULL%1,      Ichiro%Takeuchi%NULL%1,      Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,      Yuan%Yu%NULL%0,      Jiqian%Xu%NULL%0,      Huaqing%Shu%NULL%0,      Jia'an%Xia%NULL%0,      Hong%Liu%NULL%0,      Yongran%Wu%NULL%0,      Lu%Zhang%NULL%0,      Zhui%Yu%NULL%0,      Minghao%Fang%NULL%0,      Ting%Yu%NULL%0,      Yaxin%Wang%NULL%0,      Shangwen%Pan%NULL%0,      Xiaojing%Zou%NULL%0,      Shiying%Yuan%NULL%0,      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,      Rong Hua%Tian%NULL%1,      Song%Luo%NULL%0,      Zi Yue%Zu%NULL%1,      Bin%Fan%NULL%1,      Xi Ming%Wang%NULL%1,      Kai%Xu%NULL%1,      Jiang Tao%Wang%NULL%1,      Juan%Zhu%NULL%1,      Ji Chan%Shi%NULL%1,      Feng%Chen%NULL%1,      Bing%Wan%NULL%1,      Zhi Han%Yan%NULL%1,      Rong Pin%Wang%NULL%1,      Wen%Chen%NULL%1,      Wen Hui%Fan%NULL%1,      Can%Zhang%NULL%1,      Meng Jie%Lu%NULL%1,      Zhi Yuan%Sun%NULL%0,      Chang Sheng%Zhou%NULL%0,      Li Na%Zhang%NULL%1,      Fei%Xia%NULL%0,      Li%Qi%NULL%1,      Wei%Zhang%NULL%0,      Jing%Zhong%NULL%1,      Xiao Xue%Liu%NULL%1,      Qi Rui%Zhang%NULL%1,      Guang Ming%Lu%NULL%0,      Long Jiang%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,      Matthew R%Baldwin%NULL%0,      Darryl%Abrams%NULL%1,      Samuel D%Jacobson%NULL%1,      Benjamin J%Meyer%NULL%1,      Elizabeth M%Balough%NULL%1,      Justin G%Aaron%NULL%1,      Jan%Claassen%NULL%1,      LeRoy E%Rabbani%NULL%1,      Jonathan%Hastie%NULL%1,      Beth R%Hochman%NULL%1,      John%Salazar-Schicchi%NULL%1,      Natalie H%Yip%NULL%1,      Daniel%Brodie%NULL%0,      Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,      Samuel L%Bruce%NULL%0,      Cody L%Slater%NULL%0,      Jonathan R%Tiao%NULL%0,      Matthew R%Baldwin%NULL%0,      R Graham%Barr%NULL%0,      Bernard P%Chang%NULL%0,      Katherine H%Chau%NULL%0,      Justin J%Choi%NULL%0,      Nicholas%Gavin%NULL%0,      Parag%Goyal%NULL%0,      Angela M%Mills%NULL%0,      Ashmi A%Patel%NULL%0,      Marie-Laure S%Romney%NULL%0,      Monika M%Safford%NULL%0,      Neil W%Schluger%NULL%0,      Soumitra%Sengupta%NULL%0,      Magdalena E%Sobieszczyk%NULL%0,      Jason E%Zucker%NULL%0,      Paul A%Asadourian%NULL%0,      Fletcher M%Bell%NULL%0,      Rebekah%Boyd%NULL%0,      Matthew F%Cohen%NULL%0,      MacAlistair I%Colquhoun%NULL%0,      Lucy A%Colville%NULL%0,      Joseph H%de Jonge%NULL%0,      Lyle B%Dershowitz%NULL%0,      Shirin A%Dey%NULL%0,      Katherine A%Eiseman%NULL%0,      Zachary P%Girvin%NULL%0,      Daniella T%Goni%NULL%0,      Amro A%Harb%NULL%0,      Nicholas%Herzik%NULL%0,      Sarah%Householder%NULL%0,      Lara E%Karaaslan%NULL%0,      Heather%Lee%NULL%0,      Evan%Lieberman%NULL%0,      Andrew%Ling%NULL%0,      Ree%Lu%NULL%0,      Arthur Y%Shou%NULL%0,      Alexander C%Sisti%NULL%0,      Zachary E%Snow%NULL%0,      Colin P%Sperring%NULL%0,      Yuqing%Xiong%NULL%0,      Henry W%Zhou%NULL%0,      Karthik%Natarajan%NULL%0,      George%Hripcsak%NULL%0,      Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,       Nicholas A.%Fergusson%null%1,       Elisa%Lloyd-Smith%null%1,       Andrew%Wormsbecker%null%1,       Denise%Foster%null%1,       Andrei%Karpov%null%1,       Sarah%Crowe%null%1,       Greg%Haljan%null%1,       Dean R.%Chittock%null%1,       Hussein D.%Kanji%null%1,       Mypinder S.%Sekhon%null%1,       Donald E.G.%Griesdale%null%1,    Anish R.%Mitra%null%0,    Nicholas A.%Fergusson%null%0,    Elisa%Lloyd-Smith%null%0,    Andrew%Wormsbecker%null%0,    Denise%Foster%null%0,    Andrei%Karpov%null%0,    Sarah%Crowe%null%0,    Greg%Haljan%null%0,    Dean R.%Chittock%null%0,    Hussein D.%Kanji%null%0,    Mypinder S.%Sekhon%null%0,    Donald E.G.%Griesdale%null%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,      Mark%Caridi-Scheible%NULL%0,      James M.%Blum%NULL%0,      Chad%Robichaux%NULL%0,      Colleen%Kraft%NULL%0,      Jesse T.%Jacob%NULL%0,      Craig S.%Jabaley%NULL%0,      David%Carpenter%NULL%0,      Roberta%Kaplow%NULL%0,      Alfonso C.%Hernandez-Romieu%NULL%0,      Max W.%Adelman%NULL%0,      Greg S.%Martin%NULL%0,      Craig M.%Coopersmith%NULL%0,      David J.%Murphy%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,      Caroline P. E.%Price%NULL%1,      Elizabeth L.%Gray%NULL%1,      Reeti K.%Gulati%NULL%1,      Matthew%Maksimoski%NULL%1,      Samuel D.%Racette%NULL%1,      Alexander L.%Schneider%NULL%1,      Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,       Di%Wu%NULL%0,       Huilong%Chen%NULL%0,       Weiming%Yan%NULL%0,       Danlei%Yang%NULL%0,       Guang%Chen%NULL%0,       Ke%Ma%NULL%0,       Dong%Xu%NULL%0,       Haijing%Yu%NULL%0,       Hongwu%Wang%NULL%0,       Tao%Wang%NULL%0,       Wei%Guo%NULL%0,       Jia%Chen%NULL%0,       Chen%Ding%NULL%0,       Xiaoping%Zhang%NULL%0,       Jiaquan%Huang%NULL%0,       Meifang%Han%NULL%0,       Shusheng%Li%NULL%0,       Xiaoping%Luo%NULL%0,       Jianping%Zhao%NULL%0,       Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,       Dan%Xu%NULL%0,       Shouzhi%Fu%NULL%0,       Jun%Zhang%NULL%0,       Xiaobo%Yang%NULL%0,       Liang%Xu%NULL%0,       Jiqian%Xu%NULL%0,       Yongran%Wu%NULL%0,       Chaolin%Huang%NULL%0,       Yaqi%Ouyang%NULL%0,       Luyu%Yang%NULL%0,       Minghao%Fang%NULL%0,       Hongwen%Xiao%NULL%0,       Jing%Ma%NULL%0,       Wei%Zhu%NULL%0,       Song%Hu%NULL%0,       Quan%Hu%NULL%0,       Daoyin%Ding%NULL%0,       Ming%Hu%NULL%0,       Guochao%Zhu%NULL%0,       Weijiang%Xu%NULL%0,       Jun%Guo%NULL%0,       Jinglong%Xu%NULL%0,       Haitao%Yuan%NULL%0,       Bin%Zhang%NULL%0,       Zhui%Yu%yuzhui@whu.edu.cn%0,       Dechang%Chen%icudechangchen@163.com%0,       Shiying%Yuan%yuan_shiying@163.com%0,       You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,      Becker%L.B.%coreGivesNoEmail%0,      Chelico%J.D.%coreGivesNoEmail%0,      Cohen%S.L.%coreGivesNoEmail%0,      Cookingham%J.%coreGivesNoEmail%0,      Coppa%K.%coreGivesNoEmail%0,      Crawford%J.M.%coreGivesNoEmail%0,      Davidson%K.W.%coreGivesNoEmail%0,      Diefenbach%M.A.%coreGivesNoEmail%0,      Dominello%A.J.%coreGivesNoEmail%0,      Duer-Hefele%J.%coreGivesNoEmail%0,      Falzon%L.%coreGivesNoEmail%0,      Gitlin%J.%coreGivesNoEmail%0,      Hajizadeh%N.%coreGivesNoEmail%0,      Harvin%T.G.%coreGivesNoEmail%0,      Hirsch%J.S.%coreGivesNoEmail%0,      Hirschwerk%D.A.%coreGivesNoEmail%0,      Kim%E.J.%coreGivesNoEmail%0,      Kozel%Z.M.%coreGivesNoEmail%0,      Marrast%L.M.%coreGivesNoEmail%0,      McGinn%T.%coreGivesNoEmail%0,      Mogavero%J.N.%coreGivesNoEmail%0,      Narasimhan%M.%coreGivesNoEmail%0,      Osorio%G.A.%coreGivesNoEmail%0,      Qiu%M.%coreGivesNoEmail%0,      Richardson%S.%coreGivesNoEmail%0,      Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,      Cabrini%Luca%coreGivesNoEmail%0,      Castelli%Antonio%coreGivesNoEmail%0,      Cecconi%Maurizio%coreGivesNoEmail%0,      Cereda%Danilo%coreGivesNoEmail%0,      Coluccello%Antonio%coreGivesNoEmail%0,      Foti%Giuseppe%coreGivesNoEmail%0,      Fumagalli%Roberto%coreGivesNoEmail%0,      Grasselli%Giacomo%coreGivesNoEmail%0,      Iotti%Giorgio%coreGivesNoEmail%0,      Latronico%Nicola%coreGivesNoEmail%0,      Lorini%Luca%coreGivesNoEmail%0,      Merler%Stefano%coreGivesNoEmail%0,      Natalini%Giuseppe%coreGivesNoEmail%0,      Pesenti%Antonio%coreGivesNoEmail%0,      Piatti%Alessandra%coreGivesNoEmail%0,      Ranieri%Marco Vito%coreGivesNoEmail%0,      Scandroglio%Anna Mara%coreGivesNoEmail%0,      Storti%Enrico%coreGivesNoEmail%0,      Zanella%Alberto%coreGivesNoEmail%0,      Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,       Bijan J.%Ghassemieh%NULL%0,       Michelle%Nichols%NULL%0,       Richard%Kim%NULL%0,       Keith R.%Jerome%NULL%0,       Arun K.%Nalla%NULL%0,       Alexander L.%Greninger%NULL%0,       Sudhakar%Pipavath%NULL%0,       Mark M.%Wurfel%NULL%0,       Laura%Evans%NULL%0,       Patricia A.%Kritek%NULL%0,       T. Eoin%West%NULL%0,       Andrew%Luks%NULL%0,       Anthony%Gerbino%NULL%0,       Chris R.%Dale%NULL%0,       Jason D.%Goldman%NULL%0,       Shane%O’Mahony%NULL%0,       Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,       Hiroyuki%Shimizu%NULL%1,       Yasushi%Shibue%NULL%1,       Tomohiro%Hosoda%NULL%1,       Keisuke%Iwabuchi%NULL%1,       Kotaro%Nagamine%NULL%1,       Hiroki%Saito%NULL%1,       Reimin%Sawada%NULL%1,       Takayuki%Oishi%NULL%1,       Jun%Tsukiji%NULL%1,       Hiroyuki%Fujita%NULL%1,       Ryosuke%Furuya%NULL%1,       Makoto%Masuda%NULL%1,       Osamu%Akasaka%NULL%1,       Yu%Ikeda%NULL%1,       Mitsuo%Sakamoto%NULL%1,       Kazuya%Sakai%NULL%1,       Munehito%Uchiyama%NULL%1,       Hiroki%Watanabe%NULL%1,       Nobuhiro%Yamaguchi%NULL%1,       Ryoko%Higa%NULL%1,       Akiko%Sasaki%NULL%1,       Katsuaki%Tanaka%NULL%1,       Yukitoshi%Toyoda%NULL%1,       Shinsuke%Hamanaka%NULL%1,       Naoki%Miyazawa%NULL%1,       Atsuko%Shimizu%NULL%1,       Fumie%Fukase%NULL%1,       Shunsuke%Iwai%NULL%1,       Yuko%Komase%NULL%1,       Tsutomu%Kawasaki%NULL%1,       Isao%Nagata%NULL%1,       Yusuke%Nakayama%NULL%1,       Tetsuhiro%Takei%NULL%1,       Katsuo%Kimura%NULL%1,       Reiko%Kunisaki%NULL%1,       Makoto%Kudo%NULL%1,       Ichiro%Takeuchi%NULL%1,       Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,       Yuan%Yu%NULL%0,       Jiqian%Xu%NULL%0,       Huaqing%Shu%NULL%0,       Jia'an%Xia%NULL%0,       Hong%Liu%NULL%0,       Yongran%Wu%NULL%0,       Lu%Zhang%NULL%0,       Zhui%Yu%NULL%0,       Minghao%Fang%NULL%0,       Ting%Yu%NULL%0,       Yaxin%Wang%NULL%0,       Shangwen%Pan%NULL%0,       Xiaojing%Zou%NULL%0,       Shiying%Yuan%NULL%0,       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,       Rong Hua%Tian%NULL%1,       Song%Luo%NULL%0,       Zi Yue%Zu%NULL%1,       Bin%Fan%NULL%1,       Xi Ming%Wang%NULL%1,       Kai%Xu%NULL%1,       Jiang Tao%Wang%NULL%1,       Juan%Zhu%NULL%1,       Ji Chan%Shi%NULL%1,       Feng%Chen%NULL%1,       Bing%Wan%NULL%1,       Zhi Han%Yan%NULL%1,       Rong Pin%Wang%NULL%1,       Wen%Chen%NULL%1,       Wen Hui%Fan%NULL%1,       Can%Zhang%NULL%1,       Meng Jie%Lu%NULL%1,       Zhi Yuan%Sun%NULL%0,       Chang Sheng%Zhou%NULL%0,       Li Na%Zhang%NULL%1,       Fei%Xia%NULL%0,       Li%Qi%NULL%1,       Wei%Zhang%NULL%0,       Jing%Zhong%NULL%1,       Xiao Xue%Liu%NULL%1,       Qi Rui%Zhang%NULL%1,       Guang Ming%Lu%NULL%0,       Long Jiang%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,       Matthew R%Baldwin%NULL%0,       Darryl%Abrams%NULL%1,       Samuel D%Jacobson%NULL%1,       Benjamin J%Meyer%NULL%1,       Elizabeth M%Balough%NULL%1,       Justin G%Aaron%NULL%1,       Jan%Claassen%NULL%1,       LeRoy E%Rabbani%NULL%1,       Jonathan%Hastie%NULL%1,       Beth R%Hochman%NULL%1,       John%Salazar-Schicchi%NULL%1,       Natalie H%Yip%NULL%1,       Daniel%Brodie%NULL%0,       Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,       Samuel L%Bruce%NULL%0,       Cody L%Slater%NULL%0,       Jonathan R%Tiao%NULL%0,       Matthew R%Baldwin%NULL%0,       R Graham%Barr%NULL%0,       Bernard P%Chang%NULL%0,       Katherine H%Chau%NULL%0,       Justin J%Choi%NULL%0,       Nicholas%Gavin%NULL%0,       Parag%Goyal%NULL%0,       Angela M%Mills%NULL%0,       Ashmi A%Patel%NULL%0,       Marie-Laure S%Romney%NULL%0,       Monika M%Safford%NULL%0,       Neil W%Schluger%NULL%0,       Soumitra%Sengupta%NULL%0,       Magdalena E%Sobieszczyk%NULL%0,       Jason E%Zucker%NULL%0,       Paul A%Asadourian%NULL%0,       Fletcher M%Bell%NULL%0,       Rebekah%Boyd%NULL%0,       Matthew F%Cohen%NULL%0,       MacAlistair I%Colquhoun%NULL%0,       Lucy A%Colville%NULL%0,       Joseph H%de Jonge%NULL%0,       Lyle B%Dershowitz%NULL%0,       Shirin A%Dey%NULL%0,       Katherine A%Eiseman%NULL%0,       Zachary P%Girvin%NULL%0,       Daniella T%Goni%NULL%0,       Amro A%Harb%NULL%0,       Nicholas%Herzik%NULL%0,       Sarah%Householder%NULL%0,       Lara E%Karaaslan%NULL%0,       Heather%Lee%NULL%0,       Evan%Lieberman%NULL%0,       Andrew%Ling%NULL%0,       Ree%Lu%NULL%0,       Arthur Y%Shou%NULL%0,       Alexander C%Sisti%NULL%0,       Zachary E%Snow%NULL%0,       Colin P%Sperring%NULL%0,       Yuqing%Xiong%NULL%0,       Henry W%Zhou%NULL%0,       Karthik%Natarajan%NULL%0,       George%Hripcsak%NULL%0,       Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,        Nicholas A.%Fergusson%null%1,        Elisa%Lloyd-Smith%null%1,        Andrew%Wormsbecker%null%1,        Denise%Foster%null%1,        Andrei%Karpov%null%1,        Sarah%Crowe%null%1,        Greg%Haljan%null%1,        Dean R.%Chittock%null%1,        Hussein D.%Kanji%null%1,        Mypinder S.%Sekhon%null%1,        Donald E.G.%Griesdale%null%1,     Anish R.%Mitra%null%0,     Nicholas A.%Fergusson%null%0,     Elisa%Lloyd-Smith%null%0,     Andrew%Wormsbecker%null%0,     Denise%Foster%null%0,     Andrei%Karpov%null%0,     Sarah%Crowe%null%0,     Greg%Haljan%null%0,     Dean R.%Chittock%null%0,     Hussein D.%Kanji%null%0,     Mypinder S.%Sekhon%null%0,     Donald E.G.%Griesdale%null%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,       Mark%Caridi-Scheible%NULL%0,       James M.%Blum%NULL%0,       Chad%Robichaux%NULL%0,       Colleen%Kraft%NULL%0,       Jesse T.%Jacob%NULL%0,       Craig S.%Jabaley%NULL%0,       David%Carpenter%NULL%0,       Roberta%Kaplow%NULL%0,       Alfonso C.%Hernandez-Romieu%NULL%0,       Max W.%Adelman%NULL%0,       Greg S.%Martin%NULL%0,       Craig M.%Coopersmith%NULL%0,       David J.%Murphy%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,       Caroline P. E.%Price%NULL%1,       Elizabeth L.%Gray%NULL%1,       Reeti K.%Gulati%NULL%1,       Matthew%Maksimoski%NULL%1,       Samuel D.%Racette%NULL%1,       Alexander L.%Schneider%NULL%1,       Ashoke R.%Khanwalkar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1122,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1034,7 +1151,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1063,13 +1180,13 @@
         <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
@@ -1092,13 +1209,13 @@
         <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
@@ -1121,7 +1238,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
@@ -1150,7 +1267,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1208,7 +1325,7 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1237,7 +1354,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1266,7 +1383,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1295,7 +1412,7 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="F13" t="s">
         <v>68</v>
@@ -1324,7 +1441,7 @@
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
         <v>73</v>
@@ -1353,7 +1470,7 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="F15" t="s">
         <v>79</v>
@@ -1382,7 +1499,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>

--- a/Covid_19_Dataset_and_References/References/83.xlsx
+++ b/Covid_19_Dataset_and_References/References/83.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="204">
   <si>
     <t>Doi</t>
   </si>
@@ -756,6 +756,99 @@
   </si>
   <si>
     <t>[Kevin%Hur%NULL%1,       Caroline P. E.%Price%NULL%1,       Elizabeth L.%Gray%NULL%1,       Reeti K.%Gulati%NULL%1,       Matthew%Maksimoski%NULL%1,       Samuel D.%Racette%NULL%1,       Alexander L.%Schneider%NULL%1,       Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,        Di%Wu%NULL%0,        Huilong%Chen%NULL%0,        Weiming%Yan%NULL%0,        Danlei%Yang%NULL%0,        Guang%Chen%NULL%0,        Ke%Ma%NULL%0,        Dong%Xu%NULL%0,        Haijing%Yu%NULL%0,        Hongwu%Wang%NULL%0,        Tao%Wang%NULL%0,        Wei%Guo%NULL%0,        Jia%Chen%NULL%0,        Chen%Ding%NULL%0,        Xiaoping%Zhang%NULL%0,        Jiaquan%Huang%NULL%0,        Meifang%Han%NULL%0,        Shusheng%Li%NULL%0,        Xiaoping%Luo%NULL%0,        Jianping%Zhao%NULL%0,        Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,        Dan%Xu%NULL%0,        Shouzhi%Fu%NULL%0,        Jun%Zhang%NULL%0,        Xiaobo%Yang%NULL%0,        Liang%Xu%NULL%0,        Jiqian%Xu%NULL%0,        Yongran%Wu%NULL%0,        Chaolin%Huang%NULL%0,        Yaqi%Ouyang%NULL%0,        Luyu%Yang%NULL%0,        Minghao%Fang%NULL%0,        Hongwen%Xiao%NULL%0,        Jing%Ma%NULL%0,        Wei%Zhu%NULL%0,        Song%Hu%NULL%0,        Quan%Hu%NULL%0,        Daoyin%Ding%NULL%0,        Ming%Hu%NULL%0,        Guochao%Zhu%NULL%0,        Weijiang%Xu%NULL%0,        Jun%Guo%NULL%0,        Jinglong%Xu%NULL%0,        Haitao%Yuan%NULL%0,        Bin%Zhang%NULL%0,        Zhui%Yu%yuzhui@whu.edu.cn%0,        Dechang%Chen%icudechangchen@163.com%0,        Shiying%Yuan%yuan_shiying@163.com%0,        You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,       Becker%L.B.%coreGivesNoEmail%0,       Chelico%J.D.%coreGivesNoEmail%0,       Cohen%S.L.%coreGivesNoEmail%0,       Cookingham%J.%coreGivesNoEmail%0,       Coppa%K.%coreGivesNoEmail%0,       Crawford%J.M.%coreGivesNoEmail%0,       Davidson%K.W.%coreGivesNoEmail%0,       Diefenbach%M.A.%coreGivesNoEmail%0,       Dominello%A.J.%coreGivesNoEmail%0,       Duer-Hefele%J.%coreGivesNoEmail%0,       Falzon%L.%coreGivesNoEmail%0,       Gitlin%J.%coreGivesNoEmail%0,       Hajizadeh%N.%coreGivesNoEmail%0,       Harvin%T.G.%coreGivesNoEmail%0,       Hirsch%J.S.%coreGivesNoEmail%0,       Hirschwerk%D.A.%coreGivesNoEmail%0,       Kim%E.J.%coreGivesNoEmail%0,       Kozel%Z.M.%coreGivesNoEmail%0,       Marrast%L.M.%coreGivesNoEmail%0,       McGinn%T.%coreGivesNoEmail%0,       Mogavero%J.N.%coreGivesNoEmail%0,       Narasimhan%M.%coreGivesNoEmail%0,       Osorio%G.A.%coreGivesNoEmail%0,       Qiu%M.%coreGivesNoEmail%0,       Richardson%S.%coreGivesNoEmail%0,       Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,       Cabrini%Luca%coreGivesNoEmail%0,       Castelli%Antonio%coreGivesNoEmail%0,       Cecconi%Maurizio%coreGivesNoEmail%0,       Cereda%Danilo%coreGivesNoEmail%0,       Coluccello%Antonio%coreGivesNoEmail%0,       Foti%Giuseppe%coreGivesNoEmail%0,       Fumagalli%Roberto%coreGivesNoEmail%0,       Grasselli%Giacomo%coreGivesNoEmail%0,       Iotti%Giorgio%coreGivesNoEmail%0,       Latronico%Nicola%coreGivesNoEmail%0,       Lorini%Luca%coreGivesNoEmail%0,       Merler%Stefano%coreGivesNoEmail%0,       Natalini%Giuseppe%coreGivesNoEmail%0,       Pesenti%Antonio%coreGivesNoEmail%0,       Piatti%Alessandra%coreGivesNoEmail%0,       Ranieri%Marco Vito%coreGivesNoEmail%0,       Scandroglio%Anna Mara%coreGivesNoEmail%0,       Storti%Enrico%coreGivesNoEmail%0,       Zanella%Alberto%coreGivesNoEmail%0,       Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,        Bijan J.%Ghassemieh%NULL%0,        Michelle%Nichols%NULL%0,        Richard%Kim%NULL%0,        Keith R.%Jerome%NULL%0,        Arun K.%Nalla%NULL%0,        Alexander L.%Greninger%NULL%0,        Sudhakar%Pipavath%NULL%0,        Mark M.%Wurfel%NULL%0,        Laura%Evans%NULL%0,        Patricia A.%Kritek%NULL%0,        T. Eoin%West%NULL%0,        Andrew%Luks%NULL%0,        Anthony%Gerbino%NULL%0,        Chris R.%Dale%NULL%0,        Jason D.%Goldman%NULL%0,        Shane%O’Mahony%NULL%0,        Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,        Hiroyuki%Shimizu%NULL%1,        Yasushi%Shibue%NULL%1,        Tomohiro%Hosoda%NULL%1,        Keisuke%Iwabuchi%NULL%1,        Kotaro%Nagamine%NULL%1,        Hiroki%Saito%NULL%1,        Reimin%Sawada%NULL%1,        Takayuki%Oishi%NULL%1,        Jun%Tsukiji%NULL%1,        Hiroyuki%Fujita%NULL%1,        Ryosuke%Furuya%NULL%1,        Makoto%Masuda%NULL%1,        Osamu%Akasaka%NULL%1,        Yu%Ikeda%NULL%1,        Mitsuo%Sakamoto%NULL%1,        Kazuya%Sakai%NULL%1,        Munehito%Uchiyama%NULL%1,        Hiroki%Watanabe%NULL%1,        Nobuhiro%Yamaguchi%NULL%1,        Ryoko%Higa%NULL%1,        Akiko%Sasaki%NULL%1,        Katsuaki%Tanaka%NULL%1,        Yukitoshi%Toyoda%NULL%1,        Shinsuke%Hamanaka%NULL%1,        Naoki%Miyazawa%NULL%1,        Atsuko%Shimizu%NULL%1,        Fumie%Fukase%NULL%1,        Shunsuke%Iwai%NULL%1,        Yuko%Komase%NULL%1,        Tsutomu%Kawasaki%NULL%1,        Isao%Nagata%NULL%1,        Yusuke%Nakayama%NULL%1,        Tetsuhiro%Takei%NULL%1,        Katsuo%Kimura%NULL%1,        Reiko%Kunisaki%NULL%1,        Makoto%Kudo%NULL%1,        Ichiro%Takeuchi%NULL%0,        Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Risk Factors Associated With Acute Respiratory Distress Syndrome and Death in Patients With Coronavirus Disease 2019 Pneumonia in Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0, Xiaoyan%Chen%xref no email%0, Yanping%Cai%xref no email%0, Jia\u2019an%Xia%xref no email%0, Xing%Zhou%xref no email%0, Sha%Xu%xref no email%0, Hanping%Huang%xref no email%0, Li%Zhang%xref no email%0, Xia%Zhou%xref no email%0, Chunling%Du%xref no email%0, Yuye%Zhang%xref no email%0, Juan%Song%xref no email%0, Sijiao%Wang%xref no email%0, Yencheng%Chao%xref no email%0, Zeyong%Yang%xref no email%0, Jie%Xu%xref no email%0, Xin%Zhou%xref no email%0, Dechang%Chen%xref no email%0, Weining%Xiong%xref no email%0, Lei%Xu%xref no email%0, Feng%Zhou%xref no email%0, Jinjun%Jiang%xref no email%0, Chunxue%Bai%xref no email%0, Junhua%Zheng%xref no email%0, Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,        Yuan%Yu%NULL%0,        Jiqian%Xu%NULL%0,        Huaqing%Shu%NULL%0,        Jia'an%Xia%NULL%0,        Hong%Liu%NULL%0,        Yongran%Wu%NULL%0,        Lu%Zhang%NULL%0,        Zhui%Yu%NULL%0,        Minghao%Fang%NULL%0,        Ting%Yu%NULL%0,        Yaxin%Wang%NULL%0,        Shangwen%Pan%NULL%0,        Xiaojing%Zou%NULL%0,        Shiying%Yuan%NULL%0,        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,        Rong Hua%Tian%NULL%1,        Song%Luo%NULL%1,        Zi Yue%Zu%NULL%1,        Bin%Fan%NULL%1,        Xi Ming%Wang%NULL%1,        Kai%Xu%NULL%1,        Jiang Tao%Wang%NULL%1,        Juan%Zhu%NULL%1,        Ji Chan%Shi%NULL%1,        Feng%Chen%NULL%1,        Bing%Wan%NULL%1,        Zhi Han%Yan%NULL%1,        Rong Pin%Wang%NULL%1,        Wen%Chen%NULL%1,        Wen Hui%Fan%NULL%1,        Can%Zhang%NULL%1,        Meng Jie%Lu%NULL%1,        Zhi Yuan%Sun%NULL%1,        Chang Sheng%Zhou%NULL%1,        Li Na%Zhang%NULL%1,        Fei%Xia%NULL%1,        Li%Qi%NULL%1,        Wei%Zhang%NULL%0,        Jing%Zhong%NULL%1,        Xiao Xue%Liu%NULL%1,        Qi Rui%Zhang%NULL%1,        Guang Ming%Lu%NULL%1,        Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,        Matthew R%Baldwin%NULL%0,        Darryl%Abrams%NULL%1,        Samuel D%Jacobson%NULL%1,        Benjamin J%Meyer%NULL%1,        Elizabeth M%Balough%NULL%1,        Justin G%Aaron%NULL%1,        Jan%Claassen%NULL%1,        LeRoy E%Rabbani%NULL%1,        Jonathan%Hastie%NULL%1,        Beth R%Hochman%NULL%1,        John%Salazar-Schicchi%NULL%1,        Natalie H%Yip%NULL%1,        Daniel%Brodie%NULL%2,        Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,        Samuel L%Bruce%NULL%0,        Cody L%Slater%NULL%0,        Jonathan R%Tiao%NULL%0,        Matthew R%Baldwin%NULL%0,        R Graham%Barr%NULL%0,        Bernard P%Chang%NULL%0,        Katherine H%Chau%NULL%0,        Justin J%Choi%NULL%0,        Nicholas%Gavin%NULL%0,        Parag%Goyal%NULL%0,        Angela M%Mills%NULL%0,        Ashmi A%Patel%NULL%0,        Marie-Laure S%Romney%NULL%0,        Monika M%Safford%NULL%0,        Neil W%Schluger%NULL%0,        Soumitra%Sengupta%NULL%0,        Magdalena E%Sobieszczyk%NULL%0,        Jason E%Zucker%NULL%0,        Paul A%Asadourian%NULL%0,        Fletcher M%Bell%NULL%0,        Rebekah%Boyd%NULL%0,        Matthew F%Cohen%NULL%0,        MacAlistair I%Colquhoun%NULL%0,        Lucy A%Colville%NULL%0,        Joseph H%de Jonge%NULL%0,        Lyle B%Dershowitz%NULL%0,        Shirin A%Dey%NULL%0,        Katherine A%Eiseman%NULL%0,        Zachary P%Girvin%NULL%0,        Daniella T%Goni%NULL%0,        Amro A%Harb%NULL%0,        Nicholas%Herzik%NULL%0,        Sarah%Householder%NULL%0,        Lara E%Karaaslan%NULL%0,        Heather%Lee%NULL%0,        Evan%Lieberman%NULL%0,        Andrew%Ling%NULL%0,        Ree%Lu%NULL%0,        Arthur Y%Shou%NULL%0,        Alexander C%Sisti%NULL%0,        Zachary E%Snow%NULL%0,        Colin P%Sperring%NULL%0,        Yuqing%Xiong%NULL%0,        Henry W%Zhou%NULL%0,        Karthik%Natarajan%NULL%0,        George%Hripcsak%NULL%0,        Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,         Nicholas A.%Fergusson%null%0,         Elisa%Lloyd-Smith%null%0,         Andrew%Wormsbecker%null%0,         Denise%Foster%null%0,         Andrei%Karpov%null%0,         Sarah%Crowe%null%0,         Greg%Haljan%null%0,         Dean R.%Chittock%null%0,         Hussein D.%Kanji%null%0,         Mypinder S.%Sekhon%null%0,         Donald E.G.%Griesdale%null%0,      Anish R.%Mitra%null%1,      Nicholas A.%Fergusson%null%1,      Elisa%Lloyd-Smith%null%1,      Andrew%Wormsbecker%null%1,      Denise%Foster%null%1,      Andrei%Karpov%null%1,      Sarah%Crowe%null%1,      Greg%Haljan%null%1,      Dean R.%Chittock%null%1,      Hussein D.%Kanji%null%1,      Mypinder S.%Sekhon%null%1,      Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,        Mark%Caridi-Scheible%NULL%0,        James M.%Blum%NULL%0,        Chad%Robichaux%NULL%0,        Colleen%Kraft%NULL%0,        Jesse T.%Jacob%NULL%0,        Craig S.%Jabaley%NULL%0,        David%Carpenter%NULL%0,        Roberta%Kaplow%NULL%0,        Alfonso C.%Hernandez-Romieu%NULL%0,        Max W.%Adelman%NULL%0,        Greg S.%Martin%NULL%0,        Craig M.%Coopersmith%NULL%0,        David J.%Murphy%NULL%0,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,        Caroline P. E.%Price%NULL%1,        Elizabeth L.%Gray%NULL%1,        Reeti K.%Gulati%NULL%1,        Matthew%Maksimoski%NULL%1,        Samuel D.%Racette%NULL%1,        Alexander L.%Schneider%NULL%1,        Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,         Di%Wu%NULL%0,         Huilong%Chen%NULL%0,         Weiming%Yan%NULL%0,         Danlei%Yang%NULL%0,         Guang%Chen%NULL%0,         Ke%Ma%NULL%0,         Dong%Xu%NULL%0,         Haijing%Yu%NULL%0,         Hongwu%Wang%NULL%0,         Tao%Wang%NULL%0,         Wei%Guo%NULL%0,         Jia%Chen%NULL%0,         Chen%Ding%NULL%0,         Xiaoping%Zhang%NULL%0,         Jiaquan%Huang%NULL%0,         Meifang%Han%NULL%0,         Shusheng%Li%NULL%0,         Xiaoping%Luo%NULL%0,         Jianping%Zhao%NULL%0,         Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,         Dan%Xu%NULL%0,         Shouzhi%Fu%NULL%0,         Jun%Zhang%NULL%0,         Xiaobo%Yang%NULL%0,         Liang%Xu%NULL%0,         Jiqian%Xu%NULL%0,         Yongran%Wu%NULL%0,         Chaolin%Huang%NULL%0,         Yaqi%Ouyang%NULL%0,         Luyu%Yang%NULL%0,         Minghao%Fang%NULL%0,         Hongwen%Xiao%NULL%0,         Jing%Ma%NULL%0,         Wei%Zhu%NULL%0,         Song%Hu%NULL%0,         Quan%Hu%NULL%0,         Daoyin%Ding%NULL%0,         Ming%Hu%NULL%0,         Guochao%Zhu%NULL%0,         Weijiang%Xu%NULL%0,         Jun%Guo%NULL%0,         Jinglong%Xu%NULL%0,         Haitao%Yuan%NULL%0,         Bin%Zhang%NULL%0,         Zhui%Yu%yuzhui@whu.edu.cn%0,         Dechang%Chen%icudechangchen@163.com%0,         Shiying%Yuan%yuan_shiying@163.com%0,         You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,        Becker%L.B.%coreGivesNoEmail%0,        Chelico%J.D.%coreGivesNoEmail%0,        Cohen%S.L.%coreGivesNoEmail%0,        Cookingham%J.%coreGivesNoEmail%0,        Coppa%K.%coreGivesNoEmail%0,        Crawford%J.M.%coreGivesNoEmail%0,        Davidson%K.W.%coreGivesNoEmail%0,        Diefenbach%M.A.%coreGivesNoEmail%0,        Dominello%A.J.%coreGivesNoEmail%0,        Duer-Hefele%J.%coreGivesNoEmail%0,        Falzon%L.%coreGivesNoEmail%0,        Gitlin%J.%coreGivesNoEmail%0,        Hajizadeh%N.%coreGivesNoEmail%0,        Harvin%T.G.%coreGivesNoEmail%0,        Hirsch%J.S.%coreGivesNoEmail%0,        Hirschwerk%D.A.%coreGivesNoEmail%0,        Kim%E.J.%coreGivesNoEmail%0,        Kozel%Z.M.%coreGivesNoEmail%0,        Marrast%L.M.%coreGivesNoEmail%0,        McGinn%T.%coreGivesNoEmail%0,        Mogavero%J.N.%coreGivesNoEmail%0,        Narasimhan%M.%coreGivesNoEmail%0,        Osorio%G.A.%coreGivesNoEmail%0,        Qiu%M.%coreGivesNoEmail%0,        Richardson%S.%coreGivesNoEmail%0,        Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,        Cabrini%Luca%coreGivesNoEmail%0,        Castelli%Antonio%coreGivesNoEmail%0,        Cecconi%Maurizio%coreGivesNoEmail%0,        Cereda%Danilo%coreGivesNoEmail%0,        Coluccello%Antonio%coreGivesNoEmail%0,        Foti%Giuseppe%coreGivesNoEmail%0,        Fumagalli%Roberto%coreGivesNoEmail%0,        Grasselli%Giacomo%coreGivesNoEmail%0,        Iotti%Giorgio%coreGivesNoEmail%0,        Latronico%Nicola%coreGivesNoEmail%0,        Lorini%Luca%coreGivesNoEmail%0,        Merler%Stefano%coreGivesNoEmail%0,        Natalini%Giuseppe%coreGivesNoEmail%0,        Pesenti%Antonio%coreGivesNoEmail%0,        Piatti%Alessandra%coreGivesNoEmail%0,        Ranieri%Marco Vito%coreGivesNoEmail%0,        Scandroglio%Anna Mara%coreGivesNoEmail%0,        Storti%Enrico%coreGivesNoEmail%0,        Zanella%Alberto%coreGivesNoEmail%0,        Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,         Bijan J.%Ghassemieh%NULL%0,         Michelle%Nichols%NULL%0,         Richard%Kim%NULL%0,         Keith R.%Jerome%NULL%0,         Arun K.%Nalla%NULL%0,         Alexander L.%Greninger%NULL%0,         Sudhakar%Pipavath%NULL%0,         Mark M.%Wurfel%NULL%0,         Laura%Evans%NULL%0,         Patricia A.%Kritek%NULL%0,         T. Eoin%West%NULL%0,         Andrew%Luks%NULL%0,         Anthony%Gerbino%NULL%0,         Chris R.%Dale%NULL%0,         Jason D.%Goldman%NULL%0,         Shane%O’Mahony%NULL%0,         Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,         Hiroyuki%Shimizu%NULL%1,         Yasushi%Shibue%NULL%1,         Tomohiro%Hosoda%NULL%1,         Keisuke%Iwabuchi%NULL%1,         Kotaro%Nagamine%NULL%1,         Hiroki%Saito%NULL%1,         Reimin%Sawada%NULL%1,         Takayuki%Oishi%NULL%1,         Jun%Tsukiji%NULL%1,         Hiroyuki%Fujita%NULL%1,         Ryosuke%Furuya%NULL%1,         Makoto%Masuda%NULL%1,         Osamu%Akasaka%NULL%1,         Yu%Ikeda%NULL%1,         Mitsuo%Sakamoto%NULL%1,         Kazuya%Sakai%NULL%1,         Munehito%Uchiyama%NULL%1,         Hiroki%Watanabe%NULL%1,         Nobuhiro%Yamaguchi%NULL%1,         Ryoko%Higa%NULL%1,         Akiko%Sasaki%NULL%1,         Katsuaki%Tanaka%NULL%1,         Yukitoshi%Toyoda%NULL%1,         Shinsuke%Hamanaka%NULL%1,         Naoki%Miyazawa%NULL%1,         Atsuko%Shimizu%NULL%1,         Fumie%Fukase%NULL%1,         Shunsuke%Iwai%NULL%1,         Yuko%Komase%NULL%1,         Tsutomu%Kawasaki%NULL%1,         Isao%Nagata%NULL%1,         Yusuke%Nakayama%NULL%1,         Tetsuhiro%Takei%NULL%1,         Katsuo%Kimura%NULL%1,         Reiko%Kunisaki%NULL%1,         Makoto%Kudo%NULL%1,         Ichiro%Takeuchi%NULL%0,         Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,  Xiaoyan%Chen%xref no email%0,  Yanping%Cai%xref no email%0,  Jia\u2019an%Xia%xref no email%0,  Xing%Zhou%xref no email%0,  Sha%Xu%xref no email%0,  Hanping%Huang%xref no email%0,  Li%Zhang%xref no email%0,  Xia%Zhou%xref no email%0,  Chunling%Du%xref no email%0,  Yuye%Zhang%xref no email%0,  Juan%Song%xref no email%0,  Sijiao%Wang%xref no email%0,  Yencheng%Chao%xref no email%0,  Zeyong%Yang%xref no email%0,  Jie%Xu%xref no email%0,  Xin%Zhou%xref no email%0,  Dechang%Chen%xref no email%0,  Weining%Xiong%xref no email%0,  Lei%Xu%xref no email%0,  Feng%Zhou%xref no email%0,  Jinjun%Jiang%xref no email%0,  Chunxue%Bai%xref no email%0,  Junhua%Zheng%xref no email%0,  Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,         Yuan%Yu%NULL%0,         Jiqian%Xu%NULL%0,         Huaqing%Shu%NULL%0,         Jia'an%Xia%NULL%0,         Hong%Liu%NULL%0,         Yongran%Wu%NULL%0,         Lu%Zhang%NULL%0,         Zhui%Yu%NULL%0,         Minghao%Fang%NULL%0,         Ting%Yu%NULL%0,         Yaxin%Wang%NULL%0,         Shangwen%Pan%NULL%0,         Xiaojing%Zou%NULL%0,         Shiying%Yuan%NULL%0,         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,         Rong Hua%Tian%NULL%1,         Song%Luo%NULL%1,         Zi Yue%Zu%NULL%1,         Bin%Fan%NULL%1,         Xi Ming%Wang%NULL%1,         Kai%Xu%NULL%1,         Jiang Tao%Wang%NULL%1,         Juan%Zhu%NULL%1,         Ji Chan%Shi%NULL%1,         Feng%Chen%NULL%1,         Bing%Wan%NULL%1,         Zhi Han%Yan%NULL%1,         Rong Pin%Wang%NULL%1,         Wen%Chen%NULL%1,         Wen Hui%Fan%NULL%1,         Can%Zhang%NULL%1,         Meng Jie%Lu%NULL%1,         Zhi Yuan%Sun%NULL%1,         Chang Sheng%Zhou%NULL%1,         Li Na%Zhang%NULL%1,         Fei%Xia%NULL%1,         Li%Qi%NULL%1,         Wei%Zhang%NULL%0,         Jing%Zhong%NULL%1,         Xiao Xue%Liu%NULL%1,         Qi Rui%Zhang%NULL%1,         Guang Ming%Lu%NULL%1,         Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,         Matthew R%Baldwin%NULL%0,         Darryl%Abrams%NULL%1,         Samuel D%Jacobson%NULL%1,         Benjamin J%Meyer%NULL%1,         Elizabeth M%Balough%NULL%1,         Justin G%Aaron%NULL%1,         Jan%Claassen%NULL%1,         LeRoy E%Rabbani%NULL%1,         Jonathan%Hastie%NULL%1,         Beth R%Hochman%NULL%1,         John%Salazar-Schicchi%NULL%1,         Natalie H%Yip%NULL%1,         Daniel%Brodie%NULL%2,         Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,         Samuel L%Bruce%NULL%0,         Cody L%Slater%NULL%0,         Jonathan R%Tiao%NULL%0,         Matthew R%Baldwin%NULL%0,         R Graham%Barr%NULL%0,         Bernard P%Chang%NULL%0,         Katherine H%Chau%NULL%0,         Justin J%Choi%NULL%0,         Nicholas%Gavin%NULL%0,         Parag%Goyal%NULL%0,         Angela M%Mills%NULL%0,         Ashmi A%Patel%NULL%0,         Marie-Laure S%Romney%NULL%0,         Monika M%Safford%NULL%0,         Neil W%Schluger%NULL%0,         Soumitra%Sengupta%NULL%0,         Magdalena E%Sobieszczyk%NULL%0,         Jason E%Zucker%NULL%0,         Paul A%Asadourian%NULL%0,         Fletcher M%Bell%NULL%0,         Rebekah%Boyd%NULL%0,         Matthew F%Cohen%NULL%0,         MacAlistair I%Colquhoun%NULL%0,         Lucy A%Colville%NULL%0,         Joseph H%de Jonge%NULL%0,         Lyle B%Dershowitz%NULL%0,         Shirin A%Dey%NULL%0,         Katherine A%Eiseman%NULL%0,         Zachary P%Girvin%NULL%0,         Daniella T%Goni%NULL%0,         Amro A%Harb%NULL%0,         Nicholas%Herzik%NULL%0,         Sarah%Householder%NULL%0,         Lara E%Karaaslan%NULL%0,         Heather%Lee%NULL%0,         Evan%Lieberman%NULL%0,         Andrew%Ling%NULL%0,         Ree%Lu%NULL%0,         Arthur Y%Shou%NULL%0,         Alexander C%Sisti%NULL%0,         Zachary E%Snow%NULL%0,         Colin P%Sperring%NULL%0,         Yuqing%Xiong%NULL%0,         Henry W%Zhou%NULL%0,         Karthik%Natarajan%NULL%0,         George%Hripcsak%NULL%0,         Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,          Nicholas A.%Fergusson%null%0,          Elisa%Lloyd-Smith%null%0,          Andrew%Wormsbecker%null%0,          Denise%Foster%null%0,          Andrei%Karpov%null%0,          Sarah%Crowe%null%0,          Greg%Haljan%null%0,          Dean R.%Chittock%null%0,          Hussein D.%Kanji%null%0,          Mypinder S.%Sekhon%null%0,          Donald E.G.%Griesdale%null%0,       Anish R.%Mitra%null%1,       Nicholas A.%Fergusson%null%1,       Elisa%Lloyd-Smith%null%1,       Andrew%Wormsbecker%null%1,       Denise%Foster%null%1,       Andrei%Karpov%null%1,       Sarah%Crowe%null%1,       Greg%Haljan%null%1,       Dean R.%Chittock%null%1,       Hussein D.%Kanji%null%1,       Mypinder S.%Sekhon%null%1,       Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,         Mark%Caridi-Scheible%NULL%0,         James M.%Blum%NULL%0,         Chad%Robichaux%NULL%0,         Colleen%Kraft%NULL%0,         Jesse T.%Jacob%NULL%0,         Craig S.%Jabaley%NULL%0,         David%Carpenter%NULL%0,         Roberta%Kaplow%NULL%0,         Alfonso C.%Hernandez-Romieu%NULL%0,         Max W.%Adelman%NULL%0,         Greg S.%Martin%NULL%0,         Craig M.%Coopersmith%NULL%0,         David J.%Murphy%NULL%0,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,         Caroline P. E.%Price%NULL%1,         Elizabeth L.%Gray%NULL%1,         Reeti K.%Gulati%NULL%1,         Matthew%Maksimoski%NULL%1,         Samuel D.%Racette%NULL%1,         Alexander L.%Schneider%NULL%1,         Ashoke R.%Khanwalkar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1215,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1151,7 +1244,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1180,7 +1273,7 @@
         <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1209,7 +1302,7 @@
         <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1238,7 +1331,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
@@ -1267,7 +1360,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1290,22 +1383,22 @@
         <v>44013.0</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="I9" t="s">
         <v>117</v>
@@ -1325,7 +1418,7 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1354,7 +1447,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1383,7 +1476,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1412,7 +1505,7 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="F13" t="s">
         <v>68</v>
@@ -1441,7 +1534,7 @@
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="F14" t="s">
         <v>73</v>
@@ -1470,7 +1563,7 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="F15" t="s">
         <v>79</v>
@@ -1499,7 +1592,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>

--- a/Covid_19_Dataset_and_References/References/83.xlsx
+++ b/Covid_19_Dataset_and_References/References/83.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="232">
   <si>
     <t>Doi</t>
   </si>
@@ -849,6 +849,90 @@
   </si>
   <si>
     <t>[Kevin%Hur%NULL%1,         Caroline P. E.%Price%NULL%1,         Elizabeth L.%Gray%NULL%1,         Reeti K.%Gulati%NULL%1,         Matthew%Maksimoski%NULL%1,         Samuel D.%Racette%NULL%1,         Alexander L.%Schneider%NULL%1,         Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,          Di%Wu%NULL%0,          Huilong%Chen%NULL%0,          Weiming%Yan%NULL%0,          Danlei%Yang%NULL%0,          Guang%Chen%NULL%0,          Ke%Ma%NULL%0,          Dong%Xu%NULL%0,          Haijing%Yu%NULL%0,          Hongwu%Wang%NULL%0,          Tao%Wang%NULL%0,          Wei%Guo%NULL%0,          Jia%Chen%NULL%0,          Chen%Ding%NULL%0,          Xiaoping%Zhang%NULL%0,          Jiaquan%Huang%NULL%0,          Meifang%Han%NULL%0,          Shusheng%Li%NULL%0,          Xiaoping%Luo%NULL%0,          Jianping%Zhao%NULL%0,          Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,          Dan%Xu%NULL%0,          Shouzhi%Fu%NULL%0,          Jun%Zhang%NULL%0,          Xiaobo%Yang%NULL%0,          Liang%Xu%NULL%0,          Jiqian%Xu%NULL%0,          Yongran%Wu%NULL%0,          Chaolin%Huang%NULL%0,          Yaqi%Ouyang%NULL%0,          Luyu%Yang%NULL%0,          Minghao%Fang%NULL%0,          Hongwen%Xiao%NULL%0,          Jing%Ma%NULL%0,          Wei%Zhu%NULL%0,          Song%Hu%NULL%0,          Quan%Hu%NULL%0,          Daoyin%Ding%NULL%0,          Ming%Hu%NULL%0,          Guochao%Zhu%NULL%0,          Weijiang%Xu%NULL%0,          Jun%Guo%NULL%0,          Jinglong%Xu%NULL%0,          Haitao%Yuan%NULL%0,          Bin%Zhang%NULL%0,          Zhui%Yu%yuzhui@whu.edu.cn%0,          Dechang%Chen%icudechangchen@163.com%0,          Shiying%Yuan%yuan_shiying@163.com%0,          You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,         Becker%L.B.%coreGivesNoEmail%0,         Chelico%J.D.%coreGivesNoEmail%0,         Cohen%S.L.%coreGivesNoEmail%0,         Cookingham%J.%coreGivesNoEmail%0,         Coppa%K.%coreGivesNoEmail%0,         Crawford%J.M.%coreGivesNoEmail%0,         Davidson%K.W.%coreGivesNoEmail%0,         Diefenbach%M.A.%coreGivesNoEmail%0,         Dominello%A.J.%coreGivesNoEmail%0,         Duer-Hefele%J.%coreGivesNoEmail%0,         Falzon%L.%coreGivesNoEmail%0,         Gitlin%J.%coreGivesNoEmail%0,         Hajizadeh%N.%coreGivesNoEmail%0,         Harvin%T.G.%coreGivesNoEmail%0,         Hirsch%J.S.%coreGivesNoEmail%0,         Hirschwerk%D.A.%coreGivesNoEmail%0,         Kim%E.J.%coreGivesNoEmail%0,         Kozel%Z.M.%coreGivesNoEmail%0,         Marrast%L.M.%coreGivesNoEmail%0,         McGinn%T.%coreGivesNoEmail%0,         Mogavero%J.N.%coreGivesNoEmail%0,         Narasimhan%M.%coreGivesNoEmail%0,         Osorio%G.A.%coreGivesNoEmail%0,         Qiu%M.%coreGivesNoEmail%0,         Richardson%S.%coreGivesNoEmail%0,         Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,         Cabrini%Luca%coreGivesNoEmail%0,         Castelli%Antonio%coreGivesNoEmail%0,         Cecconi%Maurizio%coreGivesNoEmail%0,         Cereda%Danilo%coreGivesNoEmail%0,         Coluccello%Antonio%coreGivesNoEmail%0,         Foti%Giuseppe%coreGivesNoEmail%0,         Fumagalli%Roberto%coreGivesNoEmail%0,         Grasselli%Giacomo%coreGivesNoEmail%0,         Iotti%Giorgio%coreGivesNoEmail%0,         Latronico%Nicola%coreGivesNoEmail%0,         Lorini%Luca%coreGivesNoEmail%0,         Merler%Stefano%coreGivesNoEmail%0,         Natalini%Giuseppe%coreGivesNoEmail%0,         Pesenti%Antonio%coreGivesNoEmail%0,         Piatti%Alessandra%coreGivesNoEmail%0,         Ranieri%Marco Vito%coreGivesNoEmail%0,         Scandroglio%Anna Mara%coreGivesNoEmail%0,         Storti%Enrico%coreGivesNoEmail%0,         Zanella%Alberto%coreGivesNoEmail%0,         Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,          Bijan J.%Ghassemieh%NULL%0,          Michelle%Nichols%NULL%0,          Richard%Kim%NULL%0,          Keith R.%Jerome%NULL%0,          Arun K.%Nalla%NULL%0,          Alexander L.%Greninger%NULL%0,          Sudhakar%Pipavath%NULL%0,          Mark M.%Wurfel%NULL%0,          Laura%Evans%NULL%0,          Patricia A.%Kritek%NULL%0,          T. Eoin%West%NULL%0,          Andrew%Luks%NULL%0,          Anthony%Gerbino%NULL%0,          Chris R.%Dale%NULL%0,          Jason D.%Goldman%NULL%0,          Shane%O’Mahony%NULL%0,          Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,          Hiroyuki%Shimizu%NULL%1,          Yasushi%Shibue%NULL%1,          Tomohiro%Hosoda%NULL%1,          Keisuke%Iwabuchi%NULL%1,          Kotaro%Nagamine%NULL%1,          Hiroki%Saito%NULL%1,          Reimin%Sawada%NULL%1,          Takayuki%Oishi%NULL%1,          Jun%Tsukiji%NULL%1,          Hiroyuki%Fujita%NULL%1,          Ryosuke%Furuya%NULL%1,          Makoto%Masuda%NULL%1,          Osamu%Akasaka%NULL%1,          Yu%Ikeda%NULL%1,          Mitsuo%Sakamoto%NULL%1,          Kazuya%Sakai%NULL%1,          Munehito%Uchiyama%NULL%1,          Hiroki%Watanabe%NULL%1,          Nobuhiro%Yamaguchi%NULL%1,          Ryoko%Higa%NULL%1,          Akiko%Sasaki%NULL%1,          Katsuaki%Tanaka%NULL%1,          Yukitoshi%Toyoda%NULL%1,          Shinsuke%Hamanaka%NULL%1,          Naoki%Miyazawa%NULL%1,          Atsuko%Shimizu%NULL%1,          Fumie%Fukase%NULL%1,          Shunsuke%Iwai%NULL%1,          Yuko%Komase%NULL%1,          Tsutomu%Kawasaki%NULL%1,          Isao%Nagata%NULL%1,          Yusuke%Nakayama%NULL%1,          Tetsuhiro%Takei%NULL%1,          Katsuo%Kimura%NULL%1,          Reiko%Kunisaki%NULL%1,          Makoto%Kudo%NULL%1,          Ichiro%Takeuchi%NULL%0,          Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,   Xiaoyan%Chen%xref no email%0,   Yanping%Cai%xref no email%0,   Jia\u2019an%Xia%xref no email%0,   Xing%Zhou%xref no email%0,   Sha%Xu%xref no email%0,   Hanping%Huang%xref no email%0,   Li%Zhang%xref no email%0,   Xia%Zhou%xref no email%0,   Chunling%Du%xref no email%0,   Yuye%Zhang%xref no email%0,   Juan%Song%xref no email%0,   Sijiao%Wang%xref no email%0,   Yencheng%Chao%xref no email%0,   Zeyong%Yang%xref no email%0,   Jie%Xu%xref no email%0,   Xin%Zhou%xref no email%0,   Dechang%Chen%xref no email%0,   Weining%Xiong%xref no email%0,   Lei%Xu%xref no email%0,   Feng%Zhou%xref no email%0,   Jinjun%Jiang%xref no email%0,   Chunxue%Bai%xref no email%0,   Junhua%Zheng%xref no email%0,   Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,          Yuan%Yu%NULL%0,          Jiqian%Xu%NULL%0,          Huaqing%Shu%NULL%0,          Jia'an%Xia%NULL%0,          Hong%Liu%NULL%0,          Yongran%Wu%NULL%0,          Lu%Zhang%NULL%0,          Zhui%Yu%NULL%0,          Minghao%Fang%NULL%0,          Ting%Yu%NULL%0,          Yaxin%Wang%NULL%0,          Shangwen%Pan%NULL%0,          Xiaojing%Zou%NULL%0,          Shiying%Yuan%NULL%0,          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,          Rong Hua%Tian%NULL%1,          Song%Luo%NULL%1,          Zi Yue%Zu%NULL%1,          Bin%Fan%NULL%1,          Xi Ming%Wang%NULL%1,          Kai%Xu%NULL%1,          Jiang Tao%Wang%NULL%1,          Juan%Zhu%NULL%1,          Ji Chan%Shi%NULL%1,          Feng%Chen%NULL%1,          Bing%Wan%NULL%1,          Zhi Han%Yan%NULL%1,          Rong Pin%Wang%NULL%1,          Wen%Chen%NULL%1,          Wen Hui%Fan%NULL%1,          Can%Zhang%NULL%1,          Meng Jie%Lu%NULL%1,          Zhi Yuan%Sun%NULL%1,          Chang Sheng%Zhou%NULL%1,          Li Na%Zhang%NULL%1,          Fei%Xia%NULL%1,          Li%Qi%NULL%1,          Wei%Zhang%NULL%0,          Jing%Zhong%NULL%1,          Xiao Xue%Liu%NULL%1,          Qi Rui%Zhang%NULL%1,          Guang Ming%Lu%NULL%1,          Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,          Matthew R%Baldwin%NULL%0,          Darryl%Abrams%NULL%1,          Samuel D%Jacobson%NULL%1,          Benjamin J%Meyer%NULL%1,          Elizabeth M%Balough%NULL%1,          Justin G%Aaron%NULL%1,          Jan%Claassen%NULL%1,          LeRoy E%Rabbani%NULL%1,          Jonathan%Hastie%NULL%1,          Beth R%Hochman%NULL%1,          John%Salazar-Schicchi%NULL%1,          Natalie H%Yip%NULL%1,          Daniel%Brodie%NULL%2,          Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,          Samuel L%Bruce%NULL%0,          Cody L%Slater%NULL%0,          Jonathan R%Tiao%NULL%0,          Matthew R%Baldwin%NULL%0,          R Graham%Barr%NULL%0,          Bernard P%Chang%NULL%0,          Katherine H%Chau%NULL%0,          Justin J%Choi%NULL%0,          Nicholas%Gavin%NULL%0,          Parag%Goyal%NULL%0,          Angela M%Mills%NULL%0,          Ashmi A%Patel%NULL%0,          Marie-Laure S%Romney%NULL%0,          Monika M%Safford%NULL%0,          Neil W%Schluger%NULL%0,          Soumitra%Sengupta%NULL%0,          Magdalena E%Sobieszczyk%NULL%0,          Jason E%Zucker%NULL%0,          Paul A%Asadourian%NULL%0,          Fletcher M%Bell%NULL%0,          Rebekah%Boyd%NULL%0,          Matthew F%Cohen%NULL%0,          MacAlistair I%Colquhoun%NULL%0,          Lucy A%Colville%NULL%0,          Joseph H%de Jonge%NULL%0,          Lyle B%Dershowitz%NULL%0,          Shirin A%Dey%NULL%0,          Katherine A%Eiseman%NULL%0,          Zachary P%Girvin%NULL%0,          Daniella T%Goni%NULL%0,          Amro A%Harb%NULL%0,          Nicholas%Herzik%NULL%0,          Sarah%Householder%NULL%0,          Lara E%Karaaslan%NULL%0,          Heather%Lee%NULL%0,          Evan%Lieberman%NULL%0,          Andrew%Ling%NULL%0,          Ree%Lu%NULL%0,          Arthur Y%Shou%NULL%0,          Alexander C%Sisti%NULL%0,          Zachary E%Snow%NULL%0,          Colin P%Sperring%NULL%0,          Yuqing%Xiong%NULL%0,          Henry W%Zhou%NULL%0,          Karthik%Natarajan%NULL%0,          George%Hripcsak%NULL%0,          Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,           Nicholas A.%Fergusson%null%0,           Elisa%Lloyd-Smith%null%0,           Andrew%Wormsbecker%null%0,           Denise%Foster%null%0,           Andrei%Karpov%null%0,           Sarah%Crowe%null%0,           Greg%Haljan%null%0,           Dean R.%Chittock%null%0,           Hussein D.%Kanji%null%0,           Mypinder S.%Sekhon%null%0,           Donald E.G.%Griesdale%null%0,        Anish R.%Mitra%null%1,        Nicholas A.%Fergusson%null%1,        Elisa%Lloyd-Smith%null%1,        Andrew%Wormsbecker%null%1,        Denise%Foster%null%1,        Andrei%Karpov%null%1,        Sarah%Crowe%null%1,        Greg%Haljan%null%1,        Dean R.%Chittock%null%1,        Hussein D.%Kanji%null%1,        Mypinder S.%Sekhon%null%1,        Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,          Mark%Caridi-Scheible%NULL%0,          James M.%Blum%NULL%0,          Chad%Robichaux%NULL%0,          Colleen%Kraft%NULL%0,          Jesse T.%Jacob%NULL%0,          Craig S.%Jabaley%NULL%0,          David%Carpenter%NULL%0,          Roberta%Kaplow%NULL%0,          Alfonso C.%Hernandez-Romieu%NULL%0,          Max W.%Adelman%NULL%0,          Greg S.%Martin%NULL%0,          Craig M.%Coopersmith%NULL%0,          David J.%Murphy%NULL%0,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,          Caroline P. E.%Price%NULL%1,          Elizabeth L.%Gray%NULL%1,          Reeti K.%Gulati%NULL%1,          Matthew%Maksimoski%NULL%1,          Samuel D.%Racette%NULL%1,          Alexander L.%Schneider%NULL%1,          Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,           Di%Wu%NULL%0,           Huilong%Chen%NULL%0,           Weiming%Yan%NULL%0,           Danlei%Yang%NULL%0,           Guang%Chen%NULL%0,           Ke%Ma%NULL%0,           Dong%Xu%NULL%0,           Haijing%Yu%NULL%0,           Hongwu%Wang%NULL%0,           Tao%Wang%NULL%0,           Wei%Guo%NULL%0,           Jia%Chen%NULL%0,           Chen%Ding%NULL%0,           Xiaoping%Zhang%NULL%0,           Jiaquan%Huang%NULL%0,           Meifang%Han%NULL%0,           Shusheng%Li%NULL%0,           Xiaoping%Luo%NULL%0,           Jianping%Zhao%NULL%0,           Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,           Dan%Xu%NULL%0,           Shouzhi%Fu%NULL%0,           Jun%Zhang%NULL%0,           Xiaobo%Yang%NULL%0,           Liang%Xu%NULL%0,           Jiqian%Xu%NULL%0,           Yongran%Wu%NULL%0,           Chaolin%Huang%NULL%0,           Yaqi%Ouyang%NULL%0,           Luyu%Yang%NULL%0,           Minghao%Fang%NULL%0,           Hongwen%Xiao%NULL%0,           Jing%Ma%NULL%0,           Wei%Zhu%NULL%0,           Song%Hu%NULL%0,           Quan%Hu%NULL%0,           Daoyin%Ding%NULL%0,           Ming%Hu%NULL%0,           Guochao%Zhu%NULL%0,           Weijiang%Xu%NULL%0,           Jun%Guo%NULL%0,           Jinglong%Xu%NULL%0,           Haitao%Yuan%NULL%0,           Bin%Zhang%NULL%0,           Zhui%Yu%yuzhui@whu.edu.cn%0,           Dechang%Chen%icudechangchen@163.com%0,           Shiying%Yuan%yuan_shiying@163.com%0,           You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,          Becker%L.B.%coreGivesNoEmail%0,          Chelico%J.D.%coreGivesNoEmail%0,          Cohen%S.L.%coreGivesNoEmail%0,          Cookingham%J.%coreGivesNoEmail%0,          Coppa%K.%coreGivesNoEmail%0,          Crawford%J.M.%coreGivesNoEmail%0,          Davidson%K.W.%coreGivesNoEmail%0,          Diefenbach%M.A.%coreGivesNoEmail%0,          Dominello%A.J.%coreGivesNoEmail%0,          Duer-Hefele%J.%coreGivesNoEmail%0,          Falzon%L.%coreGivesNoEmail%0,          Gitlin%J.%coreGivesNoEmail%0,          Hajizadeh%N.%coreGivesNoEmail%0,          Harvin%T.G.%coreGivesNoEmail%0,          Hirsch%J.S.%coreGivesNoEmail%0,          Hirschwerk%D.A.%coreGivesNoEmail%0,          Kim%E.J.%coreGivesNoEmail%0,          Kozel%Z.M.%coreGivesNoEmail%0,          Marrast%L.M.%coreGivesNoEmail%0,          McGinn%T.%coreGivesNoEmail%0,          Mogavero%J.N.%coreGivesNoEmail%0,          Narasimhan%M.%coreGivesNoEmail%0,          Osorio%G.A.%coreGivesNoEmail%0,          Qiu%M.%coreGivesNoEmail%0,          Richardson%S.%coreGivesNoEmail%0,          Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,          Cabrini%Luca%coreGivesNoEmail%0,          Castelli%Antonio%coreGivesNoEmail%0,          Cecconi%Maurizio%coreGivesNoEmail%0,          Cereda%Danilo%coreGivesNoEmail%0,          Coluccello%Antonio%coreGivesNoEmail%0,          Foti%Giuseppe%coreGivesNoEmail%0,          Fumagalli%Roberto%coreGivesNoEmail%0,          Grasselli%Giacomo%coreGivesNoEmail%0,          Iotti%Giorgio%coreGivesNoEmail%0,          Latronico%Nicola%coreGivesNoEmail%0,          Lorini%Luca%coreGivesNoEmail%0,          Merler%Stefano%coreGivesNoEmail%0,          Natalini%Giuseppe%coreGivesNoEmail%0,          Pesenti%Antonio%coreGivesNoEmail%0,          Piatti%Alessandra%coreGivesNoEmail%0,          Ranieri%Marco Vito%coreGivesNoEmail%0,          Scandroglio%Anna Mara%coreGivesNoEmail%0,          Storti%Enrico%coreGivesNoEmail%0,          Zanella%Alberto%coreGivesNoEmail%0,          Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,           Bijan J.%Ghassemieh%NULL%0,           Michelle%Nichols%NULL%0,           Richard%Kim%NULL%0,           Keith R.%Jerome%NULL%0,           Arun K.%Nalla%NULL%0,           Alexander L.%Greninger%NULL%0,           Sudhakar%Pipavath%NULL%0,           Mark M.%Wurfel%NULL%0,           Laura%Evans%NULL%0,           Patricia A.%Kritek%NULL%0,           T. Eoin%West%NULL%0,           Andrew%Luks%NULL%0,           Anthony%Gerbino%NULL%0,           Chris R.%Dale%NULL%0,           Jason D.%Goldman%NULL%0,           Shane%O’Mahony%NULL%0,           Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,           Hiroyuki%Shimizu%NULL%1,           Yasushi%Shibue%NULL%1,           Tomohiro%Hosoda%NULL%1,           Keisuke%Iwabuchi%NULL%1,           Kotaro%Nagamine%NULL%1,           Hiroki%Saito%NULL%1,           Reimin%Sawada%NULL%1,           Takayuki%Oishi%NULL%1,           Jun%Tsukiji%NULL%1,           Hiroyuki%Fujita%NULL%1,           Ryosuke%Furuya%NULL%1,           Makoto%Masuda%NULL%1,           Osamu%Akasaka%NULL%1,           Yu%Ikeda%NULL%1,           Mitsuo%Sakamoto%NULL%1,           Kazuya%Sakai%NULL%1,           Munehito%Uchiyama%NULL%1,           Hiroki%Watanabe%NULL%1,           Nobuhiro%Yamaguchi%NULL%1,           Ryoko%Higa%NULL%1,           Akiko%Sasaki%NULL%1,           Katsuaki%Tanaka%NULL%1,           Yukitoshi%Toyoda%NULL%1,           Shinsuke%Hamanaka%NULL%1,           Naoki%Miyazawa%NULL%1,           Atsuko%Shimizu%NULL%1,           Fumie%Fukase%NULL%1,           Shunsuke%Iwai%NULL%1,           Yuko%Komase%NULL%1,           Tsutomu%Kawasaki%NULL%1,           Isao%Nagata%NULL%1,           Yusuke%Nakayama%NULL%1,           Tetsuhiro%Takei%NULL%1,           Katsuo%Kimura%NULL%1,           Reiko%Kunisaki%NULL%1,           Makoto%Kudo%NULL%1,           Ichiro%Takeuchi%NULL%0,           Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,    Xiaoyan%Chen%xref no email%0,    Yanping%Cai%xref no email%0,    Jia\u2019an%Xia%xref no email%0,    Xing%Zhou%xref no email%0,    Sha%Xu%xref no email%0,    Hanping%Huang%xref no email%0,    Li%Zhang%xref no email%0,    Xia%Zhou%xref no email%0,    Chunling%Du%xref no email%0,    Yuye%Zhang%xref no email%0,    Juan%Song%xref no email%0,    Sijiao%Wang%xref no email%0,    Yencheng%Chao%xref no email%0,    Zeyong%Yang%xref no email%0,    Jie%Xu%xref no email%0,    Xin%Zhou%xref no email%0,    Dechang%Chen%xref no email%0,    Weining%Xiong%xref no email%0,    Lei%Xu%xref no email%0,    Feng%Zhou%xref no email%0,    Jinjun%Jiang%xref no email%0,    Chunxue%Bai%xref no email%0,    Junhua%Zheng%xref no email%0,    Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,           Yuan%Yu%NULL%0,           Jiqian%Xu%NULL%0,           Huaqing%Shu%NULL%0,           Jia'an%Xia%NULL%0,           Hong%Liu%NULL%0,           Yongran%Wu%NULL%0,           Lu%Zhang%NULL%0,           Zhui%Yu%NULL%0,           Minghao%Fang%NULL%0,           Ting%Yu%NULL%0,           Yaxin%Wang%NULL%0,           Shangwen%Pan%NULL%0,           Xiaojing%Zou%NULL%0,           Shiying%Yuan%NULL%0,           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,           Rong Hua%Tian%NULL%1,           Song%Luo%NULL%1,           Zi Yue%Zu%NULL%1,           Bin%Fan%NULL%1,           Xi Ming%Wang%NULL%1,           Kai%Xu%NULL%1,           Jiang Tao%Wang%NULL%1,           Juan%Zhu%NULL%1,           Ji Chan%Shi%NULL%1,           Feng%Chen%NULL%1,           Bing%Wan%NULL%1,           Zhi Han%Yan%NULL%1,           Rong Pin%Wang%NULL%1,           Wen%Chen%NULL%1,           Wen Hui%Fan%NULL%1,           Can%Zhang%NULL%1,           Meng Jie%Lu%NULL%1,           Zhi Yuan%Sun%NULL%1,           Chang Sheng%Zhou%NULL%1,           Li Na%Zhang%NULL%1,           Fei%Xia%NULL%1,           Li%Qi%NULL%1,           Wei%Zhang%NULL%0,           Jing%Zhong%NULL%1,           Xiao Xue%Liu%NULL%1,           Qi Rui%Zhang%NULL%1,           Guang Ming%Lu%NULL%1,           Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,           Matthew R%Baldwin%NULL%0,           Darryl%Abrams%NULL%1,           Samuel D%Jacobson%NULL%1,           Benjamin J%Meyer%NULL%1,           Elizabeth M%Balough%NULL%1,           Justin G%Aaron%NULL%1,           Jan%Claassen%NULL%1,           LeRoy E%Rabbani%NULL%1,           Jonathan%Hastie%NULL%1,           Beth R%Hochman%NULL%1,           John%Salazar-Schicchi%NULL%1,           Natalie H%Yip%NULL%1,           Daniel%Brodie%NULL%2,           Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,           Samuel L%Bruce%NULL%0,           Cody L%Slater%NULL%0,           Jonathan R%Tiao%NULL%0,           Matthew R%Baldwin%NULL%0,           R Graham%Barr%NULL%0,           Bernard P%Chang%NULL%0,           Katherine H%Chau%NULL%0,           Justin J%Choi%NULL%0,           Nicholas%Gavin%NULL%0,           Parag%Goyal%NULL%0,           Angela M%Mills%NULL%0,           Ashmi A%Patel%NULL%0,           Marie-Laure S%Romney%NULL%0,           Monika M%Safford%NULL%0,           Neil W%Schluger%NULL%0,           Soumitra%Sengupta%NULL%0,           Magdalena E%Sobieszczyk%NULL%0,           Jason E%Zucker%NULL%0,           Paul A%Asadourian%NULL%0,           Fletcher M%Bell%NULL%0,           Rebekah%Boyd%NULL%0,           Matthew F%Cohen%NULL%0,           MacAlistair I%Colquhoun%NULL%0,           Lucy A%Colville%NULL%0,           Joseph H%de Jonge%NULL%0,           Lyle B%Dershowitz%NULL%0,           Shirin A%Dey%NULL%0,           Katherine A%Eiseman%NULL%0,           Zachary P%Girvin%NULL%0,           Daniella T%Goni%NULL%0,           Amro A%Harb%NULL%0,           Nicholas%Herzik%NULL%0,           Sarah%Householder%NULL%0,           Lara E%Karaaslan%NULL%0,           Heather%Lee%NULL%0,           Evan%Lieberman%NULL%0,           Andrew%Ling%NULL%0,           Ree%Lu%NULL%0,           Arthur Y%Shou%NULL%0,           Alexander C%Sisti%NULL%0,           Zachary E%Snow%NULL%0,           Colin P%Sperring%NULL%0,           Yuqing%Xiong%NULL%0,           Henry W%Zhou%NULL%0,           Karthik%Natarajan%NULL%0,           George%Hripcsak%NULL%0,           Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,            Nicholas A.%Fergusson%null%0,            Elisa%Lloyd-Smith%null%0,            Andrew%Wormsbecker%null%0,            Denise%Foster%null%0,            Andrei%Karpov%null%0,            Sarah%Crowe%null%0,            Greg%Haljan%null%0,            Dean R.%Chittock%null%0,            Hussein D.%Kanji%null%0,            Mypinder S.%Sekhon%null%0,            Donald E.G.%Griesdale%null%0,         Anish R.%Mitra%null%1,         Nicholas A.%Fergusson%null%1,         Elisa%Lloyd-Smith%null%1,         Andrew%Wormsbecker%null%1,         Denise%Foster%null%1,         Andrei%Karpov%null%1,         Sarah%Crowe%null%1,         Greg%Haljan%null%1,         Dean R.%Chittock%null%1,         Hussein D.%Kanji%null%1,         Mypinder S.%Sekhon%null%1,         Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,           Mark%Caridi-Scheible%NULL%0,           James M.%Blum%NULL%0,           Chad%Robichaux%NULL%0,           Colleen%Kraft%NULL%0,           Jesse T.%Jacob%NULL%0,           Craig S.%Jabaley%NULL%0,           David%Carpenter%NULL%0,           Roberta%Kaplow%NULL%0,           Alfonso C.%Hernandez-Romieu%NULL%0,           Max W.%Adelman%NULL%0,           Greg S.%Martin%NULL%0,           Craig M.%Coopersmith%NULL%0,           David J.%Murphy%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,           Caroline P. E.%Price%NULL%1,           Elizabeth L.%Gray%NULL%1,           Reeti K.%Gulati%NULL%1,           Matthew%Maksimoski%NULL%1,           Samuel D.%Racette%NULL%1,           Alexander L.%Schneider%NULL%1,           Ashoke R.%Khanwalkar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1299,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1244,7 +1328,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1273,7 +1357,7 @@
         <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1302,7 +1386,7 @@
         <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1331,7 +1415,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
@@ -1360,7 +1444,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1389,7 +1473,7 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1418,7 +1502,7 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1447,7 +1531,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1476,7 +1560,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1505,7 +1589,7 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="F13" t="s">
         <v>68</v>
@@ -1534,7 +1618,7 @@
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="F14" t="s">
         <v>73</v>
@@ -1563,7 +1647,7 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="F15" t="s">
         <v>79</v>
@@ -1592,7 +1676,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>

--- a/Covid_19_Dataset_and_References/References/83.xlsx
+++ b/Covid_19_Dataset_and_References/References/83.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="261">
   <si>
     <t>Doi</t>
   </si>
@@ -933,6 +933,115 @@
   </si>
   <si>
     <t>[Kevin%Hur%NULL%1,           Caroline P. E.%Price%NULL%1,           Elizabeth L.%Gray%NULL%1,           Reeti K.%Gulati%NULL%1,           Matthew%Maksimoski%NULL%1,           Samuel D.%Racette%NULL%1,           Alexander L.%Schneider%NULL%1,           Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,            Di%Wu%NULL%0,            Huilong%Chen%NULL%0,            Weiming%Yan%NULL%0,            Danlei%Yang%NULL%0,            Guang%Chen%NULL%0,            Ke%Ma%NULL%0,            Dong%Xu%NULL%0,            Haijing%Yu%NULL%0,            Hongwu%Wang%NULL%0,            Tao%Wang%NULL%0,            Wei%Guo%NULL%0,            Jia%Chen%NULL%0,            Chen%Ding%NULL%0,            Xiaoping%Zhang%NULL%0,            Jiaquan%Huang%NULL%0,            Meifang%Han%NULL%0,            Shusheng%Li%NULL%0,            Xiaoping%Luo%NULL%0,            Jianping%Zhao%NULL%0,            Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
+ The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
+Methods
+A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
+Results
+A total of 226 patients were included.
+ Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
+ The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
+ Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
+ Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
+ Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
+ By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
+Conclusions
+Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
+ COVID-19 poses a great strain on critical care resources in hospitals.
+Trial registration
+Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
+chictr.
+org.
+cn/edit.
+aspx?pid=49983&amp;amp;htm=4
+</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,            Dan%Xu%NULL%0,            Shouzhi%Fu%NULL%0,            Jun%Zhang%NULL%0,            Xiaobo%Yang%NULL%0,            Liang%Xu%NULL%0,            Jiqian%Xu%NULL%0,            Yongran%Wu%NULL%0,            Chaolin%Huang%NULL%0,            Yaqi%Ouyang%NULL%0,            Luyu%Yang%NULL%0,            Minghao%Fang%NULL%0,            Hongwen%Xiao%NULL%0,            Jing%Ma%NULL%0,            Wei%Zhu%NULL%0,            Song%Hu%NULL%0,            Quan%Hu%NULL%0,            Daoyin%Ding%NULL%0,            Ming%Hu%NULL%0,            Guochao%Zhu%NULL%0,            Weijiang%Xu%NULL%0,            Jun%Guo%NULL%0,            Jinglong%Xu%NULL%0,            Haitao%Yuan%NULL%0,            Bin%Zhang%NULL%0,            Zhui%Yu%yuzhui@whu.edu.cn%0,            Dechang%Chen%icudechangchen@163.com%0,            Shiying%Yuan%yuan_shiying@163.com%0,            You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,           Becker%L.B.%coreGivesNoEmail%0,           Chelico%J.D.%coreGivesNoEmail%0,           Cohen%S.L.%coreGivesNoEmail%0,           Cookingham%J.%coreGivesNoEmail%0,           Coppa%K.%coreGivesNoEmail%0,           Crawford%J.M.%coreGivesNoEmail%0,           Davidson%K.W.%coreGivesNoEmail%0,           Diefenbach%M.A.%coreGivesNoEmail%0,           Dominello%A.J.%coreGivesNoEmail%0,           Duer-Hefele%J.%coreGivesNoEmail%0,           Falzon%L.%coreGivesNoEmail%0,           Gitlin%J.%coreGivesNoEmail%0,           Hajizadeh%N.%coreGivesNoEmail%0,           Harvin%T.G.%coreGivesNoEmail%0,           Hirsch%J.S.%coreGivesNoEmail%0,           Hirschwerk%D.A.%coreGivesNoEmail%0,           Kim%E.J.%coreGivesNoEmail%0,           Kozel%Z.M.%coreGivesNoEmail%0,           Marrast%L.M.%coreGivesNoEmail%0,           McGinn%T.%coreGivesNoEmail%0,           Mogavero%J.N.%coreGivesNoEmail%0,           Narasimhan%M.%coreGivesNoEmail%0,           Osorio%G.A.%coreGivesNoEmail%0,           Qiu%M.%coreGivesNoEmail%0,           Richardson%S.%coreGivesNoEmail%0,           Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,           Cabrini%Luca%coreGivesNoEmail%0,           Castelli%Antonio%coreGivesNoEmail%0,           Cecconi%Maurizio%coreGivesNoEmail%0,           Cereda%Danilo%coreGivesNoEmail%0,           Coluccello%Antonio%coreGivesNoEmail%0,           Foti%Giuseppe%coreGivesNoEmail%0,           Fumagalli%Roberto%coreGivesNoEmail%0,           Grasselli%Giacomo%coreGivesNoEmail%0,           Iotti%Giorgio%coreGivesNoEmail%0,           Latronico%Nicola%coreGivesNoEmail%0,           Lorini%Luca%coreGivesNoEmail%0,           Merler%Stefano%coreGivesNoEmail%0,           Natalini%Giuseppe%coreGivesNoEmail%0,           Pesenti%Antonio%coreGivesNoEmail%0,           Piatti%Alessandra%coreGivesNoEmail%0,           Ranieri%Marco Vito%coreGivesNoEmail%0,           Scandroglio%Anna Mara%coreGivesNoEmail%0,           Storti%Enrico%coreGivesNoEmail%0,           Zanella%Alberto%coreGivesNoEmail%0,           Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,            Bijan J.%Ghassemieh%NULL%0,            Michelle%Nichols%NULL%0,            Richard%Kim%NULL%0,            Keith R.%Jerome%NULL%0,            Arun K.%Nalla%NULL%0,            Alexander L.%Greninger%NULL%0,            Sudhakar%Pipavath%NULL%0,            Mark M.%Wurfel%NULL%0,            Laura%Evans%NULL%0,            Patricia A.%Kritek%NULL%0,            T. Eoin%West%NULL%0,            Andrew%Luks%NULL%0,            Anthony%Gerbino%NULL%0,            Chris R.%Dale%NULL%0,            Jason D.%Goldman%NULL%0,            Shane%O’Mahony%NULL%0,            Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,            Hiroyuki%Shimizu%NULL%1,            Yasushi%Shibue%NULL%1,            Tomohiro%Hosoda%NULL%1,            Keisuke%Iwabuchi%NULL%1,            Kotaro%Nagamine%NULL%1,            Hiroki%Saito%NULL%1,            Reimin%Sawada%NULL%1,            Takayuki%Oishi%NULL%1,            Jun%Tsukiji%NULL%1,            Hiroyuki%Fujita%NULL%1,            Ryosuke%Furuya%NULL%1,            Makoto%Masuda%NULL%1,            Osamu%Akasaka%NULL%1,            Yu%Ikeda%NULL%1,            Mitsuo%Sakamoto%NULL%1,            Kazuya%Sakai%NULL%1,            Munehito%Uchiyama%NULL%1,            Hiroki%Watanabe%NULL%1,            Nobuhiro%Yamaguchi%NULL%1,            Ryoko%Higa%NULL%1,            Akiko%Sasaki%NULL%1,            Katsuaki%Tanaka%NULL%1,            Yukitoshi%Toyoda%NULL%1,            Shinsuke%Hamanaka%NULL%1,            Naoki%Miyazawa%NULL%1,            Atsuko%Shimizu%NULL%1,            Fumie%Fukase%NULL%1,            Shunsuke%Iwai%NULL%1,            Yuko%Komase%NULL%1,            Tsutomu%Kawasaki%NULL%1,            Isao%Nagata%NULL%1,            Yusuke%Nakayama%NULL%1,            Tetsuhiro%Takei%NULL%1,            Katsuo%Kimura%NULL%1,            Reiko%Kunisaki%NULL%1,            Makoto%Kudo%NULL%1,            Ichiro%Takeuchi%NULL%0,            Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,     Xiaoyan%Chen%xref no email%0,     Yanping%Cai%xref no email%0,     Jia\u2019an%Xia%xref no email%0,     Xing%Zhou%xref no email%0,     Sha%Xu%xref no email%0,     Hanping%Huang%xref no email%0,     Li%Zhang%xref no email%0,     Xia%Zhou%xref no email%0,     Chunling%Du%xref no email%0,     Yuye%Zhang%xref no email%0,     Juan%Song%xref no email%0,     Sijiao%Wang%xref no email%0,     Yencheng%Chao%xref no email%0,     Zeyong%Yang%xref no email%0,     Jie%Xu%xref no email%0,     Xin%Zhou%xref no email%0,     Dechang%Chen%xref no email%0,     Weining%Xiong%xref no email%0,     Lei%Xu%xref no email%0,     Feng%Zhou%xref no email%0,     Jinjun%Jiang%xref no email%0,     Chunxue%Bai%xref no email%0,     Junhua%Zheng%xref no email%0,     Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,            Yuan%Yu%NULL%0,            Jiqian%Xu%NULL%0,            Huaqing%Shu%NULL%0,            Jia'an%Xia%NULL%0,            Hong%Liu%NULL%0,            Yongran%Wu%NULL%0,            Lu%Zhang%NULL%0,            Zhui%Yu%NULL%0,            Minghao%Fang%NULL%0,            Ting%Yu%NULL%0,            Yaxin%Wang%NULL%0,            Shangwen%Pan%NULL%0,            Xiaojing%Zou%NULL%0,            Shiying%Yuan%NULL%0,            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,            Rong Hua%Tian%NULL%1,            Song%Luo%NULL%1,            Zi Yue%Zu%NULL%1,            Bin%Fan%NULL%1,            Xi Ming%Wang%NULL%1,            Kai%Xu%NULL%1,            Jiang Tao%Wang%NULL%1,            Juan%Zhu%NULL%1,            Ji Chan%Shi%NULL%1,            Feng%Chen%NULL%1,            Bing%Wan%NULL%1,            Zhi Han%Yan%NULL%1,            Rong Pin%Wang%NULL%1,            Wen%Chen%NULL%1,            Wen Hui%Fan%NULL%1,            Can%Zhang%NULL%1,            Meng Jie%Lu%NULL%1,            Zhi Yuan%Sun%NULL%1,            Chang Sheng%Zhou%NULL%1,            Li Na%Zhang%NULL%1,            Fei%Xia%NULL%1,            Li%Qi%NULL%1,            Wei%Zhang%NULL%0,            Jing%Zhong%NULL%1,            Xiao Xue%Liu%NULL%1,            Qi Rui%Zhang%NULL%1,            Guang Ming%Lu%NULL%1,            Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,            Matthew R%Baldwin%NULL%0,            Darryl%Abrams%NULL%1,            Samuel D%Jacobson%NULL%1,            Benjamin J%Meyer%NULL%1,            Elizabeth M%Balough%NULL%1,            Justin G%Aaron%NULL%1,            Jan%Claassen%NULL%1,            LeRoy E%Rabbani%NULL%1,            Jonathan%Hastie%NULL%1,            Beth R%Hochman%NULL%1,            John%Salazar-Schicchi%NULL%1,            Natalie H%Yip%NULL%1,            Daniel%Brodie%NULL%2,            Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,            Samuel L%Bruce%NULL%0,            Cody L%Slater%NULL%0,            Jonathan R%Tiao%NULL%0,            Matthew R%Baldwin%NULL%0,            R Graham%Barr%NULL%0,            Bernard P%Chang%NULL%0,            Katherine H%Chau%NULL%0,            Justin J%Choi%NULL%0,            Nicholas%Gavin%NULL%0,            Parag%Goyal%NULL%0,            Angela M%Mills%NULL%0,            Ashmi A%Patel%NULL%0,            Marie-Laure S%Romney%NULL%0,            Monika M%Safford%NULL%0,            Neil W%Schluger%NULL%0,            Soumitra%Sengupta%NULL%0,            Magdalena E%Sobieszczyk%NULL%0,            Jason E%Zucker%NULL%0,            Paul A%Asadourian%NULL%0,            Fletcher M%Bell%NULL%0,            Rebekah%Boyd%NULL%0,            Matthew F%Cohen%NULL%0,            MacAlistair I%Colquhoun%NULL%0,            Lucy A%Colville%NULL%0,            Joseph H%de Jonge%NULL%0,            Lyle B%Dershowitz%NULL%0,            Shirin A%Dey%NULL%0,            Katherine A%Eiseman%NULL%0,            Zachary P%Girvin%NULL%0,            Daniella T%Goni%NULL%0,            Amro A%Harb%NULL%0,            Nicholas%Herzik%NULL%0,            Sarah%Householder%NULL%0,            Lara E%Karaaslan%NULL%0,            Heather%Lee%NULL%0,            Evan%Lieberman%NULL%0,            Andrew%Ling%NULL%0,            Ree%Lu%NULL%0,            Arthur Y%Shou%NULL%0,            Alexander C%Sisti%NULL%0,            Zachary E%Snow%NULL%0,            Colin P%Sperring%NULL%0,            Yuqing%Xiong%NULL%0,            Henry W%Zhou%NULL%0,            Karthik%Natarajan%NULL%0,            George%Hripcsak%NULL%0,            Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,             Nicholas A.%Fergusson%null%0,             Elisa%Lloyd-Smith%null%0,             Andrew%Wormsbecker%null%0,             Denise%Foster%null%0,             Andrei%Karpov%null%0,             Sarah%Crowe%null%0,             Greg%Haljan%null%0,             Dean R.%Chittock%null%0,             Hussein D.%Kanji%null%0,             Mypinder S.%Sekhon%null%0,             Donald E.G.%Griesdale%null%0,          Anish R.%Mitra%null%1,          Nicholas A.%Fergusson%null%1,          Elisa%Lloyd-Smith%null%1,          Andrew%Wormsbecker%null%1,          Denise%Foster%null%1,          Andrei%Karpov%null%1,          Sarah%Crowe%null%1,          Greg%Haljan%null%1,          Dean R.%Chittock%null%1,          Hussein D.%Kanji%null%1,          Mypinder S.%Sekhon%null%1,          Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,            Mark%Caridi-Scheible%NULL%0,            James M.%Blum%NULL%0,            Chad%Robichaux%NULL%0,            Colleen%Kraft%NULL%0,            Jesse T.%Jacob%NULL%0,            Craig S.%Jabaley%NULL%0,            David%Carpenter%NULL%0,            Roberta%Kaplow%NULL%0,            Alfonso C.%Hernandez-Romieu%NULL%0,            Max W.%Adelman%NULL%0,            Greg S.%Martin%NULL%0,            Craig M.%Coopersmith%NULL%0,            David J.%Murphy%NULL%0,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,            Caroline P. E.%Price%NULL%1,            Elizabeth L.%Gray%NULL%1,            Reeti K.%Gulati%NULL%1,            Matthew%Maksimoski%NULL%1,            Samuel D.%Racette%NULL%1,            Alexander L.%Schneider%NULL%1,            Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,             Di%Wu%NULL%0,             Huilong%Chen%NULL%0,             Weiming%Yan%NULL%0,             Danlei%Yang%NULL%0,             Guang%Chen%NULL%0,             Ke%Ma%NULL%0,             Dong%Xu%NULL%0,             Haijing%Yu%NULL%0,             Hongwu%Wang%NULL%0,             Tao%Wang%NULL%0,             Wei%Guo%NULL%0,             Jia%Chen%NULL%0,             Chen%Ding%NULL%0,             Xiaoping%Zhang%NULL%0,             Jiaquan%Huang%NULL%0,             Meifang%Han%NULL%0,             Shusheng%Li%NULL%0,             Xiaoping%Luo%NULL%0,             Jianping%Zhao%NULL%0,             Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,             Dan%Xu%NULL%0,             Shouzhi%Fu%NULL%0,             Jun%Zhang%NULL%0,             Xiaobo%Yang%NULL%0,             Liang%Xu%NULL%0,             Jiqian%Xu%NULL%0,             Yongran%Wu%NULL%0,             Chaolin%Huang%NULL%0,             Yaqi%Ouyang%NULL%0,             Luyu%Yang%NULL%0,             Minghao%Fang%NULL%0,             Hongwen%Xiao%NULL%0,             Jing%Ma%NULL%0,             Wei%Zhu%NULL%0,             Song%Hu%NULL%0,             Quan%Hu%NULL%0,             Daoyin%Ding%NULL%0,             Ming%Hu%NULL%0,             Guochao%Zhu%NULL%0,             Weijiang%Xu%NULL%0,             Jun%Guo%NULL%0,             Jinglong%Xu%NULL%0,             Haitao%Yuan%NULL%0,             Bin%Zhang%NULL%0,             Zhui%Yu%yuzhui@whu.edu.cn%0,             Dechang%Chen%icudechangchen@163.com%0,             Shiying%Yuan%yuan_shiying@163.com%0,             You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,            Becker%L.B.%coreGivesNoEmail%0,            Chelico%J.D.%coreGivesNoEmail%0,            Cohen%S.L.%coreGivesNoEmail%0,            Cookingham%J.%coreGivesNoEmail%0,            Coppa%K.%coreGivesNoEmail%0,            Crawford%J.M.%coreGivesNoEmail%0,            Davidson%K.W.%coreGivesNoEmail%0,            Diefenbach%M.A.%coreGivesNoEmail%0,            Dominello%A.J.%coreGivesNoEmail%0,            Duer-Hefele%J.%coreGivesNoEmail%0,            Falzon%L.%coreGivesNoEmail%0,            Gitlin%J.%coreGivesNoEmail%0,            Hajizadeh%N.%coreGivesNoEmail%0,            Harvin%T.G.%coreGivesNoEmail%0,            Hirsch%J.S.%coreGivesNoEmail%0,            Hirschwerk%D.A.%coreGivesNoEmail%0,            Kim%E.J.%coreGivesNoEmail%0,            Kozel%Z.M.%coreGivesNoEmail%0,            Marrast%L.M.%coreGivesNoEmail%0,            McGinn%T.%coreGivesNoEmail%0,            Mogavero%J.N.%coreGivesNoEmail%0,            Narasimhan%M.%coreGivesNoEmail%0,            Osorio%G.A.%coreGivesNoEmail%0,            Qiu%M.%coreGivesNoEmail%0,            Richardson%S.%coreGivesNoEmail%0,            Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,            Cabrini%Luca%coreGivesNoEmail%0,            Castelli%Antonio%coreGivesNoEmail%0,            Cecconi%Maurizio%coreGivesNoEmail%0,            Cereda%Danilo%coreGivesNoEmail%0,            Coluccello%Antonio%coreGivesNoEmail%0,            Foti%Giuseppe%coreGivesNoEmail%0,            Fumagalli%Roberto%coreGivesNoEmail%0,            Grasselli%Giacomo%coreGivesNoEmail%0,            Iotti%Giorgio%coreGivesNoEmail%0,            Latronico%Nicola%coreGivesNoEmail%0,            Lorini%Luca%coreGivesNoEmail%0,            Merler%Stefano%coreGivesNoEmail%0,            Natalini%Giuseppe%coreGivesNoEmail%0,            Pesenti%Antonio%coreGivesNoEmail%0,            Piatti%Alessandra%coreGivesNoEmail%0,            Ranieri%Marco Vito%coreGivesNoEmail%0,            Scandroglio%Anna Mara%coreGivesNoEmail%0,            Storti%Enrico%coreGivesNoEmail%0,            Zanella%Alberto%coreGivesNoEmail%0,            Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,             Bijan J.%Ghassemieh%NULL%0,             Michelle%Nichols%NULL%0,             Richard%Kim%NULL%0,             Keith R.%Jerome%NULL%0,             Arun K.%Nalla%NULL%0,             Alexander L.%Greninger%NULL%0,             Sudhakar%Pipavath%NULL%0,             Mark M.%Wurfel%NULL%0,             Laura%Evans%NULL%0,             Patricia A.%Kritek%NULL%0,             T. Eoin%West%NULL%0,             Andrew%Luks%NULL%0,             Anthony%Gerbino%NULL%0,             Chris R.%Dale%NULL%0,             Jason D.%Goldman%NULL%0,             Shane%O’Mahony%NULL%0,             Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,             Hiroyuki%Shimizu%NULL%1,             Yasushi%Shibue%NULL%1,             Tomohiro%Hosoda%NULL%1,             Keisuke%Iwabuchi%NULL%1,             Kotaro%Nagamine%NULL%1,             Hiroki%Saito%NULL%1,             Reimin%Sawada%NULL%1,             Takayuki%Oishi%NULL%1,             Jun%Tsukiji%NULL%1,             Hiroyuki%Fujita%NULL%1,             Ryosuke%Furuya%NULL%1,             Makoto%Masuda%NULL%1,             Osamu%Akasaka%NULL%1,             Yu%Ikeda%NULL%1,             Mitsuo%Sakamoto%NULL%1,             Kazuya%Sakai%NULL%1,             Munehito%Uchiyama%NULL%1,             Hiroki%Watanabe%NULL%1,             Nobuhiro%Yamaguchi%NULL%1,             Ryoko%Higa%NULL%1,             Akiko%Sasaki%NULL%1,             Katsuaki%Tanaka%NULL%1,             Yukitoshi%Toyoda%NULL%1,             Shinsuke%Hamanaka%NULL%1,             Naoki%Miyazawa%NULL%1,             Atsuko%Shimizu%NULL%1,             Fumie%Fukase%NULL%1,             Shunsuke%Iwai%NULL%1,             Yuko%Komase%NULL%1,             Tsutomu%Kawasaki%NULL%1,             Isao%Nagata%NULL%1,             Yusuke%Nakayama%NULL%1,             Tetsuhiro%Takei%NULL%1,             Katsuo%Kimura%NULL%1,             Reiko%Kunisaki%NULL%1,             Makoto%Kudo%NULL%1,             Ichiro%Takeuchi%NULL%0,             Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,      Xiaoyan%Chen%xref no email%0,      Yanping%Cai%xref no email%0,      Jia\u2019an%Xia%xref no email%0,      Xing%Zhou%xref no email%0,      Sha%Xu%xref no email%0,      Hanping%Huang%xref no email%0,      Li%Zhang%xref no email%0,      Xia%Zhou%xref no email%0,      Chunling%Du%xref no email%0,      Yuye%Zhang%xref no email%0,      Juan%Song%xref no email%0,      Sijiao%Wang%xref no email%0,      Yencheng%Chao%xref no email%0,      Zeyong%Yang%xref no email%0,      Jie%Xu%xref no email%0,      Xin%Zhou%xref no email%0,      Dechang%Chen%xref no email%0,      Weining%Xiong%xref no email%0,      Lei%Xu%xref no email%0,      Feng%Zhou%xref no email%0,      Jinjun%Jiang%xref no email%0,      Chunxue%Bai%xref no email%0,      Junhua%Zheng%xref no email%0,      Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,             Yuan%Yu%NULL%0,             Jiqian%Xu%NULL%0,             Huaqing%Shu%NULL%0,             Jia'an%Xia%NULL%0,             Hong%Liu%NULL%0,             Yongran%Wu%NULL%0,             Lu%Zhang%NULL%0,             Zhui%Yu%NULL%0,             Minghao%Fang%NULL%0,             Ting%Yu%NULL%0,             Yaxin%Wang%NULL%0,             Shangwen%Pan%NULL%0,             Xiaojing%Zou%NULL%0,             Shiying%Yuan%NULL%0,             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,             Rong Hua%Tian%NULL%1,             Song%Luo%NULL%1,             Zi Yue%Zu%NULL%1,             Bin%Fan%NULL%1,             Xi Ming%Wang%NULL%1,             Kai%Xu%NULL%1,             Jiang Tao%Wang%NULL%1,             Juan%Zhu%NULL%1,             Ji Chan%Shi%NULL%1,             Feng%Chen%NULL%1,             Bing%Wan%NULL%1,             Zhi Han%Yan%NULL%1,             Rong Pin%Wang%NULL%1,             Wen%Chen%NULL%1,             Wen Hui%Fan%NULL%1,             Can%Zhang%NULL%1,             Meng Jie%Lu%NULL%1,             Zhi Yuan%Sun%NULL%1,             Chang Sheng%Zhou%NULL%1,             Li Na%Zhang%NULL%1,             Fei%Xia%NULL%1,             Li%Qi%NULL%1,             Wei%Zhang%NULL%0,             Jing%Zhong%NULL%1,             Xiao Xue%Liu%NULL%1,             Qi Rui%Zhang%NULL%1,             Guang Ming%Lu%NULL%1,             Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,             Matthew R%Baldwin%NULL%0,             Darryl%Abrams%NULL%1,             Samuel D%Jacobson%NULL%1,             Benjamin J%Meyer%NULL%1,             Elizabeth M%Balough%NULL%1,             Justin G%Aaron%NULL%1,             Jan%Claassen%NULL%1,             LeRoy E%Rabbani%NULL%1,             Jonathan%Hastie%NULL%1,             Beth R%Hochman%NULL%1,             John%Salazar-Schicchi%NULL%1,             Natalie H%Yip%NULL%1,             Daniel%Brodie%NULL%2,             Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,             Samuel L%Bruce%NULL%0,             Cody L%Slater%NULL%0,             Jonathan R%Tiao%NULL%0,             Matthew R%Baldwin%NULL%0,             R Graham%Barr%NULL%0,             Bernard P%Chang%NULL%0,             Katherine H%Chau%NULL%0,             Justin J%Choi%NULL%0,             Nicholas%Gavin%NULL%0,             Parag%Goyal%NULL%0,             Angela M%Mills%NULL%0,             Ashmi A%Patel%NULL%0,             Marie-Laure S%Romney%NULL%0,             Monika M%Safford%NULL%0,             Neil W%Schluger%NULL%0,             Soumitra%Sengupta%NULL%0,             Magdalena E%Sobieszczyk%NULL%0,             Jason E%Zucker%NULL%0,             Paul A%Asadourian%NULL%0,             Fletcher M%Bell%NULL%0,             Rebekah%Boyd%NULL%0,             Matthew F%Cohen%NULL%0,             MacAlistair I%Colquhoun%NULL%0,             Lucy A%Colville%NULL%0,             Joseph H%de Jonge%NULL%0,             Lyle B%Dershowitz%NULL%0,             Shirin A%Dey%NULL%0,             Katherine A%Eiseman%NULL%0,             Zachary P%Girvin%NULL%0,             Daniella T%Goni%NULL%0,             Amro A%Harb%NULL%0,             Nicholas%Herzik%NULL%0,             Sarah%Householder%NULL%0,             Lara E%Karaaslan%NULL%0,             Heather%Lee%NULL%0,             Evan%Lieberman%NULL%0,             Andrew%Ling%NULL%0,             Ree%Lu%NULL%0,             Arthur Y%Shou%NULL%0,             Alexander C%Sisti%NULL%0,             Zachary E%Snow%NULL%0,             Colin P%Sperring%NULL%0,             Yuqing%Xiong%NULL%0,             Henry W%Zhou%NULL%0,             Karthik%Natarajan%NULL%0,             George%Hripcsak%NULL%0,             Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,              Nicholas A.%Fergusson%null%0,              Elisa%Lloyd-Smith%null%0,              Andrew%Wormsbecker%null%0,              Denise%Foster%null%0,              Andrei%Karpov%null%0,              Sarah%Crowe%null%0,              Greg%Haljan%null%0,              Dean R.%Chittock%null%0,              Hussein D.%Kanji%null%0,              Mypinder S.%Sekhon%null%0,              Donald E.G.%Griesdale%null%0,           Anish R.%Mitra%null%1,           Nicholas A.%Fergusson%null%1,           Elisa%Lloyd-Smith%null%1,           Andrew%Wormsbecker%null%1,           Denise%Foster%null%1,           Andrei%Karpov%null%1,           Sarah%Crowe%null%1,           Greg%Haljan%null%1,           Dean R.%Chittock%null%1,           Hussein D.%Kanji%null%1,           Mypinder S.%Sekhon%null%1,           Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,             Mark%Caridi-Scheible%NULL%0,             James M.%Blum%NULL%0,             Chad%Robichaux%NULL%0,             Colleen%Kraft%NULL%0,             Jesse T.%Jacob%NULL%0,             Craig S.%Jabaley%NULL%0,             David%Carpenter%NULL%0,             Roberta%Kaplow%NULL%0,             Alfonso C.%Hernandez-Romieu%NULL%0,             Max W.%Adelman%NULL%0,             Greg S.%Martin%NULL%0,             Craig M.%Coopersmith%NULL%0,             David J.%Murphy%NULL%0,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,             Caroline P. E.%Price%NULL%1,             Elizabeth L.%Gray%NULL%1,             Reeti K.%Gulati%NULL%1,             Matthew%Maksimoski%NULL%1,             Samuel D.%Racette%NULL%1,             Alexander L.%Schneider%NULL%1,             Ashoke R.%Khanwalkar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1408,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1325,10 +1434,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1357,7 +1466,7 @@
         <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1386,7 +1495,7 @@
         <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1415,7 +1524,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
@@ -1444,7 +1553,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1473,7 +1582,7 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1502,7 +1611,7 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1531,7 +1640,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1560,7 +1669,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1589,7 +1698,7 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="F13" t="s">
         <v>68</v>
@@ -1618,7 +1727,7 @@
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="F14" t="s">
         <v>73</v>
@@ -1647,7 +1756,7 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="F15" t="s">
         <v>79</v>
@@ -1676,7 +1785,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>

--- a/Covid_19_Dataset_and_References/References/83.xlsx
+++ b/Covid_19_Dataset_and_References/References/83.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="275">
   <si>
     <t>Doi</t>
   </si>
@@ -1042,6 +1042,48 @@
   </si>
   <si>
     <t>[Kevin%Hur%NULL%1,             Caroline P. E.%Price%NULL%1,             Elizabeth L.%Gray%NULL%1,             Reeti K.%Gulati%NULL%1,             Matthew%Maksimoski%NULL%1,             Samuel D.%Racette%NULL%1,             Alexander L.%Schneider%NULL%1,             Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,              Di%Wu%NULL%0,              Huilong%Chen%NULL%0,              Weiming%Yan%NULL%0,              Danlei%Yang%NULL%0,              Guang%Chen%NULL%0,              Ke%Ma%NULL%0,              Dong%Xu%NULL%0,              Haijing%Yu%NULL%0,              Hongwu%Wang%NULL%0,              Tao%Wang%NULL%0,              Wei%Guo%NULL%0,              Jia%Chen%NULL%0,              Chen%Ding%NULL%0,              Xiaoping%Zhang%NULL%0,              Jiaquan%Huang%NULL%0,              Meifang%Han%NULL%0,              Shusheng%Li%NULL%0,              Xiaoping%Luo%NULL%0,              Jianping%Zhao%NULL%0,              Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,              Dan%Xu%NULL%0,              Shouzhi%Fu%NULL%0,              Jun%Zhang%NULL%0,              Xiaobo%Yang%NULL%0,              Liang%Xu%NULL%0,              Jiqian%Xu%NULL%0,              Yongran%Wu%NULL%0,              Chaolin%Huang%NULL%0,              Yaqi%Ouyang%NULL%0,              Luyu%Yang%NULL%0,              Minghao%Fang%NULL%0,              Hongwen%Xiao%NULL%0,              Jing%Ma%NULL%0,              Wei%Zhu%NULL%0,              Song%Hu%NULL%0,              Quan%Hu%NULL%0,              Daoyin%Ding%NULL%0,              Ming%Hu%NULL%0,              Guochao%Zhu%NULL%0,              Weijiang%Xu%NULL%0,              Jun%Guo%NULL%0,              Jinglong%Xu%NULL%0,              Haitao%Yuan%NULL%0,              Bin%Zhang%NULL%0,              Zhui%Yu%yuzhui@whu.edu.cn%0,              Dechang%Chen%icudechangchen@163.com%0,              Shiying%Yuan%yuan_shiying@163.com%0,              You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,             Becker%L.B.%coreGivesNoEmail%0,             Chelico%J.D.%coreGivesNoEmail%0,             Cohen%S.L.%coreGivesNoEmail%0,             Cookingham%J.%coreGivesNoEmail%0,             Coppa%K.%coreGivesNoEmail%0,             Crawford%J.M.%coreGivesNoEmail%0,             Davidson%K.W.%coreGivesNoEmail%0,             Diefenbach%M.A.%coreGivesNoEmail%0,             Dominello%A.J.%coreGivesNoEmail%0,             Duer-Hefele%J.%coreGivesNoEmail%0,             Falzon%L.%coreGivesNoEmail%0,             Gitlin%J.%coreGivesNoEmail%0,             Hajizadeh%N.%coreGivesNoEmail%0,             Harvin%T.G.%coreGivesNoEmail%0,             Hirsch%J.S.%coreGivesNoEmail%0,             Hirschwerk%D.A.%coreGivesNoEmail%0,             Kim%E.J.%coreGivesNoEmail%0,             Kozel%Z.M.%coreGivesNoEmail%0,             Marrast%L.M.%coreGivesNoEmail%0,             McGinn%T.%coreGivesNoEmail%0,             Mogavero%J.N.%coreGivesNoEmail%0,             Narasimhan%M.%coreGivesNoEmail%0,             Osorio%G.A.%coreGivesNoEmail%0,             Qiu%M.%coreGivesNoEmail%0,             Richardson%S.%coreGivesNoEmail%0,             Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,             Cabrini%Luca%coreGivesNoEmail%0,             Castelli%Antonio%coreGivesNoEmail%0,             Cecconi%Maurizio%coreGivesNoEmail%0,             Cereda%Danilo%coreGivesNoEmail%0,             Coluccello%Antonio%coreGivesNoEmail%0,             Foti%Giuseppe%coreGivesNoEmail%0,             Fumagalli%Roberto%coreGivesNoEmail%0,             Grasselli%Giacomo%coreGivesNoEmail%0,             Iotti%Giorgio%coreGivesNoEmail%0,             Latronico%Nicola%coreGivesNoEmail%0,             Lorini%Luca%coreGivesNoEmail%0,             Merler%Stefano%coreGivesNoEmail%0,             Natalini%Giuseppe%coreGivesNoEmail%0,             Pesenti%Antonio%coreGivesNoEmail%0,             Piatti%Alessandra%coreGivesNoEmail%0,             Ranieri%Marco Vito%coreGivesNoEmail%0,             Scandroglio%Anna Mara%coreGivesNoEmail%0,             Storti%Enrico%coreGivesNoEmail%0,             Zanella%Alberto%coreGivesNoEmail%0,             Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,              Bijan J.%Ghassemieh%NULL%0,              Michelle%Nichols%NULL%0,              Richard%Kim%NULL%0,              Keith R.%Jerome%NULL%0,              Arun K.%Nalla%NULL%0,              Alexander L.%Greninger%NULL%0,              Sudhakar%Pipavath%NULL%0,              Mark M.%Wurfel%NULL%0,              Laura%Evans%NULL%0,              Patricia A.%Kritek%NULL%0,              T. Eoin%West%NULL%0,              Andrew%Luks%NULL%0,              Anthony%Gerbino%NULL%0,              Chris R.%Dale%NULL%0,              Jason D.%Goldman%NULL%0,              Shane%O’Mahony%NULL%0,              Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,              Hiroyuki%Shimizu%NULL%1,              Yasushi%Shibue%NULL%1,              Tomohiro%Hosoda%NULL%1,              Keisuke%Iwabuchi%NULL%1,              Kotaro%Nagamine%NULL%1,              Hiroki%Saito%NULL%1,              Reimin%Sawada%NULL%1,              Takayuki%Oishi%NULL%1,              Jun%Tsukiji%NULL%1,              Hiroyuki%Fujita%NULL%1,              Ryosuke%Furuya%NULL%1,              Makoto%Masuda%NULL%1,              Osamu%Akasaka%NULL%1,              Yu%Ikeda%NULL%1,              Mitsuo%Sakamoto%NULL%1,              Kazuya%Sakai%NULL%1,              Munehito%Uchiyama%NULL%1,              Hiroki%Watanabe%NULL%1,              Nobuhiro%Yamaguchi%NULL%1,              Ryoko%Higa%NULL%1,              Akiko%Sasaki%NULL%1,              Katsuaki%Tanaka%NULL%1,              Yukitoshi%Toyoda%NULL%1,              Shinsuke%Hamanaka%NULL%1,              Naoki%Miyazawa%NULL%1,              Atsuko%Shimizu%NULL%1,              Fumie%Fukase%NULL%1,              Shunsuke%Iwai%NULL%1,              Yuko%Komase%NULL%1,              Tsutomu%Kawasaki%NULL%1,              Isao%Nagata%NULL%1,              Yusuke%Nakayama%NULL%1,              Tetsuhiro%Takei%NULL%1,              Katsuo%Kimura%NULL%1,              Reiko%Kunisaki%NULL%1,              Makoto%Kudo%NULL%1,              Ichiro%Takeuchi%NULL%0,              Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,       Xiaoyan%Chen%xref no email%0,       Yanping%Cai%xref no email%0,       Jia\u2019an%Xia%xref no email%0,       Xing%Zhou%xref no email%0,       Sha%Xu%xref no email%0,       Hanping%Huang%xref no email%0,       Li%Zhang%xref no email%0,       Xia%Zhou%xref no email%0,       Chunling%Du%xref no email%0,       Yuye%Zhang%xref no email%0,       Juan%Song%xref no email%0,       Sijiao%Wang%xref no email%0,       Yencheng%Chao%xref no email%0,       Zeyong%Yang%xref no email%0,       Jie%Xu%xref no email%0,       Xin%Zhou%xref no email%0,       Dechang%Chen%xref no email%0,       Weining%Xiong%xref no email%0,       Lei%Xu%xref no email%0,       Feng%Zhou%xref no email%0,       Jinjun%Jiang%xref no email%0,       Chunxue%Bai%xref no email%0,       Junhua%Zheng%xref no email%0,       Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,              Yuan%Yu%NULL%0,              Jiqian%Xu%NULL%0,              Huaqing%Shu%NULL%0,              Jia'an%Xia%NULL%0,              Hong%Liu%NULL%0,              Yongran%Wu%NULL%0,              Lu%Zhang%NULL%0,              Zhui%Yu%NULL%0,              Minghao%Fang%NULL%0,              Ting%Yu%NULL%0,              Yaxin%Wang%NULL%0,              Shangwen%Pan%NULL%0,              Xiaojing%Zou%NULL%0,              Shiying%Yuan%NULL%0,              You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,              Rong Hua%Tian%NULL%1,              Song%Luo%NULL%1,              Zi Yue%Zu%NULL%1,              Bin%Fan%NULL%1,              Xi Ming%Wang%NULL%1,              Kai%Xu%NULL%1,              Jiang Tao%Wang%NULL%1,              Juan%Zhu%NULL%1,              Ji Chan%Shi%NULL%1,              Feng%Chen%NULL%1,              Bing%Wan%NULL%1,              Zhi Han%Yan%NULL%1,              Rong Pin%Wang%NULL%1,              Wen%Chen%NULL%1,              Wen Hui%Fan%NULL%1,              Can%Zhang%NULL%1,              Meng Jie%Lu%NULL%1,              Zhi Yuan%Sun%NULL%1,              Chang Sheng%Zhou%NULL%1,              Li Na%Zhang%NULL%1,              Fei%Xia%NULL%1,              Li%Qi%NULL%1,              Wei%Zhang%NULL%0,              Jing%Zhong%NULL%1,              Xiao Xue%Liu%NULL%1,              Qi Rui%Zhang%NULL%1,              Guang Ming%Lu%NULL%1,              Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,              Matthew R%Baldwin%NULL%0,              Darryl%Abrams%NULL%1,              Samuel D%Jacobson%NULL%1,              Benjamin J%Meyer%NULL%1,              Elizabeth M%Balough%NULL%1,              Justin G%Aaron%NULL%1,              Jan%Claassen%NULL%1,              LeRoy E%Rabbani%NULL%1,              Jonathan%Hastie%NULL%1,              Beth R%Hochman%NULL%1,              John%Salazar-Schicchi%NULL%1,              Natalie H%Yip%NULL%1,              Daniel%Brodie%NULL%2,              Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,              Samuel L%Bruce%NULL%0,              Cody L%Slater%NULL%0,              Jonathan R%Tiao%NULL%0,              Matthew R%Baldwin%NULL%0,              R Graham%Barr%NULL%0,              Bernard P%Chang%NULL%0,              Katherine H%Chau%NULL%0,              Justin J%Choi%NULL%0,              Nicholas%Gavin%NULL%0,              Parag%Goyal%NULL%0,              Angela M%Mills%NULL%0,              Ashmi A%Patel%NULL%0,              Marie-Laure S%Romney%NULL%0,              Monika M%Safford%NULL%0,              Neil W%Schluger%NULL%0,              Soumitra%Sengupta%NULL%0,              Magdalena E%Sobieszczyk%NULL%0,              Jason E%Zucker%NULL%0,              Paul A%Asadourian%NULL%0,              Fletcher M%Bell%NULL%0,              Rebekah%Boyd%NULL%0,              Matthew F%Cohen%NULL%0,              MacAlistair I%Colquhoun%NULL%0,              Lucy A%Colville%NULL%0,              Joseph H%de Jonge%NULL%0,              Lyle B%Dershowitz%NULL%0,              Shirin A%Dey%NULL%0,              Katherine A%Eiseman%NULL%0,              Zachary P%Girvin%NULL%0,              Daniella T%Goni%NULL%0,              Amro A%Harb%NULL%0,              Nicholas%Herzik%NULL%0,              Sarah%Householder%NULL%0,              Lara E%Karaaslan%NULL%0,              Heather%Lee%NULL%0,              Evan%Lieberman%NULL%0,              Andrew%Ling%NULL%0,              Ree%Lu%NULL%0,              Arthur Y%Shou%NULL%0,              Alexander C%Sisti%NULL%0,              Zachary E%Snow%NULL%0,              Colin P%Sperring%NULL%0,              Yuqing%Xiong%NULL%0,              Henry W%Zhou%NULL%0,              Karthik%Natarajan%NULL%0,              George%Hripcsak%NULL%0,              Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,               Nicholas A.%Fergusson%null%0,               Elisa%Lloyd-Smith%null%0,               Andrew%Wormsbecker%null%0,               Denise%Foster%null%0,               Andrei%Karpov%null%0,               Sarah%Crowe%null%0,               Greg%Haljan%null%0,               Dean R.%Chittock%null%0,               Hussein D.%Kanji%null%0,               Mypinder S.%Sekhon%null%0,               Donald E.G.%Griesdale%null%0,            Anish R.%Mitra%null%1,            Nicholas A.%Fergusson%null%1,            Elisa%Lloyd-Smith%null%1,            Andrew%Wormsbecker%null%1,            Denise%Foster%null%1,            Andrei%Karpov%null%1,            Sarah%Crowe%null%1,            Greg%Haljan%null%1,            Dean R.%Chittock%null%1,            Hussein D.%Kanji%null%1,            Mypinder S.%Sekhon%null%1,            Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,              Mark%Caridi-Scheible%NULL%0,              James M.%Blum%NULL%0,              Chad%Robichaux%NULL%0,              Colleen%Kraft%NULL%0,              Jesse T.%Jacob%NULL%0,              Craig S.%Jabaley%NULL%0,              David%Carpenter%NULL%0,              Roberta%Kaplow%NULL%0,              Alfonso C.%Hernandez-Romieu%NULL%0,              Max W.%Adelman%NULL%0,              Greg S.%Martin%NULL%0,              Craig M.%Coopersmith%NULL%0,              David J.%Murphy%NULL%0,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,              Caroline P. E.%Price%NULL%1,              Elizabeth L.%Gray%NULL%1,              Reeti K.%Gulati%NULL%1,              Matthew%Maksimoski%NULL%1,              Samuel D.%Racette%NULL%1,              Alexander L.%Schneider%NULL%1,              Ashoke R.%Khanwalkar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1450,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1437,7 +1479,7 @@
         <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1466,7 +1508,7 @@
         <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1495,7 +1537,7 @@
         <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1524,7 +1566,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
@@ -1553,7 +1595,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1582,7 +1624,7 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1611,7 +1653,7 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1640,7 +1682,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1669,7 +1711,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1698,7 +1740,7 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="F13" t="s">
         <v>68</v>
@@ -1727,7 +1769,7 @@
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="F14" t="s">
         <v>73</v>
@@ -1756,7 +1798,7 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F15" t="s">
         <v>79</v>
@@ -1785,7 +1827,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>

--- a/Covid_19_Dataset_and_References/References/83.xlsx
+++ b/Covid_19_Dataset_and_References/References/83.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="289">
   <si>
     <t>Doi</t>
   </si>
@@ -1084,6 +1084,48 @@
   </si>
   <si>
     <t>[Kevin%Hur%NULL%1,              Caroline P. E.%Price%NULL%1,              Elizabeth L.%Gray%NULL%1,              Reeti K.%Gulati%NULL%1,              Matthew%Maksimoski%NULL%1,              Samuel D.%Racette%NULL%1,              Alexander L.%Schneider%NULL%1,              Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,               Di%Wu%NULL%0,               Huilong%Chen%NULL%0,               Weiming%Yan%NULL%0,               Danlei%Yang%NULL%0,               Guang%Chen%NULL%0,               Ke%Ma%NULL%0,               Dong%Xu%NULL%0,               Haijing%Yu%NULL%0,               Hongwu%Wang%NULL%0,               Tao%Wang%NULL%0,               Wei%Guo%NULL%0,               Jia%Chen%NULL%0,               Chen%Ding%NULL%0,               Xiaoping%Zhang%NULL%0,               Jiaquan%Huang%NULL%0,               Meifang%Han%NULL%0,               Shusheng%Li%NULL%0,               Xiaoping%Luo%NULL%0,               Jianping%Zhao%NULL%0,               Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,               Dan%Xu%NULL%0,               Shouzhi%Fu%NULL%0,               Jun%Zhang%NULL%0,               Xiaobo%Yang%NULL%0,               Liang%Xu%NULL%0,               Jiqian%Xu%NULL%0,               Yongran%Wu%NULL%0,               Chaolin%Huang%NULL%0,               Yaqi%Ouyang%NULL%0,               Luyu%Yang%NULL%0,               Minghao%Fang%NULL%0,               Hongwen%Xiao%NULL%0,               Jing%Ma%NULL%0,               Wei%Zhu%NULL%0,               Song%Hu%NULL%0,               Quan%Hu%NULL%0,               Daoyin%Ding%NULL%0,               Ming%Hu%NULL%0,               Guochao%Zhu%NULL%0,               Weijiang%Xu%NULL%0,               Jun%Guo%NULL%0,               Jinglong%Xu%NULL%0,               Haitao%Yuan%NULL%0,               Bin%Zhang%NULL%0,               Zhui%Yu%yuzhui@whu.edu.cn%0,               Dechang%Chen%icudechangchen@163.com%0,               Shiying%Yuan%yuan_shiying@163.com%0,               You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,              Becker%L.B.%coreGivesNoEmail%0,              Chelico%J.D.%coreGivesNoEmail%0,              Cohen%S.L.%coreGivesNoEmail%0,              Cookingham%J.%coreGivesNoEmail%0,              Coppa%K.%coreGivesNoEmail%0,              Crawford%J.M.%coreGivesNoEmail%0,              Davidson%K.W.%coreGivesNoEmail%0,              Diefenbach%M.A.%coreGivesNoEmail%0,              Dominello%A.J.%coreGivesNoEmail%0,              Duer-Hefele%J.%coreGivesNoEmail%0,              Falzon%L.%coreGivesNoEmail%0,              Gitlin%J.%coreGivesNoEmail%0,              Hajizadeh%N.%coreGivesNoEmail%0,              Harvin%T.G.%coreGivesNoEmail%0,              Hirsch%J.S.%coreGivesNoEmail%0,              Hirschwerk%D.A.%coreGivesNoEmail%0,              Kim%E.J.%coreGivesNoEmail%0,              Kozel%Z.M.%coreGivesNoEmail%0,              Marrast%L.M.%coreGivesNoEmail%0,              McGinn%T.%coreGivesNoEmail%0,              Mogavero%J.N.%coreGivesNoEmail%0,              Narasimhan%M.%coreGivesNoEmail%0,              Osorio%G.A.%coreGivesNoEmail%0,              Qiu%M.%coreGivesNoEmail%0,              Richardson%S.%coreGivesNoEmail%0,              Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,              Cabrini%Luca%coreGivesNoEmail%0,              Castelli%Antonio%coreGivesNoEmail%0,              Cecconi%Maurizio%coreGivesNoEmail%0,              Cereda%Danilo%coreGivesNoEmail%0,              Coluccello%Antonio%coreGivesNoEmail%0,              Foti%Giuseppe%coreGivesNoEmail%0,              Fumagalli%Roberto%coreGivesNoEmail%0,              Grasselli%Giacomo%coreGivesNoEmail%0,              Iotti%Giorgio%coreGivesNoEmail%0,              Latronico%Nicola%coreGivesNoEmail%0,              Lorini%Luca%coreGivesNoEmail%0,              Merler%Stefano%coreGivesNoEmail%0,              Natalini%Giuseppe%coreGivesNoEmail%0,              Pesenti%Antonio%coreGivesNoEmail%0,              Piatti%Alessandra%coreGivesNoEmail%0,              Ranieri%Marco Vito%coreGivesNoEmail%0,              Scandroglio%Anna Mara%coreGivesNoEmail%0,              Storti%Enrico%coreGivesNoEmail%0,              Zanella%Alberto%coreGivesNoEmail%0,              Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,               Bijan J.%Ghassemieh%NULL%0,               Michelle%Nichols%NULL%0,               Richard%Kim%NULL%0,               Keith R.%Jerome%NULL%0,               Arun K.%Nalla%NULL%0,               Alexander L.%Greninger%NULL%0,               Sudhakar%Pipavath%NULL%0,               Mark M.%Wurfel%NULL%0,               Laura%Evans%NULL%0,               Patricia A.%Kritek%NULL%0,               T. Eoin%West%NULL%0,               Andrew%Luks%NULL%0,               Anthony%Gerbino%NULL%0,               Chris R.%Dale%NULL%0,               Jason D.%Goldman%NULL%0,               Shane%O’Mahony%NULL%0,               Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,               Hiroyuki%Shimizu%NULL%1,               Yasushi%Shibue%NULL%1,               Tomohiro%Hosoda%NULL%1,               Keisuke%Iwabuchi%NULL%1,               Kotaro%Nagamine%NULL%1,               Hiroki%Saito%NULL%1,               Reimin%Sawada%NULL%1,               Takayuki%Oishi%NULL%1,               Jun%Tsukiji%NULL%1,               Hiroyuki%Fujita%NULL%1,               Ryosuke%Furuya%NULL%1,               Makoto%Masuda%NULL%1,               Osamu%Akasaka%NULL%1,               Yu%Ikeda%NULL%1,               Mitsuo%Sakamoto%NULL%1,               Kazuya%Sakai%NULL%1,               Munehito%Uchiyama%NULL%1,               Hiroki%Watanabe%NULL%1,               Nobuhiro%Yamaguchi%NULL%1,               Ryoko%Higa%NULL%1,               Akiko%Sasaki%NULL%1,               Katsuaki%Tanaka%NULL%1,               Yukitoshi%Toyoda%NULL%1,               Shinsuke%Hamanaka%NULL%1,               Naoki%Miyazawa%NULL%1,               Atsuko%Shimizu%NULL%1,               Fumie%Fukase%NULL%1,               Shunsuke%Iwai%NULL%1,               Yuko%Komase%NULL%1,               Tsutomu%Kawasaki%NULL%1,               Isao%Nagata%NULL%1,               Yusuke%Nakayama%NULL%1,               Tetsuhiro%Takei%NULL%1,               Katsuo%Kimura%NULL%1,               Reiko%Kunisaki%NULL%1,               Makoto%Kudo%NULL%1,               Ichiro%Takeuchi%NULL%0,               Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,        Xiaoyan%Chen%xref no email%0,        Yanping%Cai%xref no email%0,        Jia\u2019an%Xia%xref no email%0,        Xing%Zhou%xref no email%0,        Sha%Xu%xref no email%0,        Hanping%Huang%xref no email%0,        Li%Zhang%xref no email%0,        Xia%Zhou%xref no email%0,        Chunling%Du%xref no email%0,        Yuye%Zhang%xref no email%0,        Juan%Song%xref no email%0,        Sijiao%Wang%xref no email%0,        Yencheng%Chao%xref no email%0,        Zeyong%Yang%xref no email%0,        Jie%Xu%xref no email%0,        Xin%Zhou%xref no email%0,        Dechang%Chen%xref no email%0,        Weining%Xiong%xref no email%0,        Lei%Xu%xref no email%0,        Feng%Zhou%xref no email%0,        Jinjun%Jiang%xref no email%0,        Chunxue%Bai%xref no email%0,        Junhua%Zheng%xref no email%0,        Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,               Yuan%Yu%NULL%0,               Jiqian%Xu%NULL%0,               Huaqing%Shu%NULL%0,               Jia'an%Xia%NULL%0,               Hong%Liu%NULL%0,               Yongran%Wu%NULL%0,               Lu%Zhang%NULL%0,               Zhui%Yu%NULL%0,               Minghao%Fang%NULL%0,               Ting%Yu%NULL%0,               Yaxin%Wang%NULL%0,               Shangwen%Pan%NULL%0,               Xiaojing%Zou%NULL%0,               Shiying%Yuan%NULL%0,               You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,               Rong Hua%Tian%NULL%1,               Song%Luo%NULL%1,               Zi Yue%Zu%NULL%1,               Bin%Fan%NULL%1,               Xi Ming%Wang%NULL%1,               Kai%Xu%NULL%1,               Jiang Tao%Wang%NULL%1,               Juan%Zhu%NULL%1,               Ji Chan%Shi%NULL%1,               Feng%Chen%NULL%1,               Bing%Wan%NULL%1,               Zhi Han%Yan%NULL%1,               Rong Pin%Wang%NULL%1,               Wen%Chen%NULL%1,               Wen Hui%Fan%NULL%1,               Can%Zhang%NULL%1,               Meng Jie%Lu%NULL%1,               Zhi Yuan%Sun%NULL%1,               Chang Sheng%Zhou%NULL%1,               Li Na%Zhang%NULL%1,               Fei%Xia%NULL%1,               Li%Qi%NULL%1,               Wei%Zhang%NULL%0,               Jing%Zhong%NULL%1,               Xiao Xue%Liu%NULL%1,               Qi Rui%Zhang%NULL%1,               Guang Ming%Lu%NULL%1,               Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,               Matthew R%Baldwin%NULL%0,               Darryl%Abrams%NULL%1,               Samuel D%Jacobson%NULL%1,               Benjamin J%Meyer%NULL%1,               Elizabeth M%Balough%NULL%1,               Justin G%Aaron%NULL%1,               Jan%Claassen%NULL%1,               LeRoy E%Rabbani%NULL%1,               Jonathan%Hastie%NULL%1,               Beth R%Hochman%NULL%1,               John%Salazar-Schicchi%NULL%1,               Natalie H%Yip%NULL%1,               Daniel%Brodie%NULL%2,               Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,               Samuel L%Bruce%NULL%0,               Cody L%Slater%NULL%0,               Jonathan R%Tiao%NULL%0,               Matthew R%Baldwin%NULL%0,               R Graham%Barr%NULL%0,               Bernard P%Chang%NULL%0,               Katherine H%Chau%NULL%0,               Justin J%Choi%NULL%0,               Nicholas%Gavin%NULL%0,               Parag%Goyal%NULL%0,               Angela M%Mills%NULL%0,               Ashmi A%Patel%NULL%0,               Marie-Laure S%Romney%NULL%0,               Monika M%Safford%NULL%0,               Neil W%Schluger%NULL%0,               Soumitra%Sengupta%NULL%0,               Magdalena E%Sobieszczyk%NULL%0,               Jason E%Zucker%NULL%0,               Paul A%Asadourian%NULL%0,               Fletcher M%Bell%NULL%0,               Rebekah%Boyd%NULL%0,               Matthew F%Cohen%NULL%0,               MacAlistair I%Colquhoun%NULL%0,               Lucy A%Colville%NULL%0,               Joseph H%de Jonge%NULL%0,               Lyle B%Dershowitz%NULL%0,               Shirin A%Dey%NULL%0,               Katherine A%Eiseman%NULL%0,               Zachary P%Girvin%NULL%0,               Daniella T%Goni%NULL%0,               Amro A%Harb%NULL%0,               Nicholas%Herzik%NULL%0,               Sarah%Householder%NULL%0,               Lara E%Karaaslan%NULL%0,               Heather%Lee%NULL%0,               Evan%Lieberman%NULL%0,               Andrew%Ling%NULL%0,               Ree%Lu%NULL%0,               Arthur Y%Shou%NULL%0,               Alexander C%Sisti%NULL%0,               Zachary E%Snow%NULL%0,               Colin P%Sperring%NULL%0,               Yuqing%Xiong%NULL%0,               Henry W%Zhou%NULL%0,               Karthik%Natarajan%NULL%0,               George%Hripcsak%NULL%0,               Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,                Nicholas A.%Fergusson%null%0,                Elisa%Lloyd-Smith%null%0,                Andrew%Wormsbecker%null%0,                Denise%Foster%null%0,                Andrei%Karpov%null%0,                Sarah%Crowe%null%0,                Greg%Haljan%null%0,                Dean R.%Chittock%null%0,                Hussein D.%Kanji%null%0,                Mypinder S.%Sekhon%null%0,                Donald E.G.%Griesdale%null%0,             Anish R.%Mitra%null%1,             Nicholas A.%Fergusson%null%1,             Elisa%Lloyd-Smith%null%1,             Andrew%Wormsbecker%null%1,             Denise%Foster%null%1,             Andrei%Karpov%null%1,             Sarah%Crowe%null%1,             Greg%Haljan%null%1,             Dean R.%Chittock%null%1,             Hussein D.%Kanji%null%1,             Mypinder S.%Sekhon%null%1,             Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,               Mark%Caridi-Scheible%NULL%0,               James M.%Blum%NULL%0,               Chad%Robichaux%NULL%0,               Colleen%Kraft%NULL%0,               Jesse T.%Jacob%NULL%0,               Craig S.%Jabaley%NULL%0,               David%Carpenter%NULL%0,               Roberta%Kaplow%NULL%0,               Alfonso C.%Hernandez-Romieu%NULL%0,               Max W.%Adelman%NULL%0,               Greg S.%Martin%NULL%0,               Craig M.%Coopersmith%NULL%0,               David J.%Murphy%NULL%0,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,               Caroline P. E.%Price%NULL%1,               Elizabeth L.%Gray%NULL%1,               Reeti K.%Gulati%NULL%1,               Matthew%Maksimoski%NULL%1,               Samuel D.%Racette%NULL%1,               Alexander L.%Schneider%NULL%1,               Ashoke R.%Khanwalkar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1492,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1479,7 +1521,7 @@
         <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1508,7 +1550,7 @@
         <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1537,7 +1579,7 @@
         <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1566,7 +1608,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
@@ -1595,7 +1637,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1624,7 +1666,7 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1653,7 +1695,7 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1682,7 +1724,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1711,7 +1753,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1740,7 +1782,7 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F13" t="s">
         <v>68</v>
@@ -1769,7 +1811,7 @@
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="F14" t="s">
         <v>73</v>
@@ -1798,7 +1840,7 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="F15" t="s">
         <v>79</v>
@@ -1827,7 +1869,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>

--- a/Covid_19_Dataset_and_References/References/83.xlsx
+++ b/Covid_19_Dataset_and_References/References/83.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="317">
   <si>
     <t>Doi</t>
   </si>
@@ -1126,6 +1126,90 @@
   </si>
   <si>
     <t>[Kevin%Hur%NULL%1,               Caroline P. E.%Price%NULL%1,               Elizabeth L.%Gray%NULL%1,               Reeti K.%Gulati%NULL%1,               Matthew%Maksimoski%NULL%1,               Samuel D.%Racette%NULL%1,               Alexander L.%Schneider%NULL%1,               Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                Di%Wu%NULL%0,                Huilong%Chen%NULL%0,                Weiming%Yan%NULL%0,                Danlei%Yang%NULL%0,                Guang%Chen%NULL%0,                Ke%Ma%NULL%0,                Dong%Xu%NULL%0,                Haijing%Yu%NULL%0,                Hongwu%Wang%NULL%0,                Tao%Wang%NULL%0,                Wei%Guo%NULL%0,                Jia%Chen%NULL%0,                Chen%Ding%NULL%0,                Xiaoping%Zhang%NULL%0,                Jiaquan%Huang%NULL%0,                Meifang%Han%NULL%0,                Shusheng%Li%NULL%0,                Xiaoping%Luo%NULL%0,                Jianping%Zhao%NULL%0,                Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                Dan%Xu%NULL%0,                Shouzhi%Fu%NULL%0,                Jun%Zhang%NULL%0,                Xiaobo%Yang%NULL%0,                Liang%Xu%NULL%0,                Jiqian%Xu%NULL%0,                Yongran%Wu%NULL%0,                Chaolin%Huang%NULL%0,                Yaqi%Ouyang%NULL%0,                Luyu%Yang%NULL%0,                Minghao%Fang%NULL%0,                Hongwen%Xiao%NULL%0,                Jing%Ma%NULL%0,                Wei%Zhu%NULL%0,                Song%Hu%NULL%0,                Quan%Hu%NULL%0,                Daoyin%Ding%NULL%0,                Ming%Hu%NULL%0,                Guochao%Zhu%NULL%0,                Weijiang%Xu%NULL%0,                Jun%Guo%NULL%0,                Jinglong%Xu%NULL%0,                Haitao%Yuan%NULL%0,                Bin%Zhang%NULL%0,                Zhui%Yu%yuzhui@whu.edu.cn%0,                Dechang%Chen%icudechangchen@163.com%0,                Shiying%Yuan%yuan_shiying@163.com%0,                You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,               Becker%L.B.%coreGivesNoEmail%0,               Chelico%J.D.%coreGivesNoEmail%0,               Cohen%S.L.%coreGivesNoEmail%0,               Cookingham%J.%coreGivesNoEmail%0,               Coppa%K.%coreGivesNoEmail%0,               Crawford%J.M.%coreGivesNoEmail%0,               Davidson%K.W.%coreGivesNoEmail%0,               Diefenbach%M.A.%coreGivesNoEmail%0,               Dominello%A.J.%coreGivesNoEmail%0,               Duer-Hefele%J.%coreGivesNoEmail%0,               Falzon%L.%coreGivesNoEmail%0,               Gitlin%J.%coreGivesNoEmail%0,               Hajizadeh%N.%coreGivesNoEmail%0,               Harvin%T.G.%coreGivesNoEmail%0,               Hirsch%J.S.%coreGivesNoEmail%0,               Hirschwerk%D.A.%coreGivesNoEmail%0,               Kim%E.J.%coreGivesNoEmail%0,               Kozel%Z.M.%coreGivesNoEmail%0,               Marrast%L.M.%coreGivesNoEmail%0,               McGinn%T.%coreGivesNoEmail%0,               Mogavero%J.N.%coreGivesNoEmail%0,               Narasimhan%M.%coreGivesNoEmail%0,               Osorio%G.A.%coreGivesNoEmail%0,               Qiu%M.%coreGivesNoEmail%0,               Richardson%S.%coreGivesNoEmail%0,               Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,               Cabrini%Luca%coreGivesNoEmail%0,               Castelli%Antonio%coreGivesNoEmail%0,               Cecconi%Maurizio%coreGivesNoEmail%0,               Cereda%Danilo%coreGivesNoEmail%0,               Coluccello%Antonio%coreGivesNoEmail%0,               Foti%Giuseppe%coreGivesNoEmail%0,               Fumagalli%Roberto%coreGivesNoEmail%0,               Grasselli%Giacomo%coreGivesNoEmail%0,               Iotti%Giorgio%coreGivesNoEmail%0,               Latronico%Nicola%coreGivesNoEmail%0,               Lorini%Luca%coreGivesNoEmail%0,               Merler%Stefano%coreGivesNoEmail%0,               Natalini%Giuseppe%coreGivesNoEmail%0,               Pesenti%Antonio%coreGivesNoEmail%0,               Piatti%Alessandra%coreGivesNoEmail%0,               Ranieri%Marco Vito%coreGivesNoEmail%0,               Scandroglio%Anna Mara%coreGivesNoEmail%0,               Storti%Enrico%coreGivesNoEmail%0,               Zanella%Alberto%coreGivesNoEmail%0,               Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                Bijan J.%Ghassemieh%NULL%0,                Michelle%Nichols%NULL%0,                Richard%Kim%NULL%0,                Keith R.%Jerome%NULL%0,                Arun K.%Nalla%NULL%0,                Alexander L.%Greninger%NULL%0,                Sudhakar%Pipavath%NULL%0,                Mark M.%Wurfel%NULL%0,                Laura%Evans%NULL%0,                Patricia A.%Kritek%NULL%0,                T. Eoin%West%NULL%0,                Andrew%Luks%NULL%0,                Anthony%Gerbino%NULL%0,                Chris R.%Dale%NULL%0,                Jason D.%Goldman%NULL%0,                Shane%O’Mahony%NULL%0,                Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,                Hiroyuki%Shimizu%NULL%1,                Yasushi%Shibue%NULL%1,                Tomohiro%Hosoda%NULL%1,                Keisuke%Iwabuchi%NULL%1,                Kotaro%Nagamine%NULL%1,                Hiroki%Saito%NULL%1,                Reimin%Sawada%NULL%1,                Takayuki%Oishi%NULL%1,                Jun%Tsukiji%NULL%1,                Hiroyuki%Fujita%NULL%1,                Ryosuke%Furuya%NULL%1,                Makoto%Masuda%NULL%1,                Osamu%Akasaka%NULL%1,                Yu%Ikeda%NULL%1,                Mitsuo%Sakamoto%NULL%1,                Kazuya%Sakai%NULL%1,                Munehito%Uchiyama%NULL%1,                Hiroki%Watanabe%NULL%1,                Nobuhiro%Yamaguchi%NULL%1,                Ryoko%Higa%NULL%1,                Akiko%Sasaki%NULL%1,                Katsuaki%Tanaka%NULL%1,                Yukitoshi%Toyoda%NULL%1,                Shinsuke%Hamanaka%NULL%1,                Naoki%Miyazawa%NULL%1,                Atsuko%Shimizu%NULL%1,                Fumie%Fukase%NULL%1,                Shunsuke%Iwai%NULL%1,                Yuko%Komase%NULL%1,                Tsutomu%Kawasaki%NULL%1,                Isao%Nagata%NULL%1,                Yusuke%Nakayama%NULL%1,                Tetsuhiro%Takei%NULL%1,                Katsuo%Kimura%NULL%1,                Reiko%Kunisaki%NULL%1,                Makoto%Kudo%NULL%1,                Ichiro%Takeuchi%NULL%0,                Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,         Xiaoyan%Chen%xref no email%0,         Yanping%Cai%xref no email%0,         Jia\u2019an%Xia%xref no email%0,         Xing%Zhou%xref no email%0,         Sha%Xu%xref no email%0,         Hanping%Huang%xref no email%0,         Li%Zhang%xref no email%0,         Xia%Zhou%xref no email%0,         Chunling%Du%xref no email%0,         Yuye%Zhang%xref no email%0,         Juan%Song%xref no email%0,         Sijiao%Wang%xref no email%0,         Yencheng%Chao%xref no email%0,         Zeyong%Yang%xref no email%0,         Jie%Xu%xref no email%0,         Xin%Zhou%xref no email%0,         Dechang%Chen%xref no email%0,         Weining%Xiong%xref no email%0,         Lei%Xu%xref no email%0,         Feng%Zhou%xref no email%0,         Jinjun%Jiang%xref no email%0,         Chunxue%Bai%xref no email%0,         Junhua%Zheng%xref no email%0,         Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                Yuan%Yu%NULL%0,                Jiqian%Xu%NULL%0,                Huaqing%Shu%NULL%0,                Jia'an%Xia%NULL%0,                Hong%Liu%NULL%0,                Yongran%Wu%NULL%0,                Lu%Zhang%NULL%0,                Zhui%Yu%NULL%0,                Minghao%Fang%NULL%0,                Ting%Yu%NULL%0,                Yaxin%Wang%NULL%0,                Shangwen%Pan%NULL%0,                Xiaojing%Zou%NULL%0,                Shiying%Yuan%NULL%0,                You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,                Rong Hua%Tian%NULL%1,                Song%Luo%NULL%1,                Zi Yue%Zu%NULL%1,                Bin%Fan%NULL%1,                Xi Ming%Wang%NULL%1,                Kai%Xu%NULL%1,                Jiang Tao%Wang%NULL%1,                Juan%Zhu%NULL%1,                Ji Chan%Shi%NULL%1,                Feng%Chen%NULL%1,                Bing%Wan%NULL%1,                Zhi Han%Yan%NULL%1,                Rong Pin%Wang%NULL%1,                Wen%Chen%NULL%1,                Wen Hui%Fan%NULL%1,                Can%Zhang%NULL%1,                Meng Jie%Lu%NULL%1,                Zhi Yuan%Sun%NULL%1,                Chang Sheng%Zhou%NULL%1,                Li Na%Zhang%NULL%1,                Fei%Xia%NULL%1,                Li%Qi%NULL%1,                Wei%Zhang%NULL%0,                Jing%Zhong%NULL%1,                Xiao Xue%Liu%NULL%1,                Qi Rui%Zhang%NULL%1,                Guang Ming%Lu%NULL%1,                Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,                Matthew R%Baldwin%NULL%0,                Darryl%Abrams%NULL%1,                Samuel D%Jacobson%NULL%1,                Benjamin J%Meyer%NULL%1,                Elizabeth M%Balough%NULL%1,                Justin G%Aaron%NULL%1,                Jan%Claassen%NULL%1,                LeRoy E%Rabbani%NULL%1,                Jonathan%Hastie%NULL%1,                Beth R%Hochman%NULL%1,                John%Salazar-Schicchi%NULL%1,                Natalie H%Yip%NULL%1,                Daniel%Brodie%NULL%2,                Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                Samuel L%Bruce%NULL%0,                Cody L%Slater%NULL%0,                Jonathan R%Tiao%NULL%0,                Matthew R%Baldwin%NULL%0,                R Graham%Barr%NULL%0,                Bernard P%Chang%NULL%0,                Katherine H%Chau%NULL%0,                Justin J%Choi%NULL%0,                Nicholas%Gavin%NULL%0,                Parag%Goyal%NULL%0,                Angela M%Mills%NULL%0,                Ashmi A%Patel%NULL%0,                Marie-Laure S%Romney%NULL%0,                Monika M%Safford%NULL%0,                Neil W%Schluger%NULL%0,                Soumitra%Sengupta%NULL%0,                Magdalena E%Sobieszczyk%NULL%0,                Jason E%Zucker%NULL%0,                Paul A%Asadourian%NULL%0,                Fletcher M%Bell%NULL%0,                Rebekah%Boyd%NULL%0,                Matthew F%Cohen%NULL%0,                MacAlistair I%Colquhoun%NULL%0,                Lucy A%Colville%NULL%0,                Joseph H%de Jonge%NULL%0,                Lyle B%Dershowitz%NULL%0,                Shirin A%Dey%NULL%0,                Katherine A%Eiseman%NULL%0,                Zachary P%Girvin%NULL%0,                Daniella T%Goni%NULL%0,                Amro A%Harb%NULL%0,                Nicholas%Herzik%NULL%0,                Sarah%Householder%NULL%0,                Lara E%Karaaslan%NULL%0,                Heather%Lee%NULL%0,                Evan%Lieberman%NULL%0,                Andrew%Ling%NULL%0,                Ree%Lu%NULL%0,                Arthur Y%Shou%NULL%0,                Alexander C%Sisti%NULL%0,                Zachary E%Snow%NULL%0,                Colin P%Sperring%NULL%0,                Yuqing%Xiong%NULL%0,                Henry W%Zhou%NULL%0,                Karthik%Natarajan%NULL%0,                George%Hripcsak%NULL%0,                Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,                 Nicholas A.%Fergusson%null%0,                 Elisa%Lloyd-Smith%null%0,                 Andrew%Wormsbecker%null%0,                 Denise%Foster%null%0,                 Andrei%Karpov%null%0,                 Sarah%Crowe%null%0,                 Greg%Haljan%null%0,                 Dean R.%Chittock%null%0,                 Hussein D.%Kanji%null%0,                 Mypinder S.%Sekhon%null%0,                 Donald E.G.%Griesdale%null%0,              Anish R.%Mitra%null%1,              Nicholas A.%Fergusson%null%1,              Elisa%Lloyd-Smith%null%1,              Andrew%Wormsbecker%null%1,              Denise%Foster%null%1,              Andrei%Karpov%null%1,              Sarah%Crowe%null%1,              Greg%Haljan%null%1,              Dean R.%Chittock%null%1,              Hussein D.%Kanji%null%1,              Mypinder S.%Sekhon%null%1,              Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                Mark%Caridi-Scheible%NULL%0,                James M.%Blum%NULL%0,                Chad%Robichaux%NULL%0,                Colleen%Kraft%NULL%0,                Jesse T.%Jacob%NULL%0,                Craig S.%Jabaley%NULL%0,                David%Carpenter%NULL%0,                Roberta%Kaplow%NULL%0,                Alfonso C.%Hernandez-Romieu%NULL%0,                Max W.%Adelman%NULL%0,                Greg S.%Martin%NULL%0,                Craig M.%Coopersmith%NULL%0,                David J.%Murphy%NULL%0,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,                Caroline P. E.%Price%NULL%1,                Elizabeth L.%Gray%NULL%1,                Reeti K.%Gulati%NULL%1,                Matthew%Maksimoski%NULL%1,                Samuel D.%Racette%NULL%1,                Alexander L.%Schneider%NULL%1,                Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                 Di%Wu%NULL%0,                 Huilong%Chen%NULL%0,                 Weiming%Yan%NULL%0,                 Danlei%Yang%NULL%0,                 Guang%Chen%NULL%0,                 Ke%Ma%NULL%0,                 Dong%Xu%NULL%0,                 Haijing%Yu%NULL%0,                 Hongwu%Wang%NULL%0,                 Tao%Wang%NULL%0,                 Wei%Guo%NULL%0,                 Jia%Chen%NULL%0,                 Chen%Ding%NULL%0,                 Xiaoping%Zhang%NULL%0,                 Jiaquan%Huang%NULL%0,                 Meifang%Han%NULL%0,                 Shusheng%Li%NULL%0,                 Xiaoping%Luo%NULL%0,                 Jianping%Zhao%NULL%0,                 Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                 Dan%Xu%NULL%0,                 Shouzhi%Fu%NULL%0,                 Jun%Zhang%NULL%0,                 Xiaobo%Yang%NULL%0,                 Liang%Xu%NULL%0,                 Jiqian%Xu%NULL%0,                 Yongran%Wu%NULL%0,                 Chaolin%Huang%NULL%0,                 Yaqi%Ouyang%NULL%0,                 Luyu%Yang%NULL%0,                 Minghao%Fang%NULL%0,                 Hongwen%Xiao%NULL%0,                 Jing%Ma%NULL%0,                 Wei%Zhu%NULL%0,                 Song%Hu%NULL%0,                 Quan%Hu%NULL%0,                 Daoyin%Ding%NULL%0,                 Ming%Hu%NULL%0,                 Guochao%Zhu%NULL%0,                 Weijiang%Xu%NULL%0,                 Jun%Guo%NULL%0,                 Jinglong%Xu%NULL%0,                 Haitao%Yuan%NULL%0,                 Bin%Zhang%NULL%0,                 Zhui%Yu%yuzhui@whu.edu.cn%0,                 Dechang%Chen%icudechangchen@163.com%0,                 Shiying%Yuan%yuan_shiying@163.com%0,                 You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                Becker%L.B.%coreGivesNoEmail%0,                Chelico%J.D.%coreGivesNoEmail%0,                Cohen%S.L.%coreGivesNoEmail%0,                Cookingham%J.%coreGivesNoEmail%0,                Coppa%K.%coreGivesNoEmail%0,                Crawford%J.M.%coreGivesNoEmail%0,                Davidson%K.W.%coreGivesNoEmail%0,                Diefenbach%M.A.%coreGivesNoEmail%0,                Dominello%A.J.%coreGivesNoEmail%0,                Duer-Hefele%J.%coreGivesNoEmail%0,                Falzon%L.%coreGivesNoEmail%0,                Gitlin%J.%coreGivesNoEmail%0,                Hajizadeh%N.%coreGivesNoEmail%0,                Harvin%T.G.%coreGivesNoEmail%0,                Hirsch%J.S.%coreGivesNoEmail%0,                Hirschwerk%D.A.%coreGivesNoEmail%0,                Kim%E.J.%coreGivesNoEmail%0,                Kozel%Z.M.%coreGivesNoEmail%0,                Marrast%L.M.%coreGivesNoEmail%0,                McGinn%T.%coreGivesNoEmail%0,                Mogavero%J.N.%coreGivesNoEmail%0,                Narasimhan%M.%coreGivesNoEmail%0,                Osorio%G.A.%coreGivesNoEmail%0,                Qiu%M.%coreGivesNoEmail%0,                Richardson%S.%coreGivesNoEmail%0,                Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                Cabrini%Luca%coreGivesNoEmail%0,                Castelli%Antonio%coreGivesNoEmail%0,                Cecconi%Maurizio%coreGivesNoEmail%0,                Cereda%Danilo%coreGivesNoEmail%0,                Coluccello%Antonio%coreGivesNoEmail%0,                Foti%Giuseppe%coreGivesNoEmail%0,                Fumagalli%Roberto%coreGivesNoEmail%0,                Grasselli%Giacomo%coreGivesNoEmail%0,                Iotti%Giorgio%coreGivesNoEmail%0,                Latronico%Nicola%coreGivesNoEmail%0,                Lorini%Luca%coreGivesNoEmail%0,                Merler%Stefano%coreGivesNoEmail%0,                Natalini%Giuseppe%coreGivesNoEmail%0,                Pesenti%Antonio%coreGivesNoEmail%0,                Piatti%Alessandra%coreGivesNoEmail%0,                Ranieri%Marco Vito%coreGivesNoEmail%0,                Scandroglio%Anna Mara%coreGivesNoEmail%0,                Storti%Enrico%coreGivesNoEmail%0,                Zanella%Alberto%coreGivesNoEmail%0,                Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                 Bijan J.%Ghassemieh%NULL%0,                 Michelle%Nichols%NULL%0,                 Richard%Kim%NULL%0,                 Keith R.%Jerome%NULL%0,                 Arun K.%Nalla%NULL%0,                 Alexander L.%Greninger%NULL%0,                 Sudhakar%Pipavath%NULL%0,                 Mark M.%Wurfel%NULL%0,                 Laura%Evans%NULL%0,                 Patricia A.%Kritek%NULL%0,                 T. Eoin%West%NULL%0,                 Andrew%Luks%NULL%0,                 Anthony%Gerbino%NULL%0,                 Chris R.%Dale%NULL%0,                 Jason D.%Goldman%NULL%0,                 Shane%O’Mahony%NULL%0,                 Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,                 Hiroyuki%Shimizu%NULL%1,                 Yasushi%Shibue%NULL%1,                 Tomohiro%Hosoda%NULL%1,                 Keisuke%Iwabuchi%NULL%1,                 Kotaro%Nagamine%NULL%1,                 Hiroki%Saito%NULL%1,                 Reimin%Sawada%NULL%1,                 Takayuki%Oishi%NULL%1,                 Jun%Tsukiji%NULL%1,                 Hiroyuki%Fujita%NULL%1,                 Ryosuke%Furuya%NULL%1,                 Makoto%Masuda%NULL%1,                 Osamu%Akasaka%NULL%1,                 Yu%Ikeda%NULL%1,                 Mitsuo%Sakamoto%NULL%1,                 Kazuya%Sakai%NULL%1,                 Munehito%Uchiyama%NULL%1,                 Hiroki%Watanabe%NULL%1,                 Nobuhiro%Yamaguchi%NULL%1,                 Ryoko%Higa%NULL%1,                 Akiko%Sasaki%NULL%1,                 Katsuaki%Tanaka%NULL%1,                 Yukitoshi%Toyoda%NULL%1,                 Shinsuke%Hamanaka%NULL%1,                 Naoki%Miyazawa%NULL%1,                 Atsuko%Shimizu%NULL%1,                 Fumie%Fukase%NULL%1,                 Shunsuke%Iwai%NULL%1,                 Yuko%Komase%NULL%1,                 Tsutomu%Kawasaki%NULL%1,                 Isao%Nagata%NULL%1,                 Yusuke%Nakayama%NULL%1,                 Tetsuhiro%Takei%NULL%1,                 Katsuo%Kimura%NULL%1,                 Reiko%Kunisaki%NULL%1,                 Makoto%Kudo%NULL%1,                 Ichiro%Takeuchi%NULL%0,                 Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,          Xiaoyan%Chen%xref no email%0,          Yanping%Cai%xref no email%0,          Jia\u2019an%Xia%xref no email%0,          Xing%Zhou%xref no email%0,          Sha%Xu%xref no email%0,          Hanping%Huang%xref no email%0,          Li%Zhang%xref no email%0,          Xia%Zhou%xref no email%0,          Chunling%Du%xref no email%0,          Yuye%Zhang%xref no email%0,          Juan%Song%xref no email%0,          Sijiao%Wang%xref no email%0,          Yencheng%Chao%xref no email%0,          Zeyong%Yang%xref no email%0,          Jie%Xu%xref no email%0,          Xin%Zhou%xref no email%0,          Dechang%Chen%xref no email%0,          Weining%Xiong%xref no email%0,          Lei%Xu%xref no email%0,          Feng%Zhou%xref no email%0,          Jinjun%Jiang%xref no email%0,          Chunxue%Bai%xref no email%0,          Junhua%Zheng%xref no email%0,          Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                 Yuan%Yu%NULL%0,                 Jiqian%Xu%NULL%0,                 Huaqing%Shu%NULL%0,                 Jia'an%Xia%NULL%0,                 Hong%Liu%NULL%0,                 Yongran%Wu%NULL%0,                 Lu%Zhang%NULL%0,                 Zhui%Yu%NULL%0,                 Minghao%Fang%NULL%0,                 Ting%Yu%NULL%0,                 Yaxin%Wang%NULL%0,                 Shangwen%Pan%NULL%0,                 Xiaojing%Zou%NULL%0,                 Shiying%Yuan%NULL%0,                 You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,                 Rong Hua%Tian%NULL%1,                 Song%Luo%NULL%1,                 Zi Yue%Zu%NULL%1,                 Bin%Fan%NULL%1,                 Xi Ming%Wang%NULL%1,                 Kai%Xu%NULL%1,                 Jiang Tao%Wang%NULL%1,                 Juan%Zhu%NULL%1,                 Ji Chan%Shi%NULL%1,                 Feng%Chen%NULL%1,                 Bing%Wan%NULL%1,                 Zhi Han%Yan%NULL%1,                 Rong Pin%Wang%NULL%1,                 Wen%Chen%NULL%1,                 Wen Hui%Fan%NULL%1,                 Can%Zhang%NULL%1,                 Meng Jie%Lu%NULL%1,                 Zhi Yuan%Sun%NULL%1,                 Chang Sheng%Zhou%NULL%1,                 Li Na%Zhang%NULL%1,                 Fei%Xia%NULL%1,                 Li%Qi%NULL%1,                 Wei%Zhang%NULL%0,                 Jing%Zhong%NULL%1,                 Xiao Xue%Liu%NULL%1,                 Qi Rui%Zhang%NULL%1,                 Guang Ming%Lu%NULL%1,                 Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,                 Matthew R%Baldwin%NULL%0,                 Darryl%Abrams%NULL%1,                 Samuel D%Jacobson%NULL%1,                 Benjamin J%Meyer%NULL%1,                 Elizabeth M%Balough%NULL%1,                 Justin G%Aaron%NULL%1,                 Jan%Claassen%NULL%1,                 LeRoy E%Rabbani%NULL%1,                 Jonathan%Hastie%NULL%1,                 Beth R%Hochman%NULL%1,                 John%Salazar-Schicchi%NULL%1,                 Natalie H%Yip%NULL%1,                 Daniel%Brodie%NULL%2,                 Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                 Samuel L%Bruce%NULL%0,                 Cody L%Slater%NULL%0,                 Jonathan R%Tiao%NULL%0,                 Matthew R%Baldwin%NULL%0,                 R Graham%Barr%NULL%0,                 Bernard P%Chang%NULL%0,                 Katherine H%Chau%NULL%0,                 Justin J%Choi%NULL%0,                 Nicholas%Gavin%NULL%0,                 Parag%Goyal%NULL%0,                 Angela M%Mills%NULL%0,                 Ashmi A%Patel%NULL%0,                 Marie-Laure S%Romney%NULL%0,                 Monika M%Safford%NULL%0,                 Neil W%Schluger%NULL%0,                 Soumitra%Sengupta%NULL%0,                 Magdalena E%Sobieszczyk%NULL%0,                 Jason E%Zucker%NULL%0,                 Paul A%Asadourian%NULL%0,                 Fletcher M%Bell%NULL%0,                 Rebekah%Boyd%NULL%0,                 Matthew F%Cohen%NULL%0,                 MacAlistair I%Colquhoun%NULL%0,                 Lucy A%Colville%NULL%0,                 Joseph H%de Jonge%NULL%0,                 Lyle B%Dershowitz%NULL%0,                 Shirin A%Dey%NULL%0,                 Katherine A%Eiseman%NULL%0,                 Zachary P%Girvin%NULL%0,                 Daniella T%Goni%NULL%0,                 Amro A%Harb%NULL%0,                 Nicholas%Herzik%NULL%0,                 Sarah%Householder%NULL%0,                 Lara E%Karaaslan%NULL%0,                 Heather%Lee%NULL%0,                 Evan%Lieberman%NULL%0,                 Andrew%Ling%NULL%0,                 Ree%Lu%NULL%0,                 Arthur Y%Shou%NULL%0,                 Alexander C%Sisti%NULL%0,                 Zachary E%Snow%NULL%0,                 Colin P%Sperring%NULL%0,                 Yuqing%Xiong%NULL%0,                 Henry W%Zhou%NULL%0,                 Karthik%Natarajan%NULL%0,                 George%Hripcsak%NULL%0,                 Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,                  Nicholas A.%Fergusson%null%0,                  Elisa%Lloyd-Smith%null%0,                  Andrew%Wormsbecker%null%0,                  Denise%Foster%null%0,                  Andrei%Karpov%null%0,                  Sarah%Crowe%null%0,                  Greg%Haljan%null%0,                  Dean R.%Chittock%null%0,                  Hussein D.%Kanji%null%0,                  Mypinder S.%Sekhon%null%0,                  Donald E.G.%Griesdale%null%0,               Anish R.%Mitra%null%1,               Nicholas A.%Fergusson%null%1,               Elisa%Lloyd-Smith%null%1,               Andrew%Wormsbecker%null%1,               Denise%Foster%null%1,               Andrei%Karpov%null%1,               Sarah%Crowe%null%1,               Greg%Haljan%null%1,               Dean R.%Chittock%null%1,               Hussein D.%Kanji%null%1,               Mypinder S.%Sekhon%null%1,               Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                 Mark%Caridi-Scheible%NULL%0,                 James M.%Blum%NULL%0,                 Chad%Robichaux%NULL%0,                 Colleen%Kraft%NULL%0,                 Jesse T.%Jacob%NULL%0,                 Craig S.%Jabaley%NULL%0,                 David%Carpenter%NULL%0,                 Roberta%Kaplow%NULL%0,                 Alfonso C.%Hernandez-Romieu%NULL%0,                 Max W.%Adelman%NULL%0,                 Greg S.%Martin%NULL%0,                 Craig M.%Coopersmith%NULL%0,                 David J.%Murphy%NULL%0,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,                 Caroline P. E.%Price%NULL%1,                 Elizabeth L.%Gray%NULL%1,                 Reeti K.%Gulati%NULL%1,                 Matthew%Maksimoski%NULL%1,                 Samuel D.%Racette%NULL%1,                 Alexander L.%Schneider%NULL%1,                 Ashoke R.%Khanwalkar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1576,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1521,7 +1605,7 @@
         <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1550,7 +1634,7 @@
         <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1579,7 +1663,7 @@
         <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1608,7 +1692,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
@@ -1637,7 +1721,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1666,7 +1750,7 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1695,7 +1779,7 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1724,7 +1808,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1753,7 +1837,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1782,7 +1866,7 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="F13" t="s">
         <v>68</v>
@@ -1811,7 +1895,7 @@
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="F14" t="s">
         <v>73</v>
@@ -1840,7 +1924,7 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="F15" t="s">
         <v>79</v>
@@ -1869,7 +1953,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>

--- a/Covid_19_Dataset_and_References/References/83.xlsx
+++ b/Covid_19_Dataset_and_References/References/83.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="331">
   <si>
     <t>Doi</t>
   </si>
@@ -1210,6 +1210,48 @@
   </si>
   <si>
     <t>[Kevin%Hur%NULL%1,                 Caroline P. E.%Price%NULL%1,                 Elizabeth L.%Gray%NULL%1,                 Reeti K.%Gulati%NULL%1,                 Matthew%Maksimoski%NULL%1,                 Samuel D.%Racette%NULL%1,                 Alexander L.%Schneider%NULL%1,                 Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                  Di%Wu%NULL%0,                  Huilong%Chen%NULL%0,                  Weiming%Yan%NULL%0,                  Danlei%Yang%NULL%0,                  Guang%Chen%NULL%0,                  Ke%Ma%NULL%0,                  Dong%Xu%NULL%0,                  Haijing%Yu%NULL%0,                  Hongwu%Wang%NULL%0,                  Tao%Wang%NULL%0,                  Wei%Guo%NULL%0,                  Jia%Chen%NULL%0,                  Chen%Ding%NULL%0,                  Xiaoping%Zhang%NULL%0,                  Jiaquan%Huang%NULL%0,                  Meifang%Han%NULL%0,                  Shusheng%Li%NULL%0,                  Xiaoping%Luo%NULL%0,                  Jianping%Zhao%NULL%0,                  Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                  Dan%Xu%NULL%0,                  Shouzhi%Fu%NULL%0,                  Jun%Zhang%NULL%0,                  Xiaobo%Yang%NULL%0,                  Liang%Xu%NULL%0,                  Jiqian%Xu%NULL%0,                  Yongran%Wu%NULL%0,                  Chaolin%Huang%NULL%0,                  Yaqi%Ouyang%NULL%0,                  Luyu%Yang%NULL%0,                  Minghao%Fang%NULL%0,                  Hongwen%Xiao%NULL%0,                  Jing%Ma%NULL%0,                  Wei%Zhu%NULL%0,                  Song%Hu%NULL%0,                  Quan%Hu%NULL%0,                  Daoyin%Ding%NULL%0,                  Ming%Hu%NULL%0,                  Guochao%Zhu%NULL%0,                  Weijiang%Xu%NULL%0,                  Jun%Guo%NULL%0,                  Jinglong%Xu%NULL%0,                  Haitao%Yuan%NULL%0,                  Bin%Zhang%NULL%0,                  Zhui%Yu%yuzhui@whu.edu.cn%0,                  Dechang%Chen%icudechangchen@163.com%0,                  Shiying%Yuan%yuan_shiying@163.com%0,                  You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                 Becker%L.B.%coreGivesNoEmail%0,                 Chelico%J.D.%coreGivesNoEmail%0,                 Cohen%S.L.%coreGivesNoEmail%0,                 Cookingham%J.%coreGivesNoEmail%0,                 Coppa%K.%coreGivesNoEmail%0,                 Crawford%J.M.%coreGivesNoEmail%0,                 Davidson%K.W.%coreGivesNoEmail%0,                 Diefenbach%M.A.%coreGivesNoEmail%0,                 Dominello%A.J.%coreGivesNoEmail%0,                 Duer-Hefele%J.%coreGivesNoEmail%0,                 Falzon%L.%coreGivesNoEmail%0,                 Gitlin%J.%coreGivesNoEmail%0,                 Hajizadeh%N.%coreGivesNoEmail%0,                 Harvin%T.G.%coreGivesNoEmail%0,                 Hirsch%J.S.%coreGivesNoEmail%0,                 Hirschwerk%D.A.%coreGivesNoEmail%0,                 Kim%E.J.%coreGivesNoEmail%0,                 Kozel%Z.M.%coreGivesNoEmail%0,                 Marrast%L.M.%coreGivesNoEmail%0,                 McGinn%T.%coreGivesNoEmail%0,                 Mogavero%J.N.%coreGivesNoEmail%0,                 Narasimhan%M.%coreGivesNoEmail%0,                 Osorio%G.A.%coreGivesNoEmail%0,                 Qiu%M.%coreGivesNoEmail%0,                 Richardson%S.%coreGivesNoEmail%0,                 Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                 Cabrini%Luca%coreGivesNoEmail%0,                 Castelli%Antonio%coreGivesNoEmail%0,                 Cecconi%Maurizio%coreGivesNoEmail%0,                 Cereda%Danilo%coreGivesNoEmail%0,                 Coluccello%Antonio%coreGivesNoEmail%0,                 Foti%Giuseppe%coreGivesNoEmail%0,                 Fumagalli%Roberto%coreGivesNoEmail%0,                 Grasselli%Giacomo%coreGivesNoEmail%0,                 Iotti%Giorgio%coreGivesNoEmail%0,                 Latronico%Nicola%coreGivesNoEmail%0,                 Lorini%Luca%coreGivesNoEmail%0,                 Merler%Stefano%coreGivesNoEmail%0,                 Natalini%Giuseppe%coreGivesNoEmail%0,                 Pesenti%Antonio%coreGivesNoEmail%0,                 Piatti%Alessandra%coreGivesNoEmail%0,                 Ranieri%Marco Vito%coreGivesNoEmail%0,                 Scandroglio%Anna Mara%coreGivesNoEmail%0,                 Storti%Enrico%coreGivesNoEmail%0,                 Zanella%Alberto%coreGivesNoEmail%0,                 Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                  Bijan J.%Ghassemieh%NULL%0,                  Michelle%Nichols%NULL%0,                  Richard%Kim%NULL%0,                  Keith R.%Jerome%NULL%0,                  Arun K.%Nalla%NULL%0,                  Alexander L.%Greninger%NULL%0,                  Sudhakar%Pipavath%NULL%0,                  Mark M.%Wurfel%NULL%0,                  Laura%Evans%NULL%0,                  Patricia A.%Kritek%NULL%0,                  T. Eoin%West%NULL%0,                  Andrew%Luks%NULL%0,                  Anthony%Gerbino%NULL%0,                  Chris R.%Dale%NULL%0,                  Jason D.%Goldman%NULL%0,                  Shane%O’Mahony%NULL%0,                  Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,                  Hiroyuki%Shimizu%NULL%1,                  Yasushi%Shibue%NULL%1,                  Tomohiro%Hosoda%NULL%1,                  Keisuke%Iwabuchi%NULL%1,                  Kotaro%Nagamine%NULL%1,                  Hiroki%Saito%NULL%1,                  Reimin%Sawada%NULL%1,                  Takayuki%Oishi%NULL%1,                  Jun%Tsukiji%NULL%1,                  Hiroyuki%Fujita%NULL%1,                  Ryosuke%Furuya%NULL%1,                  Makoto%Masuda%NULL%1,                  Osamu%Akasaka%NULL%1,                  Yu%Ikeda%NULL%1,                  Mitsuo%Sakamoto%NULL%1,                  Kazuya%Sakai%NULL%1,                  Munehito%Uchiyama%NULL%1,                  Hiroki%Watanabe%NULL%1,                  Nobuhiro%Yamaguchi%NULL%1,                  Ryoko%Higa%NULL%1,                  Akiko%Sasaki%NULL%1,                  Katsuaki%Tanaka%NULL%1,                  Yukitoshi%Toyoda%NULL%1,                  Shinsuke%Hamanaka%NULL%1,                  Naoki%Miyazawa%NULL%1,                  Atsuko%Shimizu%NULL%1,                  Fumie%Fukase%NULL%1,                  Shunsuke%Iwai%NULL%1,                  Yuko%Komase%NULL%1,                  Tsutomu%Kawasaki%NULL%1,                  Isao%Nagata%NULL%1,                  Yusuke%Nakayama%NULL%1,                  Tetsuhiro%Takei%NULL%1,                  Katsuo%Kimura%NULL%1,                  Reiko%Kunisaki%NULL%1,                  Makoto%Kudo%NULL%1,                  Ichiro%Takeuchi%NULL%0,                  Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,           Xiaoyan%Chen%xref no email%0,           Yanping%Cai%xref no email%0,           Jia\u2019an%Xia%xref no email%0,           Xing%Zhou%xref no email%0,           Sha%Xu%xref no email%0,           Hanping%Huang%xref no email%0,           Li%Zhang%xref no email%0,           Xia%Zhou%xref no email%0,           Chunling%Du%xref no email%0,           Yuye%Zhang%xref no email%0,           Juan%Song%xref no email%0,           Sijiao%Wang%xref no email%0,           Yencheng%Chao%xref no email%0,           Zeyong%Yang%xref no email%0,           Jie%Xu%xref no email%0,           Xin%Zhou%xref no email%0,           Dechang%Chen%xref no email%0,           Weining%Xiong%xref no email%0,           Lei%Xu%xref no email%0,           Feng%Zhou%xref no email%0,           Jinjun%Jiang%xref no email%0,           Chunxue%Bai%xref no email%0,           Junhua%Zheng%xref no email%0,           Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                  Yuan%Yu%NULL%0,                  Jiqian%Xu%NULL%0,                  Huaqing%Shu%NULL%0,                  Jia'an%Xia%NULL%0,                  Hong%Liu%NULL%0,                  Yongran%Wu%NULL%0,                  Lu%Zhang%NULL%0,                  Zhui%Yu%NULL%0,                  Minghao%Fang%NULL%0,                  Ting%Yu%NULL%0,                  Yaxin%Wang%NULL%0,                  Shangwen%Pan%NULL%0,                  Xiaojing%Zou%NULL%0,                  Shiying%Yuan%NULL%0,                  You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,                  Rong Hua%Tian%NULL%1,                  Song%Luo%NULL%1,                  Zi Yue%Zu%NULL%1,                  Bin%Fan%NULL%1,                  Xi Ming%Wang%NULL%1,                  Kai%Xu%NULL%1,                  Jiang Tao%Wang%NULL%1,                  Juan%Zhu%NULL%1,                  Ji Chan%Shi%NULL%1,                  Feng%Chen%NULL%1,                  Bing%Wan%NULL%1,                  Zhi Han%Yan%NULL%1,                  Rong Pin%Wang%NULL%1,                  Wen%Chen%NULL%1,                  Wen Hui%Fan%NULL%1,                  Can%Zhang%NULL%1,                  Meng Jie%Lu%NULL%1,                  Zhi Yuan%Sun%NULL%1,                  Chang Sheng%Zhou%NULL%1,                  Li Na%Zhang%NULL%1,                  Fei%Xia%NULL%1,                  Li%Qi%NULL%1,                  Wei%Zhang%NULL%0,                  Jing%Zhong%NULL%1,                  Xiao Xue%Liu%NULL%1,                  Qi Rui%Zhang%NULL%1,                  Guang Ming%Lu%NULL%1,                  Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,                  Matthew R%Baldwin%NULL%0,                  Darryl%Abrams%NULL%1,                  Samuel D%Jacobson%NULL%1,                  Benjamin J%Meyer%NULL%1,                  Elizabeth M%Balough%NULL%1,                  Justin G%Aaron%NULL%1,                  Jan%Claassen%NULL%1,                  LeRoy E%Rabbani%NULL%1,                  Jonathan%Hastie%NULL%1,                  Beth R%Hochman%NULL%1,                  John%Salazar-Schicchi%NULL%1,                  Natalie H%Yip%NULL%1,                  Daniel%Brodie%NULL%2,                  Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                  Samuel L%Bruce%NULL%0,                  Cody L%Slater%NULL%0,                  Jonathan R%Tiao%NULL%0,                  Matthew R%Baldwin%NULL%0,                  R Graham%Barr%NULL%0,                  Bernard P%Chang%NULL%0,                  Katherine H%Chau%NULL%0,                  Justin J%Choi%NULL%0,                  Nicholas%Gavin%NULL%0,                  Parag%Goyal%NULL%0,                  Angela M%Mills%NULL%0,                  Ashmi A%Patel%NULL%0,                  Marie-Laure S%Romney%NULL%0,                  Monika M%Safford%NULL%0,                  Neil W%Schluger%NULL%0,                  Soumitra%Sengupta%NULL%0,                  Magdalena E%Sobieszczyk%NULL%0,                  Jason E%Zucker%NULL%0,                  Paul A%Asadourian%NULL%0,                  Fletcher M%Bell%NULL%0,                  Rebekah%Boyd%NULL%0,                  Matthew F%Cohen%NULL%0,                  MacAlistair I%Colquhoun%NULL%0,                  Lucy A%Colville%NULL%0,                  Joseph H%de Jonge%NULL%0,                  Lyle B%Dershowitz%NULL%0,                  Shirin A%Dey%NULL%0,                  Katherine A%Eiseman%NULL%0,                  Zachary P%Girvin%NULL%0,                  Daniella T%Goni%NULL%0,                  Amro A%Harb%NULL%0,                  Nicholas%Herzik%NULL%0,                  Sarah%Householder%NULL%0,                  Lara E%Karaaslan%NULL%0,                  Heather%Lee%NULL%0,                  Evan%Lieberman%NULL%0,                  Andrew%Ling%NULL%0,                  Ree%Lu%NULL%0,                  Arthur Y%Shou%NULL%0,                  Alexander C%Sisti%NULL%0,                  Zachary E%Snow%NULL%0,                  Colin P%Sperring%NULL%0,                  Yuqing%Xiong%NULL%0,                  Henry W%Zhou%NULL%0,                  Karthik%Natarajan%NULL%0,                  George%Hripcsak%NULL%0,                  Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,                   Nicholas A.%Fergusson%null%0,                   Elisa%Lloyd-Smith%null%0,                   Andrew%Wormsbecker%null%0,                   Denise%Foster%null%0,                   Andrei%Karpov%null%0,                   Sarah%Crowe%null%0,                   Greg%Haljan%null%0,                   Dean R.%Chittock%null%0,                   Hussein D.%Kanji%null%0,                   Mypinder S.%Sekhon%null%0,                   Donald E.G.%Griesdale%null%0,                Anish R.%Mitra%null%1,                Nicholas A.%Fergusson%null%1,                Elisa%Lloyd-Smith%null%1,                Andrew%Wormsbecker%null%1,                Denise%Foster%null%1,                Andrei%Karpov%null%1,                Sarah%Crowe%null%1,                Greg%Haljan%null%1,                Dean R.%Chittock%null%1,                Hussein D.%Kanji%null%1,                Mypinder S.%Sekhon%null%1,                Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                  Mark%Caridi-Scheible%NULL%0,                  James M.%Blum%NULL%0,                  Chad%Robichaux%NULL%0,                  Colleen%Kraft%NULL%0,                  Jesse T.%Jacob%NULL%0,                  Craig S.%Jabaley%NULL%0,                  David%Carpenter%NULL%0,                  Roberta%Kaplow%NULL%0,                  Alfonso C.%Hernandez-Romieu%NULL%0,                  Max W.%Adelman%NULL%0,                  Greg S.%Martin%NULL%0,                  Craig M.%Coopersmith%NULL%0,                  David J.%Murphy%NULL%0,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,                  Caroline P. E.%Price%NULL%1,                  Elizabeth L.%Gray%NULL%1,                  Reeti K.%Gulati%NULL%1,                  Matthew%Maksimoski%NULL%1,                  Samuel D.%Racette%NULL%1,                  Alexander L.%Schneider%NULL%1,                  Ashoke R.%Khanwalkar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1618,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1605,7 +1647,7 @@
         <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1634,7 +1676,7 @@
         <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1663,7 +1705,7 @@
         <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1692,7 +1734,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
@@ -1721,7 +1763,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1750,7 +1792,7 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1779,7 +1821,7 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1808,7 +1850,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1837,7 +1879,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1866,7 +1908,7 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="F13" t="s">
         <v>68</v>
@@ -1895,7 +1937,7 @@
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="F14" t="s">
         <v>73</v>
@@ -1924,7 +1966,7 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="F15" t="s">
         <v>79</v>
@@ -1953,7 +1995,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>

--- a/Covid_19_Dataset_and_References/References/83.xlsx
+++ b/Covid_19_Dataset_and_References/References/83.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="349">
   <si>
     <t>Doi</t>
   </si>
@@ -1252,6 +1252,60 @@
   </si>
   <si>
     <t>[Kevin%Hur%NULL%1,                  Caroline P. E.%Price%NULL%1,                  Elizabeth L.%Gray%NULL%1,                  Reeti K.%Gulati%NULL%1,                  Matthew%Maksimoski%NULL%1,                  Samuel D.%Racette%NULL%1,                  Alexander L.%Schneider%NULL%1,                  Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                   Di%Wu%NULL%0,                   Huilong%Chen%NULL%0,                   Weiming%Yan%NULL%0,                   Danlei%Yang%NULL%0,                   Guang%Chen%NULL%0,                   Ke%Ma%NULL%0,                   Dong%Xu%NULL%0,                   Haijing%Yu%NULL%0,                   Hongwu%Wang%NULL%0,                   Tao%Wang%NULL%0,                   Wei%Guo%NULL%0,                   Jia%Chen%NULL%0,                   Chen%Ding%NULL%0,                   Xiaoping%Zhang%NULL%0,                   Jiaquan%Huang%NULL%0,                   Meifang%Han%NULL%0,                   Shusheng%Li%NULL%0,                   Xiaoping%Luo%NULL%0,                   Jianping%Zhao%NULL%0,                   Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                   Dan%Xu%NULL%0,                   Shouzhi%Fu%NULL%0,                   Jun%Zhang%NULL%0,                   Xiaobo%Yang%NULL%0,                   Liang%Xu%NULL%0,                   Jiqian%Xu%NULL%0,                   Yongran%Wu%NULL%0,                   Chaolin%Huang%NULL%0,                   Yaqi%Ouyang%NULL%0,                   Luyu%Yang%NULL%0,                   Minghao%Fang%NULL%0,                   Hongwen%Xiao%NULL%0,                   Jing%Ma%NULL%0,                   Wei%Zhu%NULL%0,                   Song%Hu%NULL%0,                   Quan%Hu%NULL%0,                   Daoyin%Ding%NULL%0,                   Ming%Hu%NULL%0,                   Guochao%Zhu%NULL%0,                   Weijiang%Xu%NULL%0,                   Jun%Guo%NULL%0,                   Jinglong%Xu%NULL%0,                   Haitao%Yuan%NULL%0,                   Bin%Zhang%NULL%0,                   Zhui%Yu%yuzhui@whu.edu.cn%0,                   Dechang%Chen%icudechangchen@163.com%0,                   Shiying%Yuan%yuan_shiying@163.com%0,                   You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                  Becker%L.B.%coreGivesNoEmail%0,                  Chelico%J.D.%coreGivesNoEmail%0,                  Cohen%S.L.%coreGivesNoEmail%0,                  Cookingham%J.%coreGivesNoEmail%0,                  Coppa%K.%coreGivesNoEmail%0,                  Crawford%J.M.%coreGivesNoEmail%0,                  Davidson%K.W.%coreGivesNoEmail%0,                  Diefenbach%M.A.%coreGivesNoEmail%0,                  Dominello%A.J.%coreGivesNoEmail%0,                  Duer-Hefele%J.%coreGivesNoEmail%0,                  Falzon%L.%coreGivesNoEmail%0,                  Gitlin%J.%coreGivesNoEmail%0,                  Hajizadeh%N.%coreGivesNoEmail%0,                  Harvin%T.G.%coreGivesNoEmail%0,                  Hirsch%J.S.%coreGivesNoEmail%0,                  Hirschwerk%D.A.%coreGivesNoEmail%0,                  Kim%E.J.%coreGivesNoEmail%0,                  Kozel%Z.M.%coreGivesNoEmail%0,                  Marrast%L.M.%coreGivesNoEmail%0,                  McGinn%T.%coreGivesNoEmail%0,                  Mogavero%J.N.%coreGivesNoEmail%0,                  Narasimhan%M.%coreGivesNoEmail%0,                  Osorio%G.A.%coreGivesNoEmail%0,                  Qiu%M.%coreGivesNoEmail%0,                  Richardson%S.%coreGivesNoEmail%0,                  Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                  Cabrini%Luca%coreGivesNoEmail%0,                  Castelli%Antonio%coreGivesNoEmail%0,                  Cecconi%Maurizio%coreGivesNoEmail%0,                  Cereda%Danilo%coreGivesNoEmail%0,                  Coluccello%Antonio%coreGivesNoEmail%0,                  Foti%Giuseppe%coreGivesNoEmail%0,                  Fumagalli%Roberto%coreGivesNoEmail%0,                  Grasselli%Giacomo%coreGivesNoEmail%0,                  Iotti%Giorgio%coreGivesNoEmail%0,                  Latronico%Nicola%coreGivesNoEmail%0,                  Lorini%Luca%coreGivesNoEmail%0,                  Merler%Stefano%coreGivesNoEmail%0,                  Natalini%Giuseppe%coreGivesNoEmail%0,                  Pesenti%Antonio%coreGivesNoEmail%0,                  Piatti%Alessandra%coreGivesNoEmail%0,                  Ranieri%Marco Vito%coreGivesNoEmail%0,                  Scandroglio%Anna Mara%coreGivesNoEmail%0,                  Storti%Enrico%coreGivesNoEmail%0,                  Zanella%Alberto%coreGivesNoEmail%0,                  Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                   Bijan J.%Ghassemieh%NULL%0,                   Michelle%Nichols%NULL%0,                   Richard%Kim%NULL%0,                   Keith R.%Jerome%NULL%0,                   Arun K.%Nalla%NULL%0,                   Alexander L.%Greninger%NULL%0,                   Sudhakar%Pipavath%NULL%0,                   Mark M.%Wurfel%NULL%0,                   Laura%Evans%NULL%0,                   Patricia A.%Kritek%NULL%0,                   T. Eoin%West%NULL%0,                   Andrew%Luks%NULL%0,                   Anthony%Gerbino%NULL%0,                   Chris R.%Dale%NULL%0,                   Jason D.%Goldman%NULL%0,                   Shane%O’Mahony%NULL%0,                   Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,                   Hiroyuki%Shimizu%NULL%1,                   Yasushi%Shibue%NULL%1,                   Tomohiro%Hosoda%NULL%1,                   Keisuke%Iwabuchi%NULL%1,                   Kotaro%Nagamine%NULL%1,                   Hiroki%Saito%NULL%1,                   Reimin%Sawada%NULL%1,                   Takayuki%Oishi%NULL%1,                   Jun%Tsukiji%NULL%1,                   Hiroyuki%Fujita%NULL%1,                   Ryosuke%Furuya%NULL%1,                   Makoto%Masuda%NULL%1,                   Osamu%Akasaka%NULL%1,                   Yu%Ikeda%NULL%1,                   Mitsuo%Sakamoto%NULL%1,                   Kazuya%Sakai%NULL%1,                   Munehito%Uchiyama%NULL%1,                   Hiroki%Watanabe%NULL%1,                   Nobuhiro%Yamaguchi%NULL%1,                   Ryoko%Higa%NULL%1,                   Akiko%Sasaki%NULL%1,                   Katsuaki%Tanaka%NULL%1,                   Yukitoshi%Toyoda%NULL%1,                   Shinsuke%Hamanaka%NULL%1,                   Naoki%Miyazawa%NULL%1,                   Atsuko%Shimizu%NULL%1,                   Fumie%Fukase%NULL%1,                   Shunsuke%Iwai%NULL%1,                   Yuko%Komase%NULL%1,                   Tsutomu%Kawasaki%NULL%1,                   Isao%Nagata%NULL%1,                   Yusuke%Nakayama%NULL%1,                   Tetsuhiro%Takei%NULL%1,                   Katsuo%Kimura%NULL%1,                   Reiko%Kunisaki%NULL%1,                   Makoto%Kudo%NULL%1,                   Ichiro%Takeuchi%NULL%0,                   Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,            Xiaoyan%Chen%xref no email%0,            Yanping%Cai%xref no email%0,            Jia\u2019an%Xia%xref no email%0,            Xing%Zhou%xref no email%0,            Sha%Xu%xref no email%0,            Hanping%Huang%xref no email%0,            Li%Zhang%xref no email%0,            Xia%Zhou%xref no email%0,            Chunling%Du%xref no email%0,            Yuye%Zhang%xref no email%0,            Juan%Song%xref no email%0,            Sijiao%Wang%xref no email%0,            Yencheng%Chao%xref no email%0,            Zeyong%Yang%xref no email%0,            Jie%Xu%xref no email%0,            Xin%Zhou%xref no email%0,            Dechang%Chen%xref no email%0,            Weining%Xiong%xref no email%0,            Lei%Xu%xref no email%0,            Feng%Zhou%xref no email%0,            Jinjun%Jiang%xref no email%0,            Chunxue%Bai%xref no email%0,            Junhua%Zheng%xref no email%0,            Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                   Yuan%Yu%NULL%0,                   Jiqian%Xu%NULL%0,                   Huaqing%Shu%NULL%0,                   Jia'an%Xia%NULL%0,                   Hong%Liu%NULL%0,                   Yongran%Wu%NULL%0,                   Lu%Zhang%NULL%0,                   Zhui%Yu%NULL%0,                   Minghao%Fang%NULL%0,                   Ting%Yu%NULL%0,                   Yaxin%Wang%NULL%0,                   Shangwen%Pan%NULL%0,                   Xiaojing%Zou%NULL%0,                   Shiying%Yuan%NULL%0,                   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,                   Rong Hua%Tian%NULL%1,                   Song%Luo%NULL%1,                   Zi Yue%Zu%NULL%1,                   Bin%Fan%NULL%1,                   Xi Ming%Wang%NULL%1,                   Kai%Xu%NULL%1,                   Jiang Tao%Wang%NULL%1,                   Juan%Zhu%NULL%1,                   Ji Chan%Shi%NULL%1,                   Feng%Chen%NULL%1,                   Bing%Wan%NULL%1,                   Zhi Han%Yan%NULL%1,                   Rong Pin%Wang%NULL%1,                   Wen%Chen%NULL%1,                   Wen Hui%Fan%NULL%1,                   Can%Zhang%NULL%1,                   Meng Jie%Lu%NULL%1,                   Zhi Yuan%Sun%NULL%1,                   Chang Sheng%Zhou%NULL%1,                   Li Na%Zhang%NULL%1,                   Fei%Xia%NULL%1,                   Li%Qi%NULL%1,                   Wei%Zhang%NULL%0,                   Jing%Zhong%NULL%1,                   Xiao Xue%Liu%NULL%1,                   Qi Rui%Zhang%NULL%1,                   Guang Ming%Lu%NULL%1,                   Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,                   Matthew R%Baldwin%NULL%0,                   Darryl%Abrams%NULL%1,                   Samuel D%Jacobson%NULL%1,                   Benjamin J%Meyer%NULL%1,                   Elizabeth M%Balough%NULL%1,                   Justin G%Aaron%NULL%1,                   Jan%Claassen%NULL%1,                   LeRoy E%Rabbani%NULL%1,                   Jonathan%Hastie%NULL%1,                   Beth R%Hochman%NULL%1,                   John%Salazar-Schicchi%NULL%1,                   Natalie H%Yip%NULL%1,                   Daniel%Brodie%NULL%2,                   Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                   Samuel L%Bruce%NULL%0,                   Cody L%Slater%NULL%0,                   Jonathan R%Tiao%NULL%0,                   Matthew R%Baldwin%NULL%0,                   R Graham%Barr%NULL%0,                   Bernard P%Chang%NULL%0,                   Katherine H%Chau%NULL%0,                   Justin J%Choi%NULL%0,                   Nicholas%Gavin%NULL%0,                   Parag%Goyal%NULL%0,                   Angela M%Mills%NULL%0,                   Ashmi A%Patel%NULL%0,                   Marie-Laure S%Romney%NULL%0,                   Monika M%Safford%NULL%0,                   Neil W%Schluger%NULL%0,                   Soumitra%Sengupta%NULL%0,                   Magdalena E%Sobieszczyk%NULL%0,                   Jason E%Zucker%NULL%0,                   Paul A%Asadourian%NULL%0,                   Fletcher M%Bell%NULL%0,                   Rebekah%Boyd%NULL%0,                   Matthew F%Cohen%NULL%0,                   MacAlistair I%Colquhoun%NULL%0,                   Lucy A%Colville%NULL%0,                   Joseph H%de Jonge%NULL%0,                   Lyle B%Dershowitz%NULL%0,                   Shirin A%Dey%NULL%0,                   Katherine A%Eiseman%NULL%0,                   Zachary P%Girvin%NULL%0,                   Daniella T%Goni%NULL%0,                   Amro A%Harb%NULL%0,                   Nicholas%Herzik%NULL%0,                   Sarah%Householder%NULL%0,                   Lara E%Karaaslan%NULL%0,                   Heather%Lee%NULL%0,                   Evan%Lieberman%NULL%0,                   Andrew%Ling%NULL%0,                   Ree%Lu%NULL%0,                   Arthur Y%Shou%NULL%0,                   Alexander C%Sisti%NULL%0,                   Zachary E%Snow%NULL%0,                   Colin P%Sperring%NULL%0,                   Yuqing%Xiong%NULL%0,                   Henry W%Zhou%NULL%0,                   Karthik%Natarajan%NULL%0,                   George%Hripcsak%NULL%0,                   Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,                    Nicholas A.%Fergusson%null%0,                    Elisa%Lloyd-Smith%null%0,                    Andrew%Wormsbecker%null%0,                    Denise%Foster%null%0,                    Andrei%Karpov%null%0,                    Sarah%Crowe%null%0,                    Greg%Haljan%null%0,                    Dean R.%Chittock%null%0,                    Hussein D.%Kanji%null%0,                    Mypinder S.%Sekhon%null%0,                    Donald E.G.%Griesdale%null%0,                 Anish R.%Mitra%null%1,                 Nicholas A.%Fergusson%null%1,                 Elisa%Lloyd-Smith%null%1,                 Andrew%Wormsbecker%null%1,                 Denise%Foster%null%1,                 Andrei%Karpov%null%1,                 Sarah%Crowe%null%1,                 Greg%Haljan%null%1,                 Dean R.%Chittock%null%1,                 Hussein D.%Kanji%null%1,                 Mypinder S.%Sekhon%null%1,                 Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                   Mark%Caridi-Scheible%NULL%0,                   James M.%Blum%NULL%0,                   Chad%Robichaux%NULL%0,                   Colleen%Kraft%NULL%0,                   Jesse T.%Jacob%NULL%0,                   Craig S.%Jabaley%NULL%0,                   David%Carpenter%NULL%0,                   Roberta%Kaplow%NULL%0,                   Alfonso C.%Hernandez-Romieu%NULL%0,                   Max W.%Adelman%NULL%0,                   Greg S.%Martin%NULL%0,                   Craig M.%Coopersmith%NULL%0,                   David J.%Murphy%NULL%0,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,                   Caroline P. E.%Price%NULL%1,                   Elizabeth L.%Gray%NULL%1,                   Reeti K.%Gulati%NULL%1,                   Matthew%Maksimoski%NULL%1,                   Samuel D.%Racette%NULL%1,                   Alexander L.%Schneider%NULL%1,                   Ashoke R.%Khanwalkar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1618,7 +1672,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1630,7 +1684,7 @@
         <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>119</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4">
@@ -1647,7 +1701,7 @@
         <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1659,7 +1713,7 @@
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>121</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5">
@@ -1676,7 +1730,7 @@
         <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1688,7 +1742,7 @@
         <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>117</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6">
@@ -1705,7 +1759,7 @@
         <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1717,7 +1771,7 @@
         <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>117</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7">
@@ -1734,7 +1788,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
@@ -1746,7 +1800,7 @@
         <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8">
@@ -1763,7 +1817,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1775,7 +1829,7 @@
         <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>126</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9">
@@ -1792,7 +1846,7 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1804,7 +1858,7 @@
         <v>182</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10">
@@ -1821,7 +1875,7 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1833,7 +1887,7 @@
         <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>126</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11">
@@ -1850,7 +1904,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1862,7 +1916,7 @@
         <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12">
@@ -1879,7 +1933,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1891,7 +1945,7 @@
         <v>31</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13">
@@ -1908,7 +1962,7 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="F13" t="s">
         <v>68</v>
@@ -1920,7 +1974,7 @@
         <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +1991,7 @@
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="F14" t="s">
         <v>73</v>
@@ -1949,7 +2003,7 @@
         <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>117</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15">
@@ -1966,7 +2020,7 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="F15" t="s">
         <v>79</v>
@@ -1978,7 +2032,7 @@
         <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16">
@@ -1995,7 +2049,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -2007,7 +2061,7 @@
         <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>119</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/83.xlsx
+++ b/Covid_19_Dataset_and_References/References/83.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="363">
   <si>
     <t>Doi</t>
   </si>
@@ -1306,6 +1306,48 @@
   </si>
   <si>
     <t>[Kevin%Hur%NULL%1,                   Caroline P. E.%Price%NULL%1,                   Elizabeth L.%Gray%NULL%1,                   Reeti K.%Gulati%NULL%1,                   Matthew%Maksimoski%NULL%1,                   Samuel D.%Racette%NULL%1,                   Alexander L.%Schneider%NULL%1,                   Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                    Di%Wu%NULL%0,                    Huilong%Chen%NULL%0,                    Weiming%Yan%NULL%0,                    Danlei%Yang%NULL%0,                    Guang%Chen%NULL%0,                    Ke%Ma%NULL%0,                    Dong%Xu%NULL%0,                    Haijing%Yu%NULL%0,                    Hongwu%Wang%NULL%0,                    Tao%Wang%NULL%0,                    Wei%Guo%NULL%0,                    Jia%Chen%NULL%0,                    Chen%Ding%NULL%0,                    Xiaoping%Zhang%NULL%0,                    Jiaquan%Huang%NULL%0,                    Meifang%Han%NULL%0,                    Shusheng%Li%NULL%0,                    Xiaoping%Luo%NULL%0,                    Jianping%Zhao%NULL%0,                    Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                    Dan%Xu%NULL%0,                    Shouzhi%Fu%NULL%0,                    Jun%Zhang%NULL%0,                    Xiaobo%Yang%NULL%0,                    Liang%Xu%NULL%0,                    Jiqian%Xu%NULL%0,                    Yongran%Wu%NULL%0,                    Chaolin%Huang%NULL%0,                    Yaqi%Ouyang%NULL%0,                    Luyu%Yang%NULL%0,                    Minghao%Fang%NULL%0,                    Hongwen%Xiao%NULL%0,                    Jing%Ma%NULL%0,                    Wei%Zhu%NULL%0,                    Song%Hu%NULL%0,                    Quan%Hu%NULL%0,                    Daoyin%Ding%NULL%0,                    Ming%Hu%NULL%0,                    Guochao%Zhu%NULL%0,                    Weijiang%Xu%NULL%0,                    Jun%Guo%NULL%0,                    Jinglong%Xu%NULL%0,                    Haitao%Yuan%NULL%0,                    Bin%Zhang%NULL%0,                    Zhui%Yu%yuzhui@whu.edu.cn%0,                    Dechang%Chen%icudechangchen@163.com%0,                    Shiying%Yuan%yuan_shiying@163.com%0,                    You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                   Becker%L.B.%coreGivesNoEmail%0,                   Chelico%J.D.%coreGivesNoEmail%0,                   Cohen%S.L.%coreGivesNoEmail%0,                   Cookingham%J.%coreGivesNoEmail%0,                   Coppa%K.%coreGivesNoEmail%0,                   Crawford%J.M.%coreGivesNoEmail%0,                   Davidson%K.W.%coreGivesNoEmail%0,                   Diefenbach%M.A.%coreGivesNoEmail%0,                   Dominello%A.J.%coreGivesNoEmail%0,                   Duer-Hefele%J.%coreGivesNoEmail%0,                   Falzon%L.%coreGivesNoEmail%0,                   Gitlin%J.%coreGivesNoEmail%0,                   Hajizadeh%N.%coreGivesNoEmail%0,                   Harvin%T.G.%coreGivesNoEmail%0,                   Hirsch%J.S.%coreGivesNoEmail%0,                   Hirschwerk%D.A.%coreGivesNoEmail%0,                   Kim%E.J.%coreGivesNoEmail%0,                   Kozel%Z.M.%coreGivesNoEmail%0,                   Marrast%L.M.%coreGivesNoEmail%0,                   McGinn%T.%coreGivesNoEmail%0,                   Mogavero%J.N.%coreGivesNoEmail%0,                   Narasimhan%M.%coreGivesNoEmail%0,                   Osorio%G.A.%coreGivesNoEmail%0,                   Qiu%M.%coreGivesNoEmail%0,                   Richardson%S.%coreGivesNoEmail%0,                   Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                   Cabrini%Luca%coreGivesNoEmail%0,                   Castelli%Antonio%coreGivesNoEmail%0,                   Cecconi%Maurizio%coreGivesNoEmail%0,                   Cereda%Danilo%coreGivesNoEmail%0,                   Coluccello%Antonio%coreGivesNoEmail%0,                   Foti%Giuseppe%coreGivesNoEmail%0,                   Fumagalli%Roberto%coreGivesNoEmail%0,                   Grasselli%Giacomo%coreGivesNoEmail%0,                   Iotti%Giorgio%coreGivesNoEmail%0,                   Latronico%Nicola%coreGivesNoEmail%0,                   Lorini%Luca%coreGivesNoEmail%0,                   Merler%Stefano%coreGivesNoEmail%0,                   Natalini%Giuseppe%coreGivesNoEmail%0,                   Pesenti%Antonio%coreGivesNoEmail%0,                   Piatti%Alessandra%coreGivesNoEmail%0,                   Ranieri%Marco Vito%coreGivesNoEmail%0,                   Scandroglio%Anna Mara%coreGivesNoEmail%0,                   Storti%Enrico%coreGivesNoEmail%0,                   Zanella%Alberto%coreGivesNoEmail%0,                   Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                    Bijan J.%Ghassemieh%NULL%0,                    Michelle%Nichols%NULL%0,                    Richard%Kim%NULL%0,                    Keith R.%Jerome%NULL%0,                    Arun K.%Nalla%NULL%0,                    Alexander L.%Greninger%NULL%0,                    Sudhakar%Pipavath%NULL%0,                    Mark M.%Wurfel%NULL%0,                    Laura%Evans%NULL%0,                    Patricia A.%Kritek%NULL%0,                    T. Eoin%West%NULL%0,                    Andrew%Luks%NULL%0,                    Anthony%Gerbino%NULL%0,                    Chris R.%Dale%NULL%0,                    Jason D.%Goldman%NULL%0,                    Shane%O’Mahony%NULL%0,                    Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,                    Hiroyuki%Shimizu%NULL%1,                    Yasushi%Shibue%NULL%1,                    Tomohiro%Hosoda%NULL%1,                    Keisuke%Iwabuchi%NULL%1,                    Kotaro%Nagamine%NULL%1,                    Hiroki%Saito%NULL%1,                    Reimin%Sawada%NULL%1,                    Takayuki%Oishi%NULL%1,                    Jun%Tsukiji%NULL%1,                    Hiroyuki%Fujita%NULL%1,                    Ryosuke%Furuya%NULL%1,                    Makoto%Masuda%NULL%1,                    Osamu%Akasaka%NULL%1,                    Yu%Ikeda%NULL%1,                    Mitsuo%Sakamoto%NULL%1,                    Kazuya%Sakai%NULL%1,                    Munehito%Uchiyama%NULL%1,                    Hiroki%Watanabe%NULL%1,                    Nobuhiro%Yamaguchi%NULL%1,                    Ryoko%Higa%NULL%1,                    Akiko%Sasaki%NULL%1,                    Katsuaki%Tanaka%NULL%1,                    Yukitoshi%Toyoda%NULL%1,                    Shinsuke%Hamanaka%NULL%1,                    Naoki%Miyazawa%NULL%1,                    Atsuko%Shimizu%NULL%1,                    Fumie%Fukase%NULL%1,                    Shunsuke%Iwai%NULL%1,                    Yuko%Komase%NULL%1,                    Tsutomu%Kawasaki%NULL%1,                    Isao%Nagata%NULL%1,                    Yusuke%Nakayama%NULL%1,                    Tetsuhiro%Takei%NULL%1,                    Katsuo%Kimura%NULL%1,                    Reiko%Kunisaki%NULL%1,                    Makoto%Kudo%NULL%1,                    Ichiro%Takeuchi%NULL%0,                    Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,             Xiaoyan%Chen%xref no email%0,             Yanping%Cai%xref no email%0,             Jia\u2019an%Xia%xref no email%0,             Xing%Zhou%xref no email%0,             Sha%Xu%xref no email%0,             Hanping%Huang%xref no email%0,             Li%Zhang%xref no email%0,             Xia%Zhou%xref no email%0,             Chunling%Du%xref no email%0,             Yuye%Zhang%xref no email%0,             Juan%Song%xref no email%0,             Sijiao%Wang%xref no email%0,             Yencheng%Chao%xref no email%0,             Zeyong%Yang%xref no email%0,             Jie%Xu%xref no email%0,             Xin%Zhou%xref no email%0,             Dechang%Chen%xref no email%0,             Weining%Xiong%xref no email%0,             Lei%Xu%xref no email%0,             Feng%Zhou%xref no email%0,             Jinjun%Jiang%xref no email%0,             Chunxue%Bai%xref no email%0,             Junhua%Zheng%xref no email%0,             Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                    Yuan%Yu%NULL%0,                    Jiqian%Xu%NULL%0,                    Huaqing%Shu%NULL%0,                    Jia'an%Xia%NULL%0,                    Hong%Liu%NULL%0,                    Yongran%Wu%NULL%0,                    Lu%Zhang%NULL%0,                    Zhui%Yu%NULL%0,                    Minghao%Fang%NULL%0,                    Ting%Yu%NULL%0,                    Yaxin%Wang%NULL%0,                    Shangwen%Pan%NULL%0,                    Xiaojing%Zou%NULL%0,                    Shiying%Yuan%NULL%0,                    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,                    Rong Hua%Tian%NULL%1,                    Song%Luo%NULL%1,                    Zi Yue%Zu%NULL%1,                    Bin%Fan%NULL%1,                    Xi Ming%Wang%NULL%1,                    Kai%Xu%NULL%1,                    Jiang Tao%Wang%NULL%1,                    Juan%Zhu%NULL%1,                    Ji Chan%Shi%NULL%1,                    Feng%Chen%NULL%1,                    Bing%Wan%NULL%1,                    Zhi Han%Yan%NULL%1,                    Rong Pin%Wang%NULL%1,                    Wen%Chen%NULL%1,                    Wen Hui%Fan%NULL%1,                    Can%Zhang%NULL%1,                    Meng Jie%Lu%NULL%1,                    Zhi Yuan%Sun%NULL%1,                    Chang Sheng%Zhou%NULL%1,                    Li Na%Zhang%NULL%1,                    Fei%Xia%NULL%1,                    Li%Qi%NULL%1,                    Wei%Zhang%NULL%0,                    Jing%Zhong%NULL%1,                    Xiao Xue%Liu%NULL%1,                    Qi Rui%Zhang%NULL%1,                    Guang Ming%Lu%NULL%1,                    Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,                    Matthew R%Baldwin%NULL%0,                    Darryl%Abrams%NULL%1,                    Samuel D%Jacobson%NULL%1,                    Benjamin J%Meyer%NULL%1,                    Elizabeth M%Balough%NULL%1,                    Justin G%Aaron%NULL%1,                    Jan%Claassen%NULL%1,                    LeRoy E%Rabbani%NULL%1,                    Jonathan%Hastie%NULL%1,                    Beth R%Hochman%NULL%1,                    John%Salazar-Schicchi%NULL%1,                    Natalie H%Yip%NULL%1,                    Daniel%Brodie%NULL%2,                    Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                    Samuel L%Bruce%NULL%0,                    Cody L%Slater%NULL%0,                    Jonathan R%Tiao%NULL%0,                    Matthew R%Baldwin%NULL%0,                    R Graham%Barr%NULL%0,                    Bernard P%Chang%NULL%0,                    Katherine H%Chau%NULL%0,                    Justin J%Choi%NULL%0,                    Nicholas%Gavin%NULL%0,                    Parag%Goyal%NULL%0,                    Angela M%Mills%NULL%0,                    Ashmi A%Patel%NULL%0,                    Marie-Laure S%Romney%NULL%0,                    Monika M%Safford%NULL%0,                    Neil W%Schluger%NULL%0,                    Soumitra%Sengupta%NULL%0,                    Magdalena E%Sobieszczyk%NULL%0,                    Jason E%Zucker%NULL%0,                    Paul A%Asadourian%NULL%0,                    Fletcher M%Bell%NULL%0,                    Rebekah%Boyd%NULL%0,                    Matthew F%Cohen%NULL%0,                    MacAlistair I%Colquhoun%NULL%0,                    Lucy A%Colville%NULL%0,                    Joseph H%de Jonge%NULL%0,                    Lyle B%Dershowitz%NULL%0,                    Shirin A%Dey%NULL%0,                    Katherine A%Eiseman%NULL%0,                    Zachary P%Girvin%NULL%0,                    Daniella T%Goni%NULL%0,                    Amro A%Harb%NULL%0,                    Nicholas%Herzik%NULL%0,                    Sarah%Householder%NULL%0,                    Lara E%Karaaslan%NULL%0,                    Heather%Lee%NULL%0,                    Evan%Lieberman%NULL%0,                    Andrew%Ling%NULL%0,                    Ree%Lu%NULL%0,                    Arthur Y%Shou%NULL%0,                    Alexander C%Sisti%NULL%0,                    Zachary E%Snow%NULL%0,                    Colin P%Sperring%NULL%0,                    Yuqing%Xiong%NULL%0,                    Henry W%Zhou%NULL%0,                    Karthik%Natarajan%NULL%0,                    George%Hripcsak%NULL%0,                    Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,                     Nicholas A.%Fergusson%null%0,                     Elisa%Lloyd-Smith%null%0,                     Andrew%Wormsbecker%null%0,                     Denise%Foster%null%0,                     Andrei%Karpov%null%0,                     Sarah%Crowe%null%0,                     Greg%Haljan%null%0,                     Dean R.%Chittock%null%0,                     Hussein D.%Kanji%null%0,                     Mypinder S.%Sekhon%null%0,                     Donald E.G.%Griesdale%null%0,                  Anish R.%Mitra%null%1,                  Nicholas A.%Fergusson%null%1,                  Elisa%Lloyd-Smith%null%1,                  Andrew%Wormsbecker%null%1,                  Denise%Foster%null%1,                  Andrei%Karpov%null%1,                  Sarah%Crowe%null%1,                  Greg%Haljan%null%1,                  Dean R.%Chittock%null%1,                  Hussein D.%Kanji%null%1,                  Mypinder S.%Sekhon%null%1,                  Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                    Mark%Caridi-Scheible%NULL%0,                    James M.%Blum%NULL%0,                    Chad%Robichaux%NULL%0,                    Colleen%Kraft%NULL%0,                    Jesse T.%Jacob%NULL%0,                    Craig S.%Jabaley%NULL%0,                    David%Carpenter%NULL%0,                    Roberta%Kaplow%NULL%0,                    Alfonso C.%Hernandez-Romieu%NULL%0,                    Max W.%Adelman%NULL%0,                    Greg S.%Martin%NULL%0,                    Craig M.%Coopersmith%NULL%0,                    David J.%Murphy%NULL%0,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,                    Caroline P. E.%Price%NULL%1,                    Elizabeth L.%Gray%NULL%1,                    Reeti K.%Gulati%NULL%1,                    Matthew%Maksimoski%NULL%1,                    Samuel D.%Racette%NULL%1,                    Alexander L.%Schneider%NULL%1,                    Ashoke R.%Khanwalkar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1714,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1701,7 +1743,7 @@
         <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1730,7 +1772,7 @@
         <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1759,7 +1801,7 @@
         <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1788,7 +1830,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
@@ -1817,7 +1859,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1846,7 +1888,7 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1875,7 +1917,7 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1904,7 +1946,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1933,7 +1975,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1962,7 +2004,7 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="F13" t="s">
         <v>68</v>
@@ -1991,7 +2033,7 @@
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="F14" t="s">
         <v>73</v>
@@ -2020,7 +2062,7 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="F15" t="s">
         <v>79</v>
@@ -2049,7 +2091,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>

--- a/Covid_19_Dataset_and_References/References/83.xlsx
+++ b/Covid_19_Dataset_and_References/References/83.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="431">
   <si>
     <t>Doi</t>
   </si>
@@ -1348,6 +1348,210 @@
   </si>
   <si>
     <t>[Kevin%Hur%NULL%1,                    Caroline P. E.%Price%NULL%1,                    Elizabeth L.%Gray%NULL%1,                    Reeti K.%Gulati%NULL%1,                    Matthew%Maksimoski%NULL%1,                    Samuel D.%Racette%NULL%1,                    Alexander L.%Schneider%NULL%1,                    Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                     Di%Wu%NULL%0,                     Huilong%Chen%NULL%0,                     Weiming%Yan%NULL%0,                     Danlei%Yang%NULL%0,                     Guang%Chen%NULL%0,                     Ke%Ma%NULL%0,                     Dong%Xu%NULL%0,                     Haijing%Yu%NULL%0,                     Hongwu%Wang%NULL%0,                     Tao%Wang%NULL%0,                     Wei%Guo%NULL%0,                     Jia%Chen%NULL%0,                     Chen%Ding%NULL%0,                     Xiaoping%Zhang%NULL%0,                     Jiaquan%Huang%NULL%0,                     Meifang%Han%NULL%0,                     Shusheng%Li%NULL%0,                     Xiaoping%Luo%NULL%0,                     Jianping%Zhao%NULL%0,                     Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                     Dan%Xu%NULL%0,                     Shouzhi%Fu%NULL%0,                     Jun%Zhang%NULL%0,                     Xiaobo%Yang%NULL%0,                     Liang%Xu%NULL%0,                     Jiqian%Xu%NULL%0,                     Yongran%Wu%NULL%0,                     Chaolin%Huang%NULL%0,                     Yaqi%Ouyang%NULL%0,                     Luyu%Yang%NULL%0,                     Minghao%Fang%NULL%0,                     Hongwen%Xiao%NULL%0,                     Jing%Ma%NULL%0,                     Wei%Zhu%NULL%0,                     Song%Hu%NULL%0,                     Quan%Hu%NULL%0,                     Daoyin%Ding%NULL%0,                     Ming%Hu%NULL%0,                     Guochao%Zhu%NULL%0,                     Weijiang%Xu%NULL%0,                     Jun%Guo%NULL%0,                     Jinglong%Xu%NULL%0,                     Haitao%Yuan%NULL%0,                     Bin%Zhang%NULL%0,                     Zhui%Yu%yuzhui@whu.edu.cn%0,                     Dechang%Chen%icudechangchen@163.com%0,                     Shiying%Yuan%yuan_shiying@163.com%0,                     You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                    Becker%L.B.%coreGivesNoEmail%0,                    Chelico%J.D.%coreGivesNoEmail%0,                    Cohen%S.L.%coreGivesNoEmail%0,                    Cookingham%J.%coreGivesNoEmail%0,                    Coppa%K.%coreGivesNoEmail%0,                    Crawford%J.M.%coreGivesNoEmail%0,                    Davidson%K.W.%coreGivesNoEmail%0,                    Diefenbach%M.A.%coreGivesNoEmail%0,                    Dominello%A.J.%coreGivesNoEmail%0,                    Duer-Hefele%J.%coreGivesNoEmail%0,                    Falzon%L.%coreGivesNoEmail%0,                    Gitlin%J.%coreGivesNoEmail%0,                    Hajizadeh%N.%coreGivesNoEmail%0,                    Harvin%T.G.%coreGivesNoEmail%0,                    Hirsch%J.S.%coreGivesNoEmail%0,                    Hirschwerk%D.A.%coreGivesNoEmail%0,                    Kim%E.J.%coreGivesNoEmail%0,                    Kozel%Z.M.%coreGivesNoEmail%0,                    Marrast%L.M.%coreGivesNoEmail%0,                    McGinn%T.%coreGivesNoEmail%0,                    Mogavero%J.N.%coreGivesNoEmail%0,                    Narasimhan%M.%coreGivesNoEmail%0,                    Osorio%G.A.%coreGivesNoEmail%0,                    Qiu%M.%coreGivesNoEmail%0,                    Richardson%S.%coreGivesNoEmail%0,                    Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                    Cabrini%Luca%coreGivesNoEmail%0,                    Castelli%Antonio%coreGivesNoEmail%0,                    Cecconi%Maurizio%coreGivesNoEmail%0,                    Cereda%Danilo%coreGivesNoEmail%0,                    Coluccello%Antonio%coreGivesNoEmail%0,                    Foti%Giuseppe%coreGivesNoEmail%0,                    Fumagalli%Roberto%coreGivesNoEmail%0,                    Grasselli%Giacomo%coreGivesNoEmail%0,                    Iotti%Giorgio%coreGivesNoEmail%0,                    Latronico%Nicola%coreGivesNoEmail%0,                    Lorini%Luca%coreGivesNoEmail%0,                    Merler%Stefano%coreGivesNoEmail%0,                    Natalini%Giuseppe%coreGivesNoEmail%0,                    Pesenti%Antonio%coreGivesNoEmail%0,                    Piatti%Alessandra%coreGivesNoEmail%0,                    Ranieri%Marco Vito%coreGivesNoEmail%0,                    Scandroglio%Anna Mara%coreGivesNoEmail%0,                    Storti%Enrico%coreGivesNoEmail%0,                    Zanella%Alberto%coreGivesNoEmail%0,                    Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                     Bijan J.%Ghassemieh%NULL%0,                     Michelle%Nichols%NULL%0,                     Richard%Kim%NULL%0,                     Keith R.%Jerome%NULL%0,                     Arun K.%Nalla%NULL%0,                     Alexander L.%Greninger%NULL%0,                     Sudhakar%Pipavath%NULL%0,                     Mark M.%Wurfel%NULL%0,                     Laura%Evans%NULL%0,                     Patricia A.%Kritek%NULL%0,                     T. Eoin%West%NULL%0,                     Andrew%Luks%NULL%0,                     Anthony%Gerbino%NULL%0,                     Chris R.%Dale%NULL%0,                     Jason D.%Goldman%NULL%0,                     Shane%O’Mahony%NULL%0,                     Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,                     Hiroyuki%Shimizu%NULL%1,                     Yasushi%Shibue%NULL%1,                     Tomohiro%Hosoda%NULL%1,                     Keisuke%Iwabuchi%NULL%1,                     Kotaro%Nagamine%NULL%1,                     Hiroki%Saito%NULL%1,                     Reimin%Sawada%NULL%1,                     Takayuki%Oishi%NULL%1,                     Jun%Tsukiji%NULL%1,                     Hiroyuki%Fujita%NULL%1,                     Ryosuke%Furuya%NULL%1,                     Makoto%Masuda%NULL%1,                     Osamu%Akasaka%NULL%1,                     Yu%Ikeda%NULL%1,                     Mitsuo%Sakamoto%NULL%1,                     Kazuya%Sakai%NULL%1,                     Munehito%Uchiyama%NULL%1,                     Hiroki%Watanabe%NULL%1,                     Nobuhiro%Yamaguchi%NULL%1,                     Ryoko%Higa%NULL%1,                     Akiko%Sasaki%NULL%1,                     Katsuaki%Tanaka%NULL%1,                     Yukitoshi%Toyoda%NULL%1,                     Shinsuke%Hamanaka%NULL%1,                     Naoki%Miyazawa%NULL%1,                     Atsuko%Shimizu%NULL%1,                     Fumie%Fukase%NULL%1,                     Shunsuke%Iwai%NULL%1,                     Yuko%Komase%NULL%1,                     Tsutomu%Kawasaki%NULL%1,                     Isao%Nagata%NULL%1,                     Yusuke%Nakayama%NULL%1,                     Tetsuhiro%Takei%NULL%1,                     Katsuo%Kimura%NULL%1,                     Reiko%Kunisaki%NULL%1,                     Makoto%Kudo%NULL%1,                     Ichiro%Takeuchi%NULL%0,                     Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                     Yuan%Yu%NULL%0,                     Jiqian%Xu%NULL%0,                     Huaqing%Shu%NULL%0,                     Jia'an%Xia%NULL%0,                     Hong%Liu%NULL%0,                     Yongran%Wu%NULL%0,                     Lu%Zhang%NULL%0,                     Zhui%Yu%NULL%0,                     Minghao%Fang%NULL%0,                     Ting%Yu%NULL%0,                     Yaxin%Wang%NULL%0,                     Shangwen%Pan%NULL%0,                     Xiaojing%Zou%NULL%0,                     Shiying%Yuan%NULL%0,                     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,                     Rong Hua%Tian%NULL%1,                     Song%Luo%NULL%1,                     Zi Yue%Zu%NULL%1,                     Bin%Fan%NULL%1,                     Xi Ming%Wang%NULL%1,                     Kai%Xu%NULL%1,                     Jiang Tao%Wang%NULL%1,                     Juan%Zhu%NULL%1,                     Ji Chan%Shi%NULL%1,                     Feng%Chen%NULL%1,                     Bing%Wan%NULL%1,                     Zhi Han%Yan%NULL%1,                     Rong Pin%Wang%NULL%1,                     Wen%Chen%NULL%1,                     Wen Hui%Fan%NULL%1,                     Can%Zhang%NULL%1,                     Meng Jie%Lu%NULL%1,                     Zhi Yuan%Sun%NULL%1,                     Chang Sheng%Zhou%NULL%1,                     Li Na%Zhang%NULL%1,                     Fei%Xia%NULL%1,                     Li%Qi%NULL%1,                     Wei%Zhang%NULL%0,                     Jing%Zhong%NULL%1,                     Xiao Xue%Liu%NULL%1,                     Qi Rui%Zhang%NULL%1,                     Guang Ming%Lu%NULL%1,                     Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,                     Matthew R%Baldwin%NULL%0,                     Darryl%Abrams%NULL%1,                     Samuel D%Jacobson%NULL%1,                     Benjamin J%Meyer%NULL%1,                     Elizabeth M%Balough%NULL%1,                     Justin G%Aaron%NULL%1,                     Jan%Claassen%NULL%1,                     LeRoy E%Rabbani%NULL%1,                     Jonathan%Hastie%NULL%1,                     Beth R%Hochman%NULL%1,                     John%Salazar-Schicchi%NULL%1,                     Natalie H%Yip%NULL%1,                     Daniel%Brodie%NULL%2,                     Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                     Samuel L%Bruce%NULL%0,                     Cody L%Slater%NULL%0,                     Jonathan R%Tiao%NULL%0,                     Matthew R%Baldwin%NULL%0,                     R Graham%Barr%NULL%0,                     Bernard P%Chang%NULL%0,                     Katherine H%Chau%NULL%0,                     Justin J%Choi%NULL%0,                     Nicholas%Gavin%NULL%0,                     Parag%Goyal%NULL%0,                     Angela M%Mills%NULL%0,                     Ashmi A%Patel%NULL%0,                     Marie-Laure S%Romney%NULL%0,                     Monika M%Safford%NULL%0,                     Neil W%Schluger%NULL%0,                     Soumitra%Sengupta%NULL%0,                     Magdalena E%Sobieszczyk%NULL%0,                     Jason E%Zucker%NULL%0,                     Paul A%Asadourian%NULL%0,                     Fletcher M%Bell%NULL%0,                     Rebekah%Boyd%NULL%0,                     Matthew F%Cohen%NULL%0,                     MacAlistair I%Colquhoun%NULL%0,                     Lucy A%Colville%NULL%0,                     Joseph H%de Jonge%NULL%0,                     Lyle B%Dershowitz%NULL%0,                     Shirin A%Dey%NULL%0,                     Katherine A%Eiseman%NULL%0,                     Zachary P%Girvin%NULL%0,                     Daniella T%Goni%NULL%0,                     Amro A%Harb%NULL%0,                     Nicholas%Herzik%NULL%0,                     Sarah%Householder%NULL%0,                     Lara E%Karaaslan%NULL%0,                     Heather%Lee%NULL%0,                     Evan%Lieberman%NULL%0,                     Andrew%Ling%NULL%0,                     Ree%Lu%NULL%0,                     Arthur Y%Shou%NULL%0,                     Alexander C%Sisti%NULL%0,                     Zachary E%Snow%NULL%0,                     Colin P%Sperring%NULL%0,                     Yuqing%Xiong%NULL%0,                     Henry W%Zhou%NULL%0,                     Karthik%Natarajan%NULL%0,                     George%Hripcsak%NULL%0,                     Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,                      Nicholas A.%Fergusson%null%0,                      Elisa%Lloyd-Smith%null%0,                      Andrew%Wormsbecker%null%0,                      Denise%Foster%null%0,                      Andrei%Karpov%null%0,                      Sarah%Crowe%null%0,                      Greg%Haljan%null%0,                      Dean R.%Chittock%null%0,                      Hussein D.%Kanji%null%0,                      Mypinder S.%Sekhon%null%0,                      Donald E.G.%Griesdale%null%0,                   Anish R.%Mitra%null%1,                   Nicholas A.%Fergusson%null%1,                   Elisa%Lloyd-Smith%null%1,                   Andrew%Wormsbecker%null%1,                   Denise%Foster%null%1,                   Andrei%Karpov%null%1,                   Sarah%Crowe%null%1,                   Greg%Haljan%null%1,                   Dean R.%Chittock%null%1,                   Hussein D.%Kanji%null%1,                   Mypinder S.%Sekhon%null%1,                   Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                     Mark%Caridi-Scheible%NULL%0,                     James M.%Blum%NULL%0,                     Chad%Robichaux%NULL%0,                     Colleen%Kraft%NULL%0,                     Jesse T.%Jacob%NULL%0,                     Craig S.%Jabaley%NULL%0,                     David%Carpenter%NULL%0,                     Roberta%Kaplow%NULL%0,                     Alfonso C.%Hernandez-Romieu%NULL%0,                     Max W.%Adelman%NULL%0,                     Greg S.%Martin%NULL%0,                     Craig M.%Coopersmith%NULL%0,                     David J.%Murphy%NULL%0,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,                     Caroline P. E.%Price%NULL%1,                     Elizabeth L.%Gray%NULL%1,                     Reeti K.%Gulati%NULL%1,                     Matthew%Maksimoski%NULL%1,                     Samuel D.%Racette%NULL%1,                     Alexander L.%Schneider%NULL%1,                     Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                      Di%Wu%NULL%0,                      Huilong%Chen%NULL%0,                      Weiming%Yan%NULL%0,                      Danlei%Yang%NULL%0,                      Guang%Chen%NULL%0,                      Ke%Ma%NULL%0,                      Dong%Xu%NULL%0,                      Haijing%Yu%NULL%0,                      Hongwu%Wang%NULL%0,                      Tao%Wang%NULL%0,                      Wei%Guo%NULL%0,                      Jia%Chen%NULL%0,                      Chen%Ding%NULL%0,                      Xiaoping%Zhang%NULL%0,                      Jiaquan%Huang%NULL%0,                      Meifang%Han%NULL%0,                      Shusheng%Li%NULL%0,                      Xiaoping%Luo%NULL%0,                      Jianping%Zhao%NULL%0,                      Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                      Dan%Xu%NULL%0,                      Shouzhi%Fu%NULL%0,                      Jun%Zhang%NULL%0,                      Xiaobo%Yang%NULL%0,                      Liang%Xu%NULL%0,                      Jiqian%Xu%NULL%0,                      Yongran%Wu%NULL%0,                      Chaolin%Huang%NULL%0,                      Yaqi%Ouyang%NULL%0,                      Luyu%Yang%NULL%0,                      Minghao%Fang%NULL%0,                      Hongwen%Xiao%NULL%0,                      Jing%Ma%NULL%0,                      Wei%Zhu%NULL%0,                      Song%Hu%NULL%0,                      Quan%Hu%NULL%0,                      Daoyin%Ding%NULL%0,                      Ming%Hu%NULL%0,                      Guochao%Zhu%NULL%0,                      Weijiang%Xu%NULL%0,                      Jun%Guo%NULL%0,                      Jinglong%Xu%NULL%0,                      Haitao%Yuan%NULL%0,                      Bin%Zhang%NULL%0,                      Zhui%Yu%yuzhui@whu.edu.cn%0,                      Dechang%Chen%icudechangchen@163.com%0,                      Shiying%Yuan%yuan_shiying@163.com%0,                      You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                     Becker%L.B.%coreGivesNoEmail%0,                     Chelico%J.D.%coreGivesNoEmail%0,                     Cohen%S.L.%coreGivesNoEmail%0,                     Cookingham%J.%coreGivesNoEmail%0,                     Coppa%K.%coreGivesNoEmail%0,                     Crawford%J.M.%coreGivesNoEmail%0,                     Davidson%K.W.%coreGivesNoEmail%0,                     Diefenbach%M.A.%coreGivesNoEmail%0,                     Dominello%A.J.%coreGivesNoEmail%0,                     Duer-Hefele%J.%coreGivesNoEmail%0,                     Falzon%L.%coreGivesNoEmail%0,                     Gitlin%J.%coreGivesNoEmail%0,                     Hajizadeh%N.%coreGivesNoEmail%0,                     Harvin%T.G.%coreGivesNoEmail%0,                     Hirsch%J.S.%coreGivesNoEmail%0,                     Hirschwerk%D.A.%coreGivesNoEmail%0,                     Kim%E.J.%coreGivesNoEmail%0,                     Kozel%Z.M.%coreGivesNoEmail%0,                     Marrast%L.M.%coreGivesNoEmail%0,                     McGinn%T.%coreGivesNoEmail%0,                     Mogavero%J.N.%coreGivesNoEmail%0,                     Narasimhan%M.%coreGivesNoEmail%0,                     Osorio%G.A.%coreGivesNoEmail%0,                     Qiu%M.%coreGivesNoEmail%0,                     Richardson%S.%coreGivesNoEmail%0,                     Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                     Cabrini%Luca%coreGivesNoEmail%0,                     Castelli%Antonio%coreGivesNoEmail%0,                     Cecconi%Maurizio%coreGivesNoEmail%0,                     Cereda%Danilo%coreGivesNoEmail%0,                     Coluccello%Antonio%coreGivesNoEmail%0,                     Foti%Giuseppe%coreGivesNoEmail%0,                     Fumagalli%Roberto%coreGivesNoEmail%0,                     Grasselli%Giacomo%coreGivesNoEmail%0,                     Iotti%Giorgio%coreGivesNoEmail%0,                     Latronico%Nicola%coreGivesNoEmail%0,                     Lorini%Luca%coreGivesNoEmail%0,                     Merler%Stefano%coreGivesNoEmail%0,                     Natalini%Giuseppe%coreGivesNoEmail%0,                     Pesenti%Antonio%coreGivesNoEmail%0,                     Piatti%Alessandra%coreGivesNoEmail%0,                     Ranieri%Marco Vito%coreGivesNoEmail%0,                     Scandroglio%Anna Mara%coreGivesNoEmail%0,                     Storti%Enrico%coreGivesNoEmail%0,                     Zanella%Alberto%coreGivesNoEmail%0,                     Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                      Bijan J.%Ghassemieh%NULL%0,                      Michelle%Nichols%NULL%0,                      Richard%Kim%NULL%0,                      Keith R.%Jerome%NULL%0,                      Arun K.%Nalla%NULL%0,                      Alexander L.%Greninger%NULL%0,                      Sudhakar%Pipavath%NULL%0,                      Mark M.%Wurfel%NULL%0,                      Laura%Evans%NULL%0,                      Patricia A.%Kritek%NULL%0,                      T. Eoin%West%NULL%0,                      Andrew%Luks%NULL%0,                      Anthony%Gerbino%NULL%0,                      Chris R.%Dale%NULL%0,                      Jason D.%Goldman%NULL%0,                      Shane%O’Mahony%NULL%0,                      Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,                      Hiroyuki%Shimizu%NULL%1,                      Yasushi%Shibue%NULL%1,                      Tomohiro%Hosoda%NULL%1,                      Keisuke%Iwabuchi%NULL%1,                      Kotaro%Nagamine%NULL%1,                      Hiroki%Saito%NULL%1,                      Reimin%Sawada%NULL%1,                      Takayuki%Oishi%NULL%1,                      Jun%Tsukiji%NULL%1,                      Hiroyuki%Fujita%NULL%1,                      Ryosuke%Furuya%NULL%1,                      Makoto%Masuda%NULL%1,                      Osamu%Akasaka%NULL%1,                      Yu%Ikeda%NULL%1,                      Mitsuo%Sakamoto%NULL%1,                      Kazuya%Sakai%NULL%1,                      Munehito%Uchiyama%NULL%1,                      Hiroki%Watanabe%NULL%1,                      Nobuhiro%Yamaguchi%NULL%1,                      Ryoko%Higa%NULL%1,                      Akiko%Sasaki%NULL%1,                      Katsuaki%Tanaka%NULL%1,                      Yukitoshi%Toyoda%NULL%1,                      Shinsuke%Hamanaka%NULL%1,                      Naoki%Miyazawa%NULL%1,                      Atsuko%Shimizu%NULL%1,                      Fumie%Fukase%NULL%1,                      Shunsuke%Iwai%NULL%1,                      Yuko%Komase%NULL%1,                      Tsutomu%Kawasaki%NULL%1,                      Isao%Nagata%NULL%1,                      Yusuke%Nakayama%NULL%1,                      Tetsuhiro%Takei%NULL%1,                      Katsuo%Kimura%NULL%1,                      Reiko%Kunisaki%NULL%1,                      Makoto%Kudo%NULL%1,                      Ichiro%Takeuchi%NULL%0,                      Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                      Yuan%Yu%NULL%0,                      Jiqian%Xu%NULL%0,                      Huaqing%Shu%NULL%0,                      Jia'an%Xia%NULL%0,                      Hong%Liu%NULL%0,                      Yongran%Wu%NULL%0,                      Lu%Zhang%NULL%0,                      Zhui%Yu%NULL%0,                      Minghao%Fang%NULL%0,                      Ting%Yu%NULL%0,                      Yaxin%Wang%NULL%0,                      Shangwen%Pan%NULL%0,                      Xiaojing%Zou%NULL%0,                      Shiying%Yuan%NULL%0,                      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,                      Rong Hua%Tian%NULL%1,                      Song%Luo%NULL%1,                      Zi Yue%Zu%NULL%1,                      Bin%Fan%NULL%1,                      Xi Ming%Wang%NULL%1,                      Kai%Xu%NULL%1,                      Jiang Tao%Wang%NULL%1,                      Juan%Zhu%NULL%1,                      Ji Chan%Shi%NULL%1,                      Feng%Chen%NULL%1,                      Bing%Wan%NULL%1,                      Zhi Han%Yan%NULL%1,                      Rong Pin%Wang%NULL%1,                      Wen%Chen%NULL%1,                      Wen Hui%Fan%NULL%1,                      Can%Zhang%NULL%1,                      Meng Jie%Lu%NULL%1,                      Zhi Yuan%Sun%NULL%1,                      Chang Sheng%Zhou%NULL%1,                      Li Na%Zhang%NULL%1,                      Fei%Xia%NULL%1,                      Li%Qi%NULL%1,                      Wei%Zhang%NULL%0,                      Jing%Zhong%NULL%1,                      Xiao Xue%Liu%NULL%1,                      Qi Rui%Zhang%NULL%1,                      Guang Ming%Lu%NULL%1,                      Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,                      Matthew R%Baldwin%NULL%0,                      Darryl%Abrams%NULL%1,                      Samuel D%Jacobson%NULL%1,                      Benjamin J%Meyer%NULL%1,                      Elizabeth M%Balough%NULL%1,                      Justin G%Aaron%NULL%1,                      Jan%Claassen%NULL%1,                      LeRoy E%Rabbani%NULL%1,                      Jonathan%Hastie%NULL%1,                      Beth R%Hochman%NULL%1,                      John%Salazar-Schicchi%NULL%1,                      Natalie H%Yip%NULL%1,                      Daniel%Brodie%NULL%2,                      Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                      Samuel L%Bruce%NULL%0,                      Cody L%Slater%NULL%0,                      Jonathan R%Tiao%NULL%0,                      Matthew R%Baldwin%NULL%0,                      R Graham%Barr%NULL%0,                      Bernard P%Chang%NULL%0,                      Katherine H%Chau%NULL%0,                      Justin J%Choi%NULL%0,                      Nicholas%Gavin%NULL%0,                      Parag%Goyal%NULL%0,                      Angela M%Mills%NULL%0,                      Ashmi A%Patel%NULL%0,                      Marie-Laure S%Romney%NULL%0,                      Monika M%Safford%NULL%0,                      Neil W%Schluger%NULL%0,                      Soumitra%Sengupta%NULL%0,                      Magdalena E%Sobieszczyk%NULL%0,                      Jason E%Zucker%NULL%0,                      Paul A%Asadourian%NULL%0,                      Fletcher M%Bell%NULL%0,                      Rebekah%Boyd%NULL%0,                      Matthew F%Cohen%NULL%0,                      MacAlistair I%Colquhoun%NULL%0,                      Lucy A%Colville%NULL%0,                      Joseph H%de Jonge%NULL%0,                      Lyle B%Dershowitz%NULL%0,                      Shirin A%Dey%NULL%0,                      Katherine A%Eiseman%NULL%0,                      Zachary P%Girvin%NULL%0,                      Daniella T%Goni%NULL%0,                      Amro A%Harb%NULL%0,                      Nicholas%Herzik%NULL%0,                      Sarah%Householder%NULL%0,                      Lara E%Karaaslan%NULL%0,                      Heather%Lee%NULL%0,                      Evan%Lieberman%NULL%0,                      Andrew%Ling%NULL%0,                      Ree%Lu%NULL%0,                      Arthur Y%Shou%NULL%0,                      Alexander C%Sisti%NULL%0,                      Zachary E%Snow%NULL%0,                      Colin P%Sperring%NULL%0,                      Yuqing%Xiong%NULL%0,                      Henry W%Zhou%NULL%0,                      Karthik%Natarajan%NULL%0,                      George%Hripcsak%NULL%0,                      Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,                       Nicholas A.%Fergusson%null%0,                       Elisa%Lloyd-Smith%null%0,                       Andrew%Wormsbecker%null%0,                       Denise%Foster%null%0,                       Andrei%Karpov%null%0,                       Sarah%Crowe%null%0,                       Greg%Haljan%null%0,                       Dean R.%Chittock%null%0,                       Hussein D.%Kanji%null%0,                       Mypinder S.%Sekhon%null%0,                       Donald E.G.%Griesdale%null%0,                    Anish R.%Mitra%null%1,                    Nicholas A.%Fergusson%null%1,                    Elisa%Lloyd-Smith%null%1,                    Andrew%Wormsbecker%null%1,                    Denise%Foster%null%1,                    Andrei%Karpov%null%1,                    Sarah%Crowe%null%1,                    Greg%Haljan%null%1,                    Dean R.%Chittock%null%1,                    Hussein D.%Kanji%null%1,                    Mypinder S.%Sekhon%null%1,                    Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                      Mark%Caridi-Scheible%NULL%0,                      James M.%Blum%NULL%0,                      Chad%Robichaux%NULL%0,                      Colleen%Kraft%NULL%0,                      Jesse T.%Jacob%NULL%0,                      Craig S.%Jabaley%NULL%0,                      David%Carpenter%NULL%0,                      Roberta%Kaplow%NULL%0,                      Alfonso C.%Hernandez-Romieu%NULL%0,                      Max W.%Adelman%NULL%0,                      Greg S.%Martin%NULL%0,                      Craig M.%Coopersmith%NULL%0,                      David J.%Murphy%NULL%0,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,                      Caroline P. E.%Price%NULL%1,                      Elizabeth L.%Gray%NULL%1,                      Reeti K.%Gulati%NULL%1,                      Matthew%Maksimoski%NULL%1,                      Samuel D.%Racette%NULL%1,                      Alexander L.%Schneider%NULL%1,                      Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                       Di%Wu%NULL%0,                       Huilong%Chen%NULL%0,                       Weiming%Yan%NULL%0,                       Danlei%Yang%NULL%0,                       Guang%Chen%NULL%0,                       Ke%Ma%NULL%0,                       Dong%Xu%NULL%0,                       Haijing%Yu%NULL%0,                       Hongwu%Wang%NULL%0,                       Tao%Wang%NULL%0,                       Wei%Guo%NULL%0,                       Jia%Chen%NULL%0,                       Chen%Ding%NULL%0,                       Xiaoping%Zhang%NULL%0,                       Jiaquan%Huang%NULL%0,                       Meifang%Han%NULL%0,                       Shusheng%Li%NULL%0,                       Xiaoping%Luo%NULL%0,                       Jianping%Zhao%NULL%0,                       Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                       Dan%Xu%NULL%0,                       Shouzhi%Fu%NULL%0,                       Jun%Zhang%NULL%0,                       Xiaobo%Yang%NULL%0,                       Liang%Xu%NULL%0,                       Jiqian%Xu%NULL%0,                       Yongran%Wu%NULL%0,                       Chaolin%Huang%NULL%0,                       Yaqi%Ouyang%NULL%0,                       Luyu%Yang%NULL%0,                       Minghao%Fang%NULL%0,                       Hongwen%Xiao%NULL%0,                       Jing%Ma%NULL%0,                       Wei%Zhu%NULL%0,                       Song%Hu%NULL%0,                       Quan%Hu%NULL%0,                       Daoyin%Ding%NULL%0,                       Ming%Hu%NULL%0,                       Guochao%Zhu%NULL%0,                       Weijiang%Xu%NULL%0,                       Jun%Guo%NULL%0,                       Jinglong%Xu%NULL%0,                       Haitao%Yuan%NULL%0,                       Bin%Zhang%NULL%0,                       Zhui%Yu%yuzhui@whu.edu.cn%0,                       Dechang%Chen%icudechangchen@163.com%0,                       Shiying%Yuan%yuan_shiying@163.com%0,                       You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                      Becker%L.B.%coreGivesNoEmail%0,                      Chelico%J.D.%coreGivesNoEmail%0,                      Cohen%S.L.%coreGivesNoEmail%0,                      Cookingham%J.%coreGivesNoEmail%0,                      Coppa%K.%coreGivesNoEmail%0,                      Crawford%J.M.%coreGivesNoEmail%0,                      Davidson%K.W.%coreGivesNoEmail%0,                      Diefenbach%M.A.%coreGivesNoEmail%0,                      Dominello%A.J.%coreGivesNoEmail%0,                      Duer-Hefele%J.%coreGivesNoEmail%0,                      Falzon%L.%coreGivesNoEmail%0,                      Gitlin%J.%coreGivesNoEmail%0,                      Hajizadeh%N.%coreGivesNoEmail%0,                      Harvin%T.G.%coreGivesNoEmail%0,                      Hirsch%J.S.%coreGivesNoEmail%0,                      Hirschwerk%D.A.%coreGivesNoEmail%0,                      Kim%E.J.%coreGivesNoEmail%0,                      Kozel%Z.M.%coreGivesNoEmail%0,                      Marrast%L.M.%coreGivesNoEmail%0,                      McGinn%T.%coreGivesNoEmail%0,                      Mogavero%J.N.%coreGivesNoEmail%0,                      Narasimhan%M.%coreGivesNoEmail%0,                      Osorio%G.A.%coreGivesNoEmail%0,                      Qiu%M.%coreGivesNoEmail%0,                      Richardson%S.%coreGivesNoEmail%0,                      Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                      Cabrini%Luca%coreGivesNoEmail%0,                      Castelli%Antonio%coreGivesNoEmail%0,                      Cecconi%Maurizio%coreGivesNoEmail%0,                      Cereda%Danilo%coreGivesNoEmail%0,                      Coluccello%Antonio%coreGivesNoEmail%0,                      Foti%Giuseppe%coreGivesNoEmail%0,                      Fumagalli%Roberto%coreGivesNoEmail%0,                      Grasselli%Giacomo%coreGivesNoEmail%0,                      Iotti%Giorgio%coreGivesNoEmail%0,                      Latronico%Nicola%coreGivesNoEmail%0,                      Lorini%Luca%coreGivesNoEmail%0,                      Merler%Stefano%coreGivesNoEmail%0,                      Natalini%Giuseppe%coreGivesNoEmail%0,                      Pesenti%Antonio%coreGivesNoEmail%0,                      Piatti%Alessandra%coreGivesNoEmail%0,                      Ranieri%Marco Vito%coreGivesNoEmail%0,                      Scandroglio%Anna Mara%coreGivesNoEmail%0,                      Storti%Enrico%coreGivesNoEmail%0,                      Zanella%Alberto%coreGivesNoEmail%0,                      Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                       Bijan J.%Ghassemieh%NULL%0,                       Michelle%Nichols%NULL%0,                       Richard%Kim%NULL%0,                       Keith R.%Jerome%NULL%0,                       Arun K.%Nalla%NULL%0,                       Alexander L.%Greninger%NULL%0,                       Sudhakar%Pipavath%NULL%0,                       Mark M.%Wurfel%NULL%0,                       Laura%Evans%NULL%0,                       Patricia A.%Kritek%NULL%0,                       T. Eoin%West%NULL%0,                       Andrew%Luks%NULL%0,                       Anthony%Gerbino%NULL%0,                       Chris R.%Dale%NULL%0,                       Jason D.%Goldman%NULL%0,                       Shane%O’Mahony%NULL%0,                       Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,                       Hiroyuki%Shimizu%NULL%1,                       Yasushi%Shibue%NULL%1,                       Tomohiro%Hosoda%NULL%1,                       Keisuke%Iwabuchi%NULL%1,                       Kotaro%Nagamine%NULL%1,                       Hiroki%Saito%NULL%1,                       Reimin%Sawada%NULL%1,                       Takayuki%Oishi%NULL%1,                       Jun%Tsukiji%NULL%1,                       Hiroyuki%Fujita%NULL%1,                       Ryosuke%Furuya%NULL%1,                       Makoto%Masuda%NULL%1,                       Osamu%Akasaka%NULL%1,                       Yu%Ikeda%NULL%1,                       Mitsuo%Sakamoto%NULL%1,                       Kazuya%Sakai%NULL%1,                       Munehito%Uchiyama%NULL%1,                       Hiroki%Watanabe%NULL%1,                       Nobuhiro%Yamaguchi%NULL%1,                       Ryoko%Higa%NULL%1,                       Akiko%Sasaki%NULL%1,                       Katsuaki%Tanaka%NULL%1,                       Yukitoshi%Toyoda%NULL%1,                       Shinsuke%Hamanaka%NULL%1,                       Naoki%Miyazawa%NULL%1,                       Atsuko%Shimizu%NULL%1,                       Fumie%Fukase%NULL%1,                       Shunsuke%Iwai%NULL%1,                       Yuko%Komase%NULL%1,                       Tsutomu%Kawasaki%NULL%1,                       Isao%Nagata%NULL%1,                       Yusuke%Nakayama%NULL%1,                       Tetsuhiro%Takei%NULL%1,                       Katsuo%Kimura%NULL%1,                       Reiko%Kunisaki%NULL%1,                       Makoto%Kudo%NULL%1,                       Ichiro%Takeuchi%NULL%0,                       Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                       Yuan%Yu%NULL%0,                       Jiqian%Xu%NULL%0,                       Huaqing%Shu%NULL%0,                       Jia'an%Xia%NULL%0,                       Hong%Liu%NULL%0,                       Yongran%Wu%NULL%0,                       Lu%Zhang%NULL%0,                       Zhui%Yu%NULL%0,                       Minghao%Fang%NULL%0,                       Ting%Yu%NULL%0,                       Yaxin%Wang%NULL%0,                       Shangwen%Pan%NULL%0,                       Xiaojing%Zou%NULL%0,                       Shiying%Yuan%NULL%0,                       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,                       Rong Hua%Tian%NULL%1,                       Song%Luo%NULL%1,                       Zi Yue%Zu%NULL%1,                       Bin%Fan%NULL%1,                       Xi Ming%Wang%NULL%1,                       Kai%Xu%NULL%1,                       Jiang Tao%Wang%NULL%1,                       Juan%Zhu%NULL%1,                       Ji Chan%Shi%NULL%1,                       Feng%Chen%NULL%1,                       Bing%Wan%NULL%1,                       Zhi Han%Yan%NULL%1,                       Rong Pin%Wang%NULL%1,                       Wen%Chen%NULL%1,                       Wen Hui%Fan%NULL%1,                       Can%Zhang%NULL%1,                       Meng Jie%Lu%NULL%1,                       Zhi Yuan%Sun%NULL%1,                       Chang Sheng%Zhou%NULL%1,                       Li Na%Zhang%NULL%1,                       Fei%Xia%NULL%1,                       Li%Qi%NULL%1,                       Wei%Zhang%NULL%0,                       Jing%Zhong%NULL%1,                       Xiao Xue%Liu%NULL%1,                       Qi Rui%Zhang%NULL%1,                       Guang Ming%Lu%NULL%1,                       Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,                       Matthew R%Baldwin%NULL%0,                       Darryl%Abrams%NULL%1,                       Samuel D%Jacobson%NULL%1,                       Benjamin J%Meyer%NULL%1,                       Elizabeth M%Balough%NULL%1,                       Justin G%Aaron%NULL%1,                       Jan%Claassen%NULL%1,                       LeRoy E%Rabbani%NULL%1,                       Jonathan%Hastie%NULL%1,                       Beth R%Hochman%NULL%1,                       John%Salazar-Schicchi%NULL%1,                       Natalie H%Yip%NULL%1,                       Daniel%Brodie%NULL%2,                       Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                       Samuel L%Bruce%NULL%0,                       Cody L%Slater%NULL%0,                       Jonathan R%Tiao%NULL%0,                       Matthew R%Baldwin%NULL%0,                       R Graham%Barr%NULL%0,                       Bernard P%Chang%NULL%0,                       Katherine H%Chau%NULL%0,                       Justin J%Choi%NULL%0,                       Nicholas%Gavin%NULL%0,                       Parag%Goyal%NULL%0,                       Angela M%Mills%NULL%0,                       Ashmi A%Patel%NULL%0,                       Marie-Laure S%Romney%NULL%0,                       Monika M%Safford%NULL%0,                       Neil W%Schluger%NULL%0,                       Soumitra%Sengupta%NULL%0,                       Magdalena E%Sobieszczyk%NULL%0,                       Jason E%Zucker%NULL%0,                       Paul A%Asadourian%NULL%0,                       Fletcher M%Bell%NULL%0,                       Rebekah%Boyd%NULL%0,                       Matthew F%Cohen%NULL%0,                       MacAlistair I%Colquhoun%NULL%0,                       Lucy A%Colville%NULL%0,                       Joseph H%de Jonge%NULL%0,                       Lyle B%Dershowitz%NULL%0,                       Shirin A%Dey%NULL%0,                       Katherine A%Eiseman%NULL%0,                       Zachary P%Girvin%NULL%0,                       Daniella T%Goni%NULL%0,                       Amro A%Harb%NULL%0,                       Nicholas%Herzik%NULL%0,                       Sarah%Householder%NULL%0,                       Lara E%Karaaslan%NULL%0,                       Heather%Lee%NULL%0,                       Evan%Lieberman%NULL%0,                       Andrew%Ling%NULL%0,                       Ree%Lu%NULL%0,                       Arthur Y%Shou%NULL%0,                       Alexander C%Sisti%NULL%0,                       Zachary E%Snow%NULL%0,                       Colin P%Sperring%NULL%0,                       Yuqing%Xiong%NULL%0,                       Henry W%Zhou%NULL%0,                       Karthik%Natarajan%NULL%0,                       George%Hripcsak%NULL%0,                       Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,                        Nicholas A.%Fergusson%null%0,                        Elisa%Lloyd-Smith%null%0,                        Andrew%Wormsbecker%null%0,                        Denise%Foster%null%0,                        Andrei%Karpov%null%0,                        Sarah%Crowe%null%0,                        Greg%Haljan%null%0,                        Dean R.%Chittock%null%0,                        Hussein D.%Kanji%null%0,                        Mypinder S.%Sekhon%null%0,                        Donald E.G.%Griesdale%null%0,                     Anish R.%Mitra%null%1,                     Nicholas A.%Fergusson%null%1,                     Elisa%Lloyd-Smith%null%1,                     Andrew%Wormsbecker%null%1,                     Denise%Foster%null%1,                     Andrei%Karpov%null%1,                     Sarah%Crowe%null%1,                     Greg%Haljan%null%1,                     Dean R.%Chittock%null%1,                     Hussein D.%Kanji%null%1,                     Mypinder S.%Sekhon%null%1,                     Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                       Mark%Caridi-Scheible%NULL%0,                       James M.%Blum%NULL%0,                       Chad%Robichaux%NULL%0,                       Colleen%Kraft%NULL%0,                       Jesse T.%Jacob%NULL%0,                       Craig S.%Jabaley%NULL%0,                       David%Carpenter%NULL%0,                       Roberta%Kaplow%NULL%0,                       Alfonso C.%Hernandez-Romieu%NULL%0,                       Max W.%Adelman%NULL%0,                       Greg S.%Martin%NULL%0,                       Craig M.%Coopersmith%NULL%0,                       David J.%Murphy%NULL%0,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,                       Caroline P. E.%Price%NULL%1,                       Elizabeth L.%Gray%NULL%1,                       Reeti K.%Gulati%NULL%1,                       Matthew%Maksimoski%NULL%1,                       Samuel D.%Racette%NULL%1,                       Alexander L.%Schneider%NULL%1,                       Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                        Di%Wu%NULL%0,                        Huilong%Chen%NULL%0,                        Weiming%Yan%NULL%0,                        Danlei%Yang%NULL%0,                        Guang%Chen%NULL%0,                        Ke%Ma%NULL%0,                        Dong%Xu%NULL%0,                        Haijing%Yu%NULL%0,                        Hongwu%Wang%NULL%0,                        Tao%Wang%NULL%0,                        Wei%Guo%NULL%0,                        Jia%Chen%NULL%0,                        Chen%Ding%NULL%0,                        Xiaoping%Zhang%NULL%0,                        Jiaquan%Huang%NULL%0,                        Meifang%Han%NULL%0,                        Shusheng%Li%NULL%0,                        Xiaoping%Luo%NULL%0,                        Jianping%Zhao%NULL%0,                        Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                        Dan%Xu%NULL%0,                        Shouzhi%Fu%NULL%0,                        Jun%Zhang%NULL%0,                        Xiaobo%Yang%NULL%0,                        Liang%Xu%NULL%0,                        Jiqian%Xu%NULL%0,                        Yongran%Wu%NULL%0,                        Chaolin%Huang%NULL%0,                        Yaqi%Ouyang%NULL%0,                        Luyu%Yang%NULL%0,                        Minghao%Fang%NULL%0,                        Hongwen%Xiao%NULL%0,                        Jing%Ma%NULL%0,                        Wei%Zhu%NULL%0,                        Song%Hu%NULL%0,                        Quan%Hu%NULL%0,                        Daoyin%Ding%NULL%0,                        Ming%Hu%NULL%0,                        Guochao%Zhu%NULL%0,                        Weijiang%Xu%NULL%0,                        Jun%Guo%NULL%0,                        Jinglong%Xu%NULL%0,                        Haitao%Yuan%NULL%0,                        Bin%Zhang%NULL%0,                        Zhui%Yu%yuzhui@whu.edu.cn%0,                        Dechang%Chen%icudechangchen@163.com%0,                        Shiying%Yuan%yuan_shiying@163.com%0,                        You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                       Becker%L.B.%coreGivesNoEmail%0,                       Chelico%J.D.%coreGivesNoEmail%0,                       Cohen%S.L.%coreGivesNoEmail%0,                       Cookingham%J.%coreGivesNoEmail%0,                       Coppa%K.%coreGivesNoEmail%0,                       Crawford%J.M.%coreGivesNoEmail%0,                       Davidson%K.W.%coreGivesNoEmail%0,                       Diefenbach%M.A.%coreGivesNoEmail%0,                       Dominello%A.J.%coreGivesNoEmail%0,                       Duer-Hefele%J.%coreGivesNoEmail%0,                       Falzon%L.%coreGivesNoEmail%0,                       Gitlin%J.%coreGivesNoEmail%0,                       Hajizadeh%N.%coreGivesNoEmail%0,                       Harvin%T.G.%coreGivesNoEmail%0,                       Hirsch%J.S.%coreGivesNoEmail%0,                       Hirschwerk%D.A.%coreGivesNoEmail%0,                       Kim%E.J.%coreGivesNoEmail%0,                       Kozel%Z.M.%coreGivesNoEmail%0,                       Marrast%L.M.%coreGivesNoEmail%0,                       McGinn%T.%coreGivesNoEmail%0,                       Mogavero%J.N.%coreGivesNoEmail%0,                       Narasimhan%M.%coreGivesNoEmail%0,                       Osorio%G.A.%coreGivesNoEmail%0,                       Qiu%M.%coreGivesNoEmail%0,                       Richardson%S.%coreGivesNoEmail%0,                       Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                       Cabrini%Luca%coreGivesNoEmail%0,                       Castelli%Antonio%coreGivesNoEmail%0,                       Cecconi%Maurizio%coreGivesNoEmail%0,                       Cereda%Danilo%coreGivesNoEmail%0,                       Coluccello%Antonio%coreGivesNoEmail%0,                       Foti%Giuseppe%coreGivesNoEmail%0,                       Fumagalli%Roberto%coreGivesNoEmail%0,                       Grasselli%Giacomo%coreGivesNoEmail%0,                       Iotti%Giorgio%coreGivesNoEmail%0,                       Latronico%Nicola%coreGivesNoEmail%0,                       Lorini%Luca%coreGivesNoEmail%0,                       Merler%Stefano%coreGivesNoEmail%0,                       Natalini%Giuseppe%coreGivesNoEmail%0,                       Pesenti%Antonio%coreGivesNoEmail%0,                       Piatti%Alessandra%coreGivesNoEmail%0,                       Ranieri%Marco Vito%coreGivesNoEmail%0,                       Scandroglio%Anna Mara%coreGivesNoEmail%0,                       Storti%Enrico%coreGivesNoEmail%0,                       Zanella%Alberto%coreGivesNoEmail%0,                       Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                        Bijan J.%Ghassemieh%NULL%0,                        Michelle%Nichols%NULL%0,                        Richard%Kim%NULL%0,                        Keith R.%Jerome%NULL%0,                        Arun K.%Nalla%NULL%0,                        Alexander L.%Greninger%NULL%0,                        Sudhakar%Pipavath%NULL%0,                        Mark M.%Wurfel%NULL%0,                        Laura%Evans%NULL%0,                        Patricia A.%Kritek%NULL%0,                        T. Eoin%West%NULL%0,                        Andrew%Luks%NULL%0,                        Anthony%Gerbino%NULL%0,                        Chris R.%Dale%NULL%0,                        Jason D.%Goldman%NULL%0,                        Shane%O’Mahony%NULL%0,                        Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,                        Hiroyuki%Shimizu%NULL%1,                        Yasushi%Shibue%NULL%1,                        Tomohiro%Hosoda%NULL%1,                        Keisuke%Iwabuchi%NULL%1,                        Kotaro%Nagamine%NULL%1,                        Hiroki%Saito%NULL%1,                        Reimin%Sawada%NULL%1,                        Takayuki%Oishi%NULL%1,                        Jun%Tsukiji%NULL%1,                        Hiroyuki%Fujita%NULL%1,                        Ryosuke%Furuya%NULL%1,                        Makoto%Masuda%NULL%1,                        Osamu%Akasaka%NULL%1,                        Yu%Ikeda%NULL%1,                        Mitsuo%Sakamoto%NULL%1,                        Kazuya%Sakai%NULL%1,                        Munehito%Uchiyama%NULL%1,                        Hiroki%Watanabe%NULL%1,                        Nobuhiro%Yamaguchi%NULL%1,                        Ryoko%Higa%NULL%1,                        Akiko%Sasaki%NULL%1,                        Katsuaki%Tanaka%NULL%1,                        Yukitoshi%Toyoda%NULL%1,                        Shinsuke%Hamanaka%NULL%1,                        Naoki%Miyazawa%NULL%1,                        Atsuko%Shimizu%NULL%1,                        Fumie%Fukase%NULL%1,                        Shunsuke%Iwai%NULL%1,                        Yuko%Komase%NULL%1,                        Tsutomu%Kawasaki%NULL%1,                        Isao%Nagata%NULL%1,                        Yusuke%Nakayama%NULL%1,                        Tetsuhiro%Takei%NULL%1,                        Katsuo%Kimura%NULL%1,                        Reiko%Kunisaki%NULL%1,                        Makoto%Kudo%NULL%1,                        Ichiro%Takeuchi%NULL%0,                        Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                        Yuan%Yu%NULL%0,                        Jiqian%Xu%NULL%0,                        Huaqing%Shu%NULL%0,                        Jia'an%Xia%NULL%0,                        Hong%Liu%NULL%0,                        Yongran%Wu%NULL%0,                        Lu%Zhang%NULL%0,                        Zhui%Yu%NULL%0,                        Minghao%Fang%NULL%0,                        Ting%Yu%NULL%0,                        Yaxin%Wang%NULL%0,                        Shangwen%Pan%NULL%0,                        Xiaojing%Zou%NULL%0,                        Shiying%Yuan%NULL%0,                        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,                        Rong Hua%Tian%NULL%1,                        Song%Luo%NULL%1,                        Zi Yue%Zu%NULL%1,                        Bin%Fan%NULL%1,                        Xi Ming%Wang%NULL%1,                        Kai%Xu%NULL%1,                        Jiang Tao%Wang%NULL%1,                        Juan%Zhu%NULL%1,                        Ji Chan%Shi%NULL%1,                        Feng%Chen%NULL%1,                        Bing%Wan%NULL%1,                        Zhi Han%Yan%NULL%1,                        Rong Pin%Wang%NULL%1,                        Wen%Chen%NULL%1,                        Wen Hui%Fan%NULL%1,                        Can%Zhang%NULL%1,                        Meng Jie%Lu%NULL%1,                        Zhi Yuan%Sun%NULL%1,                        Chang Sheng%Zhou%NULL%1,                        Li Na%Zhang%NULL%1,                        Fei%Xia%NULL%1,                        Li%Qi%NULL%1,                        Wei%Zhang%NULL%0,                        Jing%Zhong%NULL%1,                        Xiao Xue%Liu%NULL%1,                        Qi Rui%Zhang%NULL%1,                        Guang Ming%Lu%NULL%1,                        Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,                        Matthew R%Baldwin%NULL%0,                        Darryl%Abrams%NULL%1,                        Samuel D%Jacobson%NULL%1,                        Benjamin J%Meyer%NULL%1,                        Elizabeth M%Balough%NULL%1,                        Justin G%Aaron%NULL%1,                        Jan%Claassen%NULL%1,                        LeRoy E%Rabbani%NULL%1,                        Jonathan%Hastie%NULL%1,                        Beth R%Hochman%NULL%1,                        John%Salazar-Schicchi%NULL%1,                        Natalie H%Yip%NULL%1,                        Daniel%Brodie%NULL%2,                        Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                        Samuel L%Bruce%NULL%0,                        Cody L%Slater%NULL%0,                        Jonathan R%Tiao%NULL%0,                        Matthew R%Baldwin%NULL%0,                        R Graham%Barr%NULL%0,                        Bernard P%Chang%NULL%0,                        Katherine H%Chau%NULL%0,                        Justin J%Choi%NULL%0,                        Nicholas%Gavin%NULL%0,                        Parag%Goyal%NULL%0,                        Angela M%Mills%NULL%0,                        Ashmi A%Patel%NULL%0,                        Marie-Laure S%Romney%NULL%0,                        Monika M%Safford%NULL%0,                        Neil W%Schluger%NULL%0,                        Soumitra%Sengupta%NULL%0,                        Magdalena E%Sobieszczyk%NULL%0,                        Jason E%Zucker%NULL%0,                        Paul A%Asadourian%NULL%0,                        Fletcher M%Bell%NULL%0,                        Rebekah%Boyd%NULL%0,                        Matthew F%Cohen%NULL%0,                        MacAlistair I%Colquhoun%NULL%0,                        Lucy A%Colville%NULL%0,                        Joseph H%de Jonge%NULL%0,                        Lyle B%Dershowitz%NULL%0,                        Shirin A%Dey%NULL%0,                        Katherine A%Eiseman%NULL%0,                        Zachary P%Girvin%NULL%0,                        Daniella T%Goni%NULL%0,                        Amro A%Harb%NULL%0,                        Nicholas%Herzik%NULL%0,                        Sarah%Householder%NULL%0,                        Lara E%Karaaslan%NULL%0,                        Heather%Lee%NULL%0,                        Evan%Lieberman%NULL%0,                        Andrew%Ling%NULL%0,                        Ree%Lu%NULL%0,                        Arthur Y%Shou%NULL%0,                        Alexander C%Sisti%NULL%0,                        Zachary E%Snow%NULL%0,                        Colin P%Sperring%NULL%0,                        Yuqing%Xiong%NULL%0,                        Henry W%Zhou%NULL%0,                        Karthik%Natarajan%NULL%0,                        George%Hripcsak%NULL%0,                        Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,                         Nicholas A.%Fergusson%null%0,                         Elisa%Lloyd-Smith%null%0,                         Andrew%Wormsbecker%null%0,                         Denise%Foster%null%0,                         Andrei%Karpov%null%0,                         Sarah%Crowe%null%0,                         Greg%Haljan%null%0,                         Dean R.%Chittock%null%0,                         Hussein D.%Kanji%null%0,                         Mypinder S.%Sekhon%null%0,                         Donald E.G.%Griesdale%null%0,                      Anish R.%Mitra%null%1,                      Nicholas A.%Fergusson%null%1,                      Elisa%Lloyd-Smith%null%1,                      Andrew%Wormsbecker%null%1,                      Denise%Foster%null%1,                      Andrei%Karpov%null%1,                      Sarah%Crowe%null%1,                      Greg%Haljan%null%1,                      Dean R.%Chittock%null%1,                      Hussein D.%Kanji%null%1,                      Mypinder S.%Sekhon%null%1,                      Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                        Mark%Caridi-Scheible%NULL%0,                        James M.%Blum%NULL%0,                        Chad%Robichaux%NULL%0,                        Colleen%Kraft%NULL%0,                        Jesse T.%Jacob%NULL%0,                        Craig S.%Jabaley%NULL%0,                        David%Carpenter%NULL%0,                        Roberta%Kaplow%NULL%0,                        Alfonso C.%Hernandez-Romieu%NULL%0,                        Max W.%Adelman%NULL%0,                        Greg S.%Martin%NULL%0,                        Craig M.%Coopersmith%NULL%0,                        David J.%Murphy%NULL%0,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,                        Caroline P. E.%Price%NULL%1,                        Elizabeth L.%Gray%NULL%1,                        Reeti K.%Gulati%NULL%1,                        Matthew%Maksimoski%NULL%1,                        Samuel D.%Racette%NULL%1,                        Alexander L.%Schneider%NULL%1,                        Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                         Di%Wu%NULL%0,                         Huilong%Chen%NULL%0,                         Weiming%Yan%NULL%0,                         Danlei%Yang%NULL%0,                         Guang%Chen%NULL%0,                         Ke%Ma%NULL%0,                         Dong%Xu%NULL%0,                         Haijing%Yu%NULL%0,                         Hongwu%Wang%NULL%0,                         Tao%Wang%NULL%0,                         Wei%Guo%NULL%0,                         Jia%Chen%NULL%0,                         Chen%Ding%NULL%0,                         Xiaoping%Zhang%NULL%0,                         Jiaquan%Huang%NULL%0,                         Meifang%Han%NULL%0,                         Shusheng%Li%NULL%0,                         Xiaoping%Luo%NULL%0,                         Jianping%Zhao%NULL%0,                         Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                         Dan%Xu%NULL%0,                         Shouzhi%Fu%NULL%0,                         Jun%Zhang%NULL%0,                         Xiaobo%Yang%NULL%0,                         Liang%Xu%NULL%0,                         Jiqian%Xu%NULL%0,                         Yongran%Wu%NULL%0,                         Chaolin%Huang%NULL%0,                         Yaqi%Ouyang%NULL%0,                         Luyu%Yang%NULL%0,                         Minghao%Fang%NULL%0,                         Hongwen%Xiao%NULL%0,                         Jing%Ma%NULL%0,                         Wei%Zhu%NULL%0,                         Song%Hu%NULL%0,                         Quan%Hu%NULL%0,                         Daoyin%Ding%NULL%0,                         Ming%Hu%NULL%0,                         Guochao%Zhu%NULL%0,                         Weijiang%Xu%NULL%0,                         Jun%Guo%NULL%0,                         Jinglong%Xu%NULL%0,                         Haitao%Yuan%NULL%0,                         Bin%Zhang%NULL%0,                         Zhui%Yu%yuzhui@whu.edu.cn%0,                         Dechang%Chen%icudechangchen@163.com%0,                         Shiying%Yuan%yuan_shiying@163.com%0,                         You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                        Becker%L.B.%coreGivesNoEmail%0,                        Chelico%J.D.%coreGivesNoEmail%0,                        Cohen%S.L.%coreGivesNoEmail%0,                        Cookingham%J.%coreGivesNoEmail%0,                        Coppa%K.%coreGivesNoEmail%0,                        Crawford%J.M.%coreGivesNoEmail%0,                        Davidson%K.W.%coreGivesNoEmail%0,                        Diefenbach%M.A.%coreGivesNoEmail%0,                        Dominello%A.J.%coreGivesNoEmail%0,                        Duer-Hefele%J.%coreGivesNoEmail%0,                        Falzon%L.%coreGivesNoEmail%0,                        Gitlin%J.%coreGivesNoEmail%0,                        Hajizadeh%N.%coreGivesNoEmail%0,                        Harvin%T.G.%coreGivesNoEmail%0,                        Hirsch%J.S.%coreGivesNoEmail%0,                        Hirschwerk%D.A.%coreGivesNoEmail%0,                        Kim%E.J.%coreGivesNoEmail%0,                        Kozel%Z.M.%coreGivesNoEmail%0,                        Marrast%L.M.%coreGivesNoEmail%0,                        McGinn%T.%coreGivesNoEmail%0,                        Mogavero%J.N.%coreGivesNoEmail%0,                        Narasimhan%M.%coreGivesNoEmail%0,                        Osorio%G.A.%coreGivesNoEmail%0,                        Qiu%M.%coreGivesNoEmail%0,                        Richardson%S.%coreGivesNoEmail%0,                        Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                        Cabrini%Luca%coreGivesNoEmail%0,                        Castelli%Antonio%coreGivesNoEmail%0,                        Cecconi%Maurizio%coreGivesNoEmail%0,                        Cereda%Danilo%coreGivesNoEmail%0,                        Coluccello%Antonio%coreGivesNoEmail%0,                        Foti%Giuseppe%coreGivesNoEmail%0,                        Fumagalli%Roberto%coreGivesNoEmail%0,                        Grasselli%Giacomo%coreGivesNoEmail%0,                        Iotti%Giorgio%coreGivesNoEmail%0,                        Latronico%Nicola%coreGivesNoEmail%0,                        Lorini%Luca%coreGivesNoEmail%0,                        Merler%Stefano%coreGivesNoEmail%0,                        Natalini%Giuseppe%coreGivesNoEmail%0,                        Pesenti%Antonio%coreGivesNoEmail%0,                        Piatti%Alessandra%coreGivesNoEmail%0,                        Ranieri%Marco Vito%coreGivesNoEmail%0,                        Scandroglio%Anna Mara%coreGivesNoEmail%0,                        Storti%Enrico%coreGivesNoEmail%0,                        Zanella%Alberto%coreGivesNoEmail%0,                        Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                         Bijan J.%Ghassemieh%NULL%0,                         Michelle%Nichols%NULL%0,                         Richard%Kim%NULL%0,                         Keith R.%Jerome%NULL%0,                         Arun K.%Nalla%NULL%0,                         Alexander L.%Greninger%NULL%0,                         Sudhakar%Pipavath%NULL%0,                         Mark M.%Wurfel%NULL%0,                         Laura%Evans%NULL%0,                         Patricia A.%Kritek%NULL%0,                         T. Eoin%West%NULL%0,                         Andrew%Luks%NULL%0,                         Anthony%Gerbino%NULL%0,                         Chris R.%Dale%NULL%0,                         Jason D.%Goldman%NULL%0,                         Shane%O’Mahony%NULL%0,                         Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,                         Hiroyuki%Shimizu%NULL%1,                         Yasushi%Shibue%NULL%1,                         Tomohiro%Hosoda%NULL%1,                         Keisuke%Iwabuchi%NULL%1,                         Kotaro%Nagamine%NULL%1,                         Hiroki%Saito%NULL%1,                         Reimin%Sawada%NULL%1,                         Takayuki%Oishi%NULL%1,                         Jun%Tsukiji%NULL%1,                         Hiroyuki%Fujita%NULL%1,                         Ryosuke%Furuya%NULL%1,                         Makoto%Masuda%NULL%1,                         Osamu%Akasaka%NULL%1,                         Yu%Ikeda%NULL%1,                         Mitsuo%Sakamoto%NULL%1,                         Kazuya%Sakai%NULL%1,                         Munehito%Uchiyama%NULL%1,                         Hiroki%Watanabe%NULL%1,                         Nobuhiro%Yamaguchi%NULL%1,                         Ryoko%Higa%NULL%1,                         Akiko%Sasaki%NULL%1,                         Katsuaki%Tanaka%NULL%1,                         Yukitoshi%Toyoda%NULL%1,                         Shinsuke%Hamanaka%NULL%1,                         Naoki%Miyazawa%NULL%1,                         Atsuko%Shimizu%NULL%1,                         Fumie%Fukase%NULL%1,                         Shunsuke%Iwai%NULL%1,                         Yuko%Komase%NULL%1,                         Tsutomu%Kawasaki%NULL%1,                         Isao%Nagata%NULL%1,                         Yusuke%Nakayama%NULL%1,                         Tetsuhiro%Takei%NULL%1,                         Katsuo%Kimura%NULL%1,                         Reiko%Kunisaki%NULL%1,                         Makoto%Kudo%NULL%1,                         Ichiro%Takeuchi%NULL%0,                         Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                         Yuan%Yu%NULL%0,                         Jiqian%Xu%NULL%0,                         Huaqing%Shu%NULL%0,                         Jia'an%Xia%NULL%0,                         Hong%Liu%NULL%0,                         Yongran%Wu%NULL%0,                         Lu%Zhang%NULL%0,                         Zhui%Yu%NULL%0,                         Minghao%Fang%NULL%0,                         Ting%Yu%NULL%0,                         Yaxin%Wang%NULL%0,                         Shangwen%Pan%NULL%0,                         Xiaojing%Zou%NULL%0,                         Shiying%Yuan%NULL%0,                         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,                         Rong Hua%Tian%NULL%1,                         Song%Luo%NULL%1,                         Zi Yue%Zu%NULL%1,                         Bin%Fan%NULL%1,                         Xi Ming%Wang%NULL%1,                         Kai%Xu%NULL%1,                         Jiang Tao%Wang%NULL%1,                         Juan%Zhu%NULL%1,                         Ji Chan%Shi%NULL%1,                         Feng%Chen%NULL%1,                         Bing%Wan%NULL%1,                         Zhi Han%Yan%NULL%1,                         Rong Pin%Wang%NULL%1,                         Wen%Chen%NULL%1,                         Wen Hui%Fan%NULL%1,                         Can%Zhang%NULL%1,                         Meng Jie%Lu%NULL%1,                         Zhi Yuan%Sun%NULL%1,                         Chang Sheng%Zhou%NULL%1,                         Li Na%Zhang%NULL%1,                         Fei%Xia%NULL%1,                         Li%Qi%NULL%1,                         Wei%Zhang%NULL%0,                         Jing%Zhong%NULL%1,                         Xiao Xue%Liu%NULL%1,                         Qi Rui%Zhang%NULL%1,                         Guang Ming%Lu%NULL%1,                         Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,                         Matthew R%Baldwin%NULL%0,                         Darryl%Abrams%NULL%1,                         Samuel D%Jacobson%NULL%1,                         Benjamin J%Meyer%NULL%1,                         Elizabeth M%Balough%NULL%1,                         Justin G%Aaron%NULL%1,                         Jan%Claassen%NULL%1,                         LeRoy E%Rabbani%NULL%1,                         Jonathan%Hastie%NULL%1,                         Beth R%Hochman%NULL%1,                         John%Salazar-Schicchi%NULL%1,                         Natalie H%Yip%NULL%1,                         Daniel%Brodie%NULL%2,                         Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                         Samuel L%Bruce%NULL%0,                         Cody L%Slater%NULL%0,                         Jonathan R%Tiao%NULL%0,                         Matthew R%Baldwin%NULL%0,                         R Graham%Barr%NULL%0,                         Bernard P%Chang%NULL%0,                         Katherine H%Chau%NULL%0,                         Justin J%Choi%NULL%0,                         Nicholas%Gavin%NULL%0,                         Parag%Goyal%NULL%0,                         Angela M%Mills%NULL%0,                         Ashmi A%Patel%NULL%0,                         Marie-Laure S%Romney%NULL%0,                         Monika M%Safford%NULL%0,                         Neil W%Schluger%NULL%0,                         Soumitra%Sengupta%NULL%0,                         Magdalena E%Sobieszczyk%NULL%0,                         Jason E%Zucker%NULL%0,                         Paul A%Asadourian%NULL%0,                         Fletcher M%Bell%NULL%0,                         Rebekah%Boyd%NULL%0,                         Matthew F%Cohen%NULL%0,                         MacAlistair I%Colquhoun%NULL%0,                         Lucy A%Colville%NULL%0,                         Joseph H%de Jonge%NULL%0,                         Lyle B%Dershowitz%NULL%0,                         Shirin A%Dey%NULL%0,                         Katherine A%Eiseman%NULL%0,                         Zachary P%Girvin%NULL%0,                         Daniella T%Goni%NULL%0,                         Amro A%Harb%NULL%0,                         Nicholas%Herzik%NULL%0,                         Sarah%Householder%NULL%0,                         Lara E%Karaaslan%NULL%0,                         Heather%Lee%NULL%0,                         Evan%Lieberman%NULL%0,                         Andrew%Ling%NULL%0,                         Ree%Lu%NULL%0,                         Arthur Y%Shou%NULL%0,                         Alexander C%Sisti%NULL%0,                         Zachary E%Snow%NULL%0,                         Colin P%Sperring%NULL%0,                         Yuqing%Xiong%NULL%0,                         Henry W%Zhou%NULL%0,                         Karthik%Natarajan%NULL%0,                         George%Hripcsak%NULL%0,                         Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,                          Nicholas A.%Fergusson%null%0,                          Elisa%Lloyd-Smith%null%0,                          Andrew%Wormsbecker%null%0,                          Denise%Foster%null%0,                          Andrei%Karpov%null%0,                          Sarah%Crowe%null%0,                          Greg%Haljan%null%0,                          Dean R.%Chittock%null%0,                          Hussein D.%Kanji%null%0,                          Mypinder S.%Sekhon%null%0,                          Donald E.G.%Griesdale%null%0,                       Anish R.%Mitra%null%1,                       Nicholas A.%Fergusson%null%1,                       Elisa%Lloyd-Smith%null%1,                       Andrew%Wormsbecker%null%1,                       Denise%Foster%null%1,                       Andrei%Karpov%null%1,                       Sarah%Crowe%null%1,                       Greg%Haljan%null%1,                       Dean R.%Chittock%null%1,                       Hussein D.%Kanji%null%1,                       Mypinder S.%Sekhon%null%1,                       Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                         Mark%Caridi-Scheible%NULL%0,                         James M.%Blum%NULL%0,                         Chad%Robichaux%NULL%0,                         Colleen%Kraft%NULL%0,                         Jesse T.%Jacob%NULL%0,                         Craig S.%Jabaley%NULL%0,                         David%Carpenter%NULL%0,                         Roberta%Kaplow%NULL%0,                         Alfonso C.%Hernandez-Romieu%NULL%0,                         Max W.%Adelman%NULL%0,                         Greg S.%Martin%NULL%0,                         Craig M.%Coopersmith%NULL%0,                         David J.%Murphy%NULL%0,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,                         Caroline P. E.%Price%NULL%1,                         Elizabeth L.%Gray%NULL%1,                         Reeti K.%Gulati%NULL%1,                         Matthew%Maksimoski%NULL%1,                         Samuel D.%Racette%NULL%1,                         Alexander L.%Schneider%NULL%1,                         Ashoke R.%Khanwalkar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1670,6 +1874,9 @@
       <c r="I1" t="s">
         <v>116</v>
       </c>
+      <c r="J1" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1699,6 +1906,9 @@
       <c r="I2" t="s">
         <v>117</v>
       </c>
+      <c r="J2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -1714,7 +1924,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>418</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1727,6 +1937,9 @@
       </c>
       <c r="I3" t="s">
         <v>332</v>
+      </c>
+      <c r="J3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4">
@@ -1743,7 +1956,7 @@
         <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1756,6 +1969,9 @@
       </c>
       <c r="I4" t="s">
         <v>334</v>
+      </c>
+      <c r="J4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5">
@@ -1772,7 +1988,7 @@
         <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>351</v>
+        <v>420</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1785,6 +2001,9 @@
       </c>
       <c r="I5" t="s">
         <v>336</v>
+      </c>
+      <c r="J5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6">
@@ -1801,7 +2020,7 @@
         <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>352</v>
+        <v>421</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1814,6 +2033,9 @@
       </c>
       <c r="I6" t="s">
         <v>336</v>
+      </c>
+      <c r="J6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7">
@@ -1830,7 +2052,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>353</v>
+        <v>422</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
@@ -1843,6 +2065,9 @@
       </c>
       <c r="I7" t="s">
         <v>332</v>
+      </c>
+      <c r="J7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8">
@@ -1859,7 +2084,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>354</v>
+        <v>423</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1872,6 +2097,9 @@
       </c>
       <c r="I8" t="s">
         <v>340</v>
+      </c>
+      <c r="J8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9">
@@ -1888,7 +2116,7 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>355</v>
+        <v>239</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1897,10 +2125,13 @@
         <v>181</v>
       </c>
       <c r="H9" t="s">
-        <v>182</v>
+        <v>370</v>
       </c>
       <c r="I9" t="s">
-        <v>336</v>
+        <v>117</v>
+      </c>
+      <c r="J9" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="10">
@@ -1917,7 +2148,7 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>356</v>
+        <v>424</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1930,6 +2161,9 @@
       </c>
       <c r="I10" t="s">
         <v>340</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11">
@@ -1946,7 +2180,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>357</v>
+        <v>425</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1959,6 +2193,9 @@
       </c>
       <c r="I11" t="s">
         <v>332</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -1975,7 +2212,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -1988,6 +2225,9 @@
       </c>
       <c r="I12" t="s">
         <v>340</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -2004,7 +2244,7 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>359</v>
+        <v>427</v>
       </c>
       <c r="F13" t="s">
         <v>68</v>
@@ -2017,6 +2257,9 @@
       </c>
       <c r="I13" t="s">
         <v>332</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="14">
@@ -2033,7 +2276,7 @@
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>360</v>
+        <v>428</v>
       </c>
       <c r="F14" t="s">
         <v>73</v>
@@ -2046,6 +2289,9 @@
       </c>
       <c r="I14" t="s">
         <v>336</v>
+      </c>
+      <c r="J14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15">
@@ -2062,7 +2308,7 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>361</v>
+        <v>429</v>
       </c>
       <c r="F15" t="s">
         <v>79</v>
@@ -2075,6 +2321,9 @@
       </c>
       <c r="I15" t="s">
         <v>332</v>
+      </c>
+      <c r="J15" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -2091,7 +2340,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>362</v>
+        <v>430</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -2104,6 +2353,9 @@
       </c>
       <c r="I16" t="s">
         <v>332</v>
+      </c>
+      <c r="J16" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/83.xlsx
+++ b/Covid_19_Dataset_and_References/References/83.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="464">
   <si>
     <t>Doi</t>
   </si>
@@ -1552,6 +1552,121 @@
   </si>
   <si>
     <t>[Kevin%Hur%NULL%1,                         Caroline P. E.%Price%NULL%1,                         Elizabeth L.%Gray%NULL%1,                         Reeti K.%Gulati%NULL%1,                         Matthew%Maksimoski%NULL%1,                         Samuel D.%Racette%NULL%1,                         Alexander L.%Schneider%NULL%1,                         Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tracheal intubation in patients with severe and critical COVID-19: analysis of 18 cases].</t>
+  </si>
+  <si>
+    <t>OBJECTIVE To analyze the clinical characteristics of patients with severe or critical coronavirus disease 2019 (COVID-19) receiving tracheal intubation. METHODS We analyzed clinical characteristics of 18 severely or critically ill patients with COVID-19 undergoing tracheal intubation. The general demographic and clinical data of the patients including their age, gender, pre- intubation state of consciousness and the ventilation mode were recorded. The anesthesiologists performing the tracheal intubation procedure evaluated and recorded the tracheal intubation conditions of the patients. The changes in the vital signs of the patients before anesthesia induction and after intubation were recorded. RESULTS The average ages of these patients were 70.39±8.02 years. Fifteen patients (83.33%) received non- invasive ventilation before tracheal intubation, and 13 patients (72.22%) were conscious before tracheal intubation. After induction of anesthesia, the blood pressure and heart rate of the patients decreased significantly (P &lt; 0.05). Most of the patients (94.44%) were in excellent or good conditions for tracheal intubation, and the first-attempt success rate of tracheal intubation was 100%. Five patients died within 3 weeks following the intubation. Tracheotomy was performed in one patient. Twelve patients were still on endotracheal mechanical ventilation in the intensive care unit, and one of them received ECMO treatment due to poor oxygenation. A total of 16 experienced anesthesiologists participated in tracheal intubation, all with third-level protection during the operation, and no medical staff infection has been detected so far. CONCLUSIONS For patients with severe and critical COVID-19 and indications of tracheal intubation, we recommend early intubation with invasive respiratory support to improve the treatment efficacy and reduce the mortality. Anesthetic agents should be used carefully during tracheal intubation to ensure patients' safety. The medical staff should have a high-level protection during the intubation to maximally ensure their safety.</t>
+  </si>
+  <si>
+    <t>[ Jiafang%Wang%elasticNoEmail%0,  Fan% Lu%elasticNoEmail%0,  Mingxing% Zhou%elasticNoEmail%0,  Zhong% Qi%elasticNoEmail%0,  Zhijun% Chen%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>ELASTIC</t>
+  </si>
+  <si>
+    <t>2020-03-30</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                          Di%Wu%NULL%0,                          Huilong%Chen%NULL%0,                          Weiming%Yan%NULL%0,                          Danlei%Yang%NULL%0,                          Guang%Chen%NULL%0,                          Ke%Ma%NULL%0,                          Dong%Xu%NULL%0,                          Haijing%Yu%NULL%0,                          Hongwu%Wang%NULL%0,                          Tao%Wang%NULL%0,                          Wei%Guo%NULL%0,                          Jia%Chen%NULL%0,                          Chen%Ding%NULL%0,                          Xiaoping%Zhang%NULL%0,                          Jiaquan%Huang%NULL%0,                          Meifang%Han%NULL%0,                          Shusheng%Li%NULL%0,                          Xiaoping%Luo%NULL%0,                          Jianping%Zhao%NULL%0,                          Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                          Dan%Xu%NULL%0,                          Shouzhi%Fu%NULL%0,                          Jun%Zhang%NULL%0,                          Xiaobo%Yang%NULL%0,                          Liang%Xu%NULL%0,                          Jiqian%Xu%NULL%0,                          Yongran%Wu%NULL%0,                          Chaolin%Huang%NULL%0,                          Yaqi%Ouyang%NULL%0,                          Luyu%Yang%NULL%0,                          Minghao%Fang%NULL%0,                          Hongwen%Xiao%NULL%0,                          Jing%Ma%NULL%0,                          Wei%Zhu%NULL%0,                          Song%Hu%NULL%0,                          Quan%Hu%NULL%0,                          Daoyin%Ding%NULL%0,                          Ming%Hu%NULL%0,                          Guochao%Zhu%NULL%0,                          Weijiang%Xu%NULL%0,                          Jun%Guo%NULL%0,                          Jinglong%Xu%NULL%0,                          Haitao%Yuan%NULL%0,                          Bin%Zhang%NULL%0,                          Zhui%Yu%yuzhui@whu.edu.cn%0,                          Dechang%Chen%icudechangchen@163.com%0,                          Shiying%Yuan%yuan_shiying@163.com%0,                          You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                         Becker%L.B.%coreGivesNoEmail%0,                         Chelico%J.D.%coreGivesNoEmail%0,                         Cohen%S.L.%coreGivesNoEmail%0,                         Cookingham%J.%coreGivesNoEmail%0,                         Coppa%K.%coreGivesNoEmail%0,                         Crawford%J.M.%coreGivesNoEmail%0,                         Davidson%K.W.%coreGivesNoEmail%0,                         Diefenbach%M.A.%coreGivesNoEmail%0,                         Dominello%A.J.%coreGivesNoEmail%0,                         Duer-Hefele%J.%coreGivesNoEmail%0,                         Falzon%L.%coreGivesNoEmail%0,                         Gitlin%J.%coreGivesNoEmail%0,                         Hajizadeh%N.%coreGivesNoEmail%0,                         Harvin%T.G.%coreGivesNoEmail%0,                         Hirsch%J.S.%coreGivesNoEmail%0,                         Hirschwerk%D.A.%coreGivesNoEmail%0,                         Kim%E.J.%coreGivesNoEmail%0,                         Kozel%Z.M.%coreGivesNoEmail%0,                         Marrast%L.M.%coreGivesNoEmail%0,                         McGinn%T.%coreGivesNoEmail%0,                         Mogavero%J.N.%coreGivesNoEmail%0,                         Narasimhan%M.%coreGivesNoEmail%0,                         Osorio%G.A.%coreGivesNoEmail%0,                         Qiu%M.%coreGivesNoEmail%0,                         Richardson%S.%coreGivesNoEmail%0,                         Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                         Cabrini%Luca%coreGivesNoEmail%0,                         Castelli%Antonio%coreGivesNoEmail%0,                         Cecconi%Maurizio%coreGivesNoEmail%0,                         Cereda%Danilo%coreGivesNoEmail%0,                         Coluccello%Antonio%coreGivesNoEmail%0,                         Foti%Giuseppe%coreGivesNoEmail%0,                         Fumagalli%Roberto%coreGivesNoEmail%0,                         Grasselli%Giacomo%coreGivesNoEmail%0,                         Iotti%Giorgio%coreGivesNoEmail%0,                         Latronico%Nicola%coreGivesNoEmail%0,                         Lorini%Luca%coreGivesNoEmail%0,                         Merler%Stefano%coreGivesNoEmail%0,                         Natalini%Giuseppe%coreGivesNoEmail%0,                         Pesenti%Antonio%coreGivesNoEmail%0,                         Piatti%Alessandra%coreGivesNoEmail%0,                         Ranieri%Marco Vito%coreGivesNoEmail%0,                         Scandroglio%Anna Mara%coreGivesNoEmail%0,                         Storti%Enrico%coreGivesNoEmail%0,                         Zanella%Alberto%coreGivesNoEmail%0,                         Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                          Bijan J.%Ghassemieh%NULL%0,                          Michelle%Nichols%NULL%0,                          Richard%Kim%NULL%0,                          Keith R.%Jerome%NULL%0,                          Arun K.%Nalla%NULL%0,                          Alexander L.%Greninger%NULL%0,                          Sudhakar%Pipavath%NULL%0,                          Mark M.%Wurfel%NULL%0,                          Laura%Evans%NULL%0,                          Patricia A.%Kritek%NULL%0,                          T. Eoin%West%NULL%0,                          Andrew%Luks%NULL%0,                          Anthony%Gerbino%NULL%0,                          Chris R.%Dale%NULL%0,                          Jason D.%Goldman%NULL%0,                          Shane%O’Mahony%NULL%0,                          Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,                          Hiroyuki%Shimizu%NULL%1,                          Yasushi%Shibue%NULL%1,                          Tomohiro%Hosoda%NULL%1,                          Keisuke%Iwabuchi%NULL%1,                          Kotaro%Nagamine%NULL%1,                          Hiroki%Saito%NULL%1,                          Reimin%Sawada%NULL%1,                          Takayuki%Oishi%NULL%1,                          Jun%Tsukiji%NULL%1,                          Hiroyuki%Fujita%NULL%1,                          Ryosuke%Furuya%NULL%1,                          Makoto%Masuda%NULL%1,                          Osamu%Akasaka%NULL%1,                          Yu%Ikeda%NULL%1,                          Mitsuo%Sakamoto%NULL%1,                          Kazuya%Sakai%NULL%1,                          Munehito%Uchiyama%NULL%1,                          Hiroki%Watanabe%NULL%1,                          Nobuhiro%Yamaguchi%NULL%1,                          Ryoko%Higa%NULL%1,                          Akiko%Sasaki%NULL%1,                          Katsuaki%Tanaka%NULL%1,                          Yukitoshi%Toyoda%NULL%1,                          Shinsuke%Hamanaka%NULL%1,                          Naoki%Miyazawa%NULL%1,                          Atsuko%Shimizu%NULL%1,                          Fumie%Fukase%NULL%1,                          Shunsuke%Iwai%NULL%1,                          Yuko%Komase%NULL%1,                          Tsutomu%Kawasaki%NULL%1,                          Isao%Nagata%NULL%1,                          Yusuke%Nakayama%NULL%1,                          Tetsuhiro%Takei%NULL%1,                          Katsuo%Kimura%NULL%1,                          Reiko%Kunisaki%NULL%1,                          Makoto%Kudo%NULL%1,                          Ichiro%Takeuchi%NULL%0,                          Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                          Yuan%Yu%NULL%0,                          Jiqian%Xu%NULL%0,                          Huaqing%Shu%NULL%0,                          Jia'an%Xia%NULL%0,                          Hong%Liu%NULL%0,                          Yongran%Wu%NULL%0,                          Lu%Zhang%NULL%0,                          Zhui%Yu%NULL%0,                          Minghao%Fang%NULL%0,                          Ting%Yu%NULL%0,                          Yaxin%Wang%NULL%0,                          Shangwen%Pan%NULL%0,                          Xiaojing%Zou%NULL%0,                          Shiying%Yuan%NULL%0,                          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,                          Rong Hua%Tian%NULL%1,                          Song%Luo%NULL%1,                          Zi Yue%Zu%NULL%1,                          Bin%Fan%NULL%1,                          Xi Ming%Wang%NULL%1,                          Kai%Xu%NULL%1,                          Jiang Tao%Wang%NULL%1,                          Juan%Zhu%NULL%1,                          Ji Chan%Shi%NULL%1,                          Feng%Chen%NULL%1,                          Bing%Wan%NULL%1,                          Zhi Han%Yan%NULL%1,                          Rong Pin%Wang%NULL%1,                          Wen%Chen%NULL%1,                          Wen Hui%Fan%NULL%1,                          Can%Zhang%NULL%1,                          Meng Jie%Lu%NULL%1,                          Zhi Yuan%Sun%NULL%1,                          Chang Sheng%Zhou%NULL%1,                          Li Na%Zhang%NULL%1,                          Fei%Xia%NULL%1,                          Li%Qi%NULL%1,                          Wei%Zhang%NULL%0,                          Jing%Zhong%NULL%1,                          Xiao Xue%Liu%NULL%1,                          Qi Rui%Zhang%NULL%1,                          Guang Ming%Lu%NULL%1,                          Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,                          Matthew R%Baldwin%NULL%0,                          Darryl%Abrams%NULL%1,                          Samuel D%Jacobson%NULL%1,                          Benjamin J%Meyer%NULL%1,                          Elizabeth M%Balough%NULL%1,                          Justin G%Aaron%NULL%1,                          Jan%Claassen%NULL%1,                          LeRoy E%Rabbani%NULL%1,                          Jonathan%Hastie%NULL%1,                          Beth R%Hochman%NULL%1,                          John%Salazar-Schicchi%NULL%1,                          Natalie H%Yip%NULL%1,                          Daniel%Brodie%NULL%2,                          Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                          Samuel L%Bruce%NULL%0,                          Cody L%Slater%NULL%0,                          Jonathan R%Tiao%NULL%0,                          Matthew R%Baldwin%NULL%0,                          R Graham%Barr%NULL%0,                          Bernard P%Chang%NULL%0,                          Katherine H%Chau%NULL%0,                          Justin J%Choi%NULL%0,                          Nicholas%Gavin%NULL%0,                          Parag%Goyal%NULL%0,                          Angela M%Mills%NULL%0,                          Ashmi A%Patel%NULL%0,                          Marie-Laure S%Romney%NULL%0,                          Monika M%Safford%NULL%0,                          Neil W%Schluger%NULL%0,                          Soumitra%Sengupta%NULL%0,                          Magdalena E%Sobieszczyk%NULL%0,                          Jason E%Zucker%NULL%0,                          Paul A%Asadourian%NULL%0,                          Fletcher M%Bell%NULL%0,                          Rebekah%Boyd%NULL%0,                          Matthew F%Cohen%NULL%0,                          MacAlistair I%Colquhoun%NULL%0,                          Lucy A%Colville%NULL%0,                          Joseph H%de Jonge%NULL%0,                          Lyle B%Dershowitz%NULL%0,                          Shirin A%Dey%NULL%0,                          Katherine A%Eiseman%NULL%0,                          Zachary P%Girvin%NULL%0,                          Daniella T%Goni%NULL%0,                          Amro A%Harb%NULL%0,                          Nicholas%Herzik%NULL%0,                          Sarah%Householder%NULL%0,                          Lara E%Karaaslan%NULL%0,                          Heather%Lee%NULL%0,                          Evan%Lieberman%NULL%0,                          Andrew%Ling%NULL%0,                          Ree%Lu%NULL%0,                          Arthur Y%Shou%NULL%0,                          Alexander C%Sisti%NULL%0,                          Zachary E%Snow%NULL%0,                          Colin P%Sperring%NULL%0,                          Yuqing%Xiong%NULL%0,                          Henry W%Zhou%NULL%0,                          Karthik%Natarajan%NULL%0,                          George%Hripcsak%NULL%0,                          Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,                           Nicholas A.%Fergusson%null%0,                           Elisa%Lloyd-Smith%null%0,                           Andrew%Wormsbecker%null%0,                           Denise%Foster%null%0,                           Andrei%Karpov%null%0,                           Sarah%Crowe%null%0,                           Greg%Haljan%null%0,                           Dean R.%Chittock%null%0,                           Hussein D.%Kanji%null%0,                           Mypinder S.%Sekhon%null%0,                           Donald E.G.%Griesdale%null%0,                        Anish R.%Mitra%null%1,                        Nicholas A.%Fergusson%null%1,                        Elisa%Lloyd-Smith%null%1,                        Andrew%Wormsbecker%null%1,                        Denise%Foster%null%1,                        Andrei%Karpov%null%1,                        Sarah%Crowe%null%1,                        Greg%Haljan%null%1,                        Dean R.%Chittock%null%1,                        Hussein D.%Kanji%null%1,                        Mypinder S.%Sekhon%null%1,                        Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                          Mark%Caridi-Scheible%NULL%0,                          James M.%Blum%NULL%0,                          Chad%Robichaux%NULL%0,                          Colleen%Kraft%NULL%0,                          Jesse T.%Jacob%NULL%0,                          Craig S.%Jabaley%NULL%0,                          David%Carpenter%NULL%0,                          Roberta%Kaplow%NULL%0,                          Alfonso C.%Hernandez-Romieu%NULL%0,                          Max W.%Adelman%NULL%0,                          Greg S.%Martin%NULL%0,                          Craig M.%Coopersmith%NULL%0,                          David J.%Murphy%NULL%0,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,                          Caroline P. E.%Price%NULL%1,                          Elizabeth L.%Gray%NULL%1,                          Reeti K.%Gulati%NULL%1,                          Matthew%Maksimoski%NULL%1,                          Samuel D.%Racette%NULL%1,                          Alexander L.%Schneider%NULL%1,                          Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJECTIVE To analyze the clinical characteristics of patients with severe or critical coronavirus disease 2019 (COVID-19) receiving tracheal intubation.
+ METHODS We analyzed clinical characteristics of 18 severely or critically ill patients with COVID-19 undergoing tracheal intubation.
+ The general demographic and clinical data of the patients including their age, gender, pre- intubation state of consciousness and the ventilation mode were recorded.
+ The anesthesiologists performing the tracheal intubation procedure evaluated and recorded the tracheal intubation conditions of the patients.
+ The changes in the vital signs of the patients before anesthesia induction and after intubation were recorded.
+ RESULTS The average ages of these patients were 70.39±8.02 years.
+ Fifteen patients (83.33%) received non- invasive ventilation before tracheal intubation, and 13 patients (72.22%) were conscious before tracheal intubation.
+ After induction of anesthesia, the blood pressure and heart rate of the patients decreased significantly (P &lt; 0.05).
+ Most of the patients (94.44%) were in excellent or good conditions for tracheal intubation, and the first-attempt success rate of tracheal intubation was 100%.
+ Five patients died within 3 weeks following the intubation.
+ Tracheotomy was performed in one patient.
+ Twelve patients were still on endotracheal mechanical ventilation in the intensive care unit, and one of them received ECMO treatment due to poor oxygenation.
+ A total of 16 experienced anesthesiologists participated in tracheal intubation, all with third-level protection during the operation, and no medical staff infection has been detected so far.
+ CONCLUSIONS For patients with severe and critical COVID-19 and indications of tracheal intubation, we recommend early intubation with invasive respiratory support to improve the treatment efficacy and reduce the mortality.
+ Anesthetic agents should be used carefully during tracheal intubation to ensure patients' safety.
+ The medical staff should have a high-level protection during the intubation to maximally ensure their safety.
+</t>
+  </si>
+  <si>
+    <t>[ Jiafang%Wang%elasticNoEmail%0,   Fan% Lu%elasticNoEmail%0,   Mingxing% Zhou%elasticNoEmail%0,   Zhong% Qi%elasticNoEmail%0,   Zhijun% Chen%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                           Di%Wu%NULL%0,                           Huilong%Chen%NULL%0,                           Weiming%Yan%NULL%0,                           Danlei%Yang%NULL%0,                           Guang%Chen%NULL%0,                           Ke%Ma%NULL%0,                           Dong%Xu%NULL%0,                           Haijing%Yu%NULL%0,                           Hongwu%Wang%NULL%0,                           Tao%Wang%NULL%0,                           Wei%Guo%NULL%0,                           Jia%Chen%NULL%0,                           Chen%Ding%NULL%0,                           Xiaoping%Zhang%NULL%0,                           Jiaquan%Huang%NULL%0,                           Meifang%Han%NULL%0,                           Shusheng%Li%NULL%0,                           Xiaoping%Luo%NULL%0,                           Jianping%Zhao%NULL%0,                           Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                           Dan%Xu%NULL%0,                           Shouzhi%Fu%NULL%0,                           Jun%Zhang%NULL%0,                           Xiaobo%Yang%NULL%0,                           Liang%Xu%NULL%0,                           Jiqian%Xu%NULL%0,                           Yongran%Wu%NULL%0,                           Chaolin%Huang%NULL%0,                           Yaqi%Ouyang%NULL%0,                           Luyu%Yang%NULL%0,                           Minghao%Fang%NULL%0,                           Hongwen%Xiao%NULL%0,                           Jing%Ma%NULL%0,                           Wei%Zhu%NULL%0,                           Song%Hu%NULL%0,                           Quan%Hu%NULL%0,                           Daoyin%Ding%NULL%0,                           Ming%Hu%NULL%0,                           Guochao%Zhu%NULL%0,                           Weijiang%Xu%NULL%0,                           Jun%Guo%NULL%0,                           Jinglong%Xu%NULL%0,                           Haitao%Yuan%NULL%0,                           Bin%Zhang%NULL%0,                           Zhui%Yu%yuzhui@whu.edu.cn%0,                           Dechang%Chen%icudechangchen@163.com%0,                           Shiying%Yuan%yuan_shiying@163.com%0,                           You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                          Becker%L.B.%coreGivesNoEmail%0,                          Chelico%J.D.%coreGivesNoEmail%0,                          Cohen%S.L.%coreGivesNoEmail%0,                          Cookingham%J.%coreGivesNoEmail%0,                          Coppa%K.%coreGivesNoEmail%0,                          Crawford%J.M.%coreGivesNoEmail%0,                          Davidson%K.W.%coreGivesNoEmail%0,                          Diefenbach%M.A.%coreGivesNoEmail%0,                          Dominello%A.J.%coreGivesNoEmail%0,                          Duer-Hefele%J.%coreGivesNoEmail%0,                          Falzon%L.%coreGivesNoEmail%0,                          Gitlin%J.%coreGivesNoEmail%0,                          Hajizadeh%N.%coreGivesNoEmail%0,                          Harvin%T.G.%coreGivesNoEmail%0,                          Hirsch%J.S.%coreGivesNoEmail%0,                          Hirschwerk%D.A.%coreGivesNoEmail%0,                          Kim%E.J.%coreGivesNoEmail%0,                          Kozel%Z.M.%coreGivesNoEmail%0,                          Marrast%L.M.%coreGivesNoEmail%0,                          McGinn%T.%coreGivesNoEmail%0,                          Mogavero%J.N.%coreGivesNoEmail%0,                          Narasimhan%M.%coreGivesNoEmail%0,                          Osorio%G.A.%coreGivesNoEmail%0,                          Qiu%M.%coreGivesNoEmail%0,                          Richardson%S.%coreGivesNoEmail%0,                          Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                          Cabrini%Luca%coreGivesNoEmail%0,                          Castelli%Antonio%coreGivesNoEmail%0,                          Cecconi%Maurizio%coreGivesNoEmail%0,                          Cereda%Danilo%coreGivesNoEmail%0,                          Coluccello%Antonio%coreGivesNoEmail%0,                          Foti%Giuseppe%coreGivesNoEmail%0,                          Fumagalli%Roberto%coreGivesNoEmail%0,                          Grasselli%Giacomo%coreGivesNoEmail%0,                          Iotti%Giorgio%coreGivesNoEmail%0,                          Latronico%Nicola%coreGivesNoEmail%0,                          Lorini%Luca%coreGivesNoEmail%0,                          Merler%Stefano%coreGivesNoEmail%0,                          Natalini%Giuseppe%coreGivesNoEmail%0,                          Pesenti%Antonio%coreGivesNoEmail%0,                          Piatti%Alessandra%coreGivesNoEmail%0,                          Ranieri%Marco Vito%coreGivesNoEmail%0,                          Scandroglio%Anna Mara%coreGivesNoEmail%0,                          Storti%Enrico%coreGivesNoEmail%0,                          Zanella%Alberto%coreGivesNoEmail%0,                          Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                           Bijan J.%Ghassemieh%NULL%0,                           Michelle%Nichols%NULL%0,                           Richard%Kim%NULL%0,                           Keith R.%Jerome%NULL%0,                           Arun K.%Nalla%NULL%0,                           Alexander L.%Greninger%NULL%0,                           Sudhakar%Pipavath%NULL%0,                           Mark M.%Wurfel%NULL%0,                           Laura%Evans%NULL%0,                           Patricia A.%Kritek%NULL%0,                           T. Eoin%West%NULL%0,                           Andrew%Luks%NULL%0,                           Anthony%Gerbino%NULL%0,                           Chris R.%Dale%NULL%0,                           Jason D.%Goldman%NULL%0,                           Shane%O’Mahony%NULL%0,                           Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,                           Hiroyuki%Shimizu%NULL%1,                           Yasushi%Shibue%NULL%1,                           Tomohiro%Hosoda%NULL%1,                           Keisuke%Iwabuchi%NULL%1,                           Kotaro%Nagamine%NULL%1,                           Hiroki%Saito%NULL%1,                           Reimin%Sawada%NULL%1,                           Takayuki%Oishi%NULL%1,                           Jun%Tsukiji%NULL%1,                           Hiroyuki%Fujita%NULL%1,                           Ryosuke%Furuya%NULL%1,                           Makoto%Masuda%NULL%1,                           Osamu%Akasaka%NULL%1,                           Yu%Ikeda%NULL%1,                           Mitsuo%Sakamoto%NULL%1,                           Kazuya%Sakai%NULL%1,                           Munehito%Uchiyama%NULL%1,                           Hiroki%Watanabe%NULL%1,                           Nobuhiro%Yamaguchi%NULL%1,                           Ryoko%Higa%NULL%1,                           Akiko%Sasaki%NULL%1,                           Katsuaki%Tanaka%NULL%1,                           Yukitoshi%Toyoda%NULL%1,                           Shinsuke%Hamanaka%NULL%1,                           Naoki%Miyazawa%NULL%1,                           Atsuko%Shimizu%NULL%1,                           Fumie%Fukase%NULL%1,                           Shunsuke%Iwai%NULL%1,                           Yuko%Komase%NULL%1,                           Tsutomu%Kawasaki%NULL%1,                           Isao%Nagata%NULL%1,                           Yusuke%Nakayama%NULL%1,                           Tetsuhiro%Takei%NULL%1,                           Katsuo%Kimura%NULL%1,                           Reiko%Kunisaki%NULL%1,                           Makoto%Kudo%NULL%1,                           Ichiro%Takeuchi%NULL%0,                           Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                           Yuan%Yu%NULL%0,                           Jiqian%Xu%NULL%0,                           Huaqing%Shu%NULL%0,                           Jia'an%Xia%NULL%0,                           Hong%Liu%NULL%0,                           Yongran%Wu%NULL%0,                           Lu%Zhang%NULL%0,                           Zhui%Yu%NULL%0,                           Minghao%Fang%NULL%0,                           Ting%Yu%NULL%0,                           Yaxin%Wang%NULL%0,                           Shangwen%Pan%NULL%0,                           Xiaojing%Zou%NULL%0,                           Shiying%Yuan%NULL%0,                           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,                           Rong Hua%Tian%NULL%1,                           Song%Luo%NULL%1,                           Zi Yue%Zu%NULL%1,                           Bin%Fan%NULL%1,                           Xi Ming%Wang%NULL%1,                           Kai%Xu%NULL%1,                           Jiang Tao%Wang%NULL%1,                           Juan%Zhu%NULL%1,                           Ji Chan%Shi%NULL%1,                           Feng%Chen%NULL%1,                           Bing%Wan%NULL%1,                           Zhi Han%Yan%NULL%1,                           Rong Pin%Wang%NULL%1,                           Wen%Chen%NULL%1,                           Wen Hui%Fan%NULL%1,                           Can%Zhang%NULL%1,                           Meng Jie%Lu%NULL%1,                           Zhi Yuan%Sun%NULL%1,                           Chang Sheng%Zhou%NULL%1,                           Li Na%Zhang%NULL%1,                           Fei%Xia%NULL%1,                           Li%Qi%NULL%1,                           Wei%Zhang%NULL%0,                           Jing%Zhong%NULL%1,                           Xiao Xue%Liu%NULL%1,                           Qi Rui%Zhang%NULL%1,                           Guang Ming%Lu%NULL%1,                           Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,                           Matthew R%Baldwin%NULL%0,                           Darryl%Abrams%NULL%1,                           Samuel D%Jacobson%NULL%1,                           Benjamin J%Meyer%NULL%1,                           Elizabeth M%Balough%NULL%1,                           Justin G%Aaron%NULL%1,                           Jan%Claassen%NULL%1,                           LeRoy E%Rabbani%NULL%1,                           Jonathan%Hastie%NULL%1,                           Beth R%Hochman%NULL%1,                           John%Salazar-Schicchi%NULL%1,                           Natalie H%Yip%NULL%1,                           Daniel%Brodie%NULL%2,                           Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                           Samuel L%Bruce%NULL%0,                           Cody L%Slater%NULL%0,                           Jonathan R%Tiao%NULL%0,                           Matthew R%Baldwin%NULL%0,                           R Graham%Barr%NULL%0,                           Bernard P%Chang%NULL%0,                           Katherine H%Chau%NULL%0,                           Justin J%Choi%NULL%0,                           Nicholas%Gavin%NULL%0,                           Parag%Goyal%NULL%0,                           Angela M%Mills%NULL%0,                           Ashmi A%Patel%NULL%0,                           Marie-Laure S%Romney%NULL%0,                           Monika M%Safford%NULL%0,                           Neil W%Schluger%NULL%0,                           Soumitra%Sengupta%NULL%0,                           Magdalena E%Sobieszczyk%NULL%0,                           Jason E%Zucker%NULL%0,                           Paul A%Asadourian%NULL%0,                           Fletcher M%Bell%NULL%0,                           Rebekah%Boyd%NULL%0,                           Matthew F%Cohen%NULL%0,                           MacAlistair I%Colquhoun%NULL%0,                           Lucy A%Colville%NULL%0,                           Joseph H%de Jonge%NULL%0,                           Lyle B%Dershowitz%NULL%0,                           Shirin A%Dey%NULL%0,                           Katherine A%Eiseman%NULL%0,                           Zachary P%Girvin%NULL%0,                           Daniella T%Goni%NULL%0,                           Amro A%Harb%NULL%0,                           Nicholas%Herzik%NULL%0,                           Sarah%Householder%NULL%0,                           Lara E%Karaaslan%NULL%0,                           Heather%Lee%NULL%0,                           Evan%Lieberman%NULL%0,                           Andrew%Ling%NULL%0,                           Ree%Lu%NULL%0,                           Arthur Y%Shou%NULL%0,                           Alexander C%Sisti%NULL%0,                           Zachary E%Snow%NULL%0,                           Colin P%Sperring%NULL%0,                           Yuqing%Xiong%NULL%0,                           Henry W%Zhou%NULL%0,                           Karthik%Natarajan%NULL%0,                           George%Hripcsak%NULL%0,                           Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%0,                            Nicholas A.%Fergusson%null%0,                            Elisa%Lloyd-Smith%null%0,                            Andrew%Wormsbecker%null%0,                            Denise%Foster%null%0,                            Andrei%Karpov%null%0,                            Sarah%Crowe%null%0,                            Greg%Haljan%null%0,                            Dean R.%Chittock%null%0,                            Hussein D.%Kanji%null%0,                            Mypinder S.%Sekhon%null%0,                            Donald E.G.%Griesdale%null%0,                         Anish R.%Mitra%null%1,                         Nicholas A.%Fergusson%null%1,                         Elisa%Lloyd-Smith%null%1,                         Andrew%Wormsbecker%null%1,                         Denise%Foster%null%1,                         Andrei%Karpov%null%1,                         Sarah%Crowe%null%1,                         Greg%Haljan%null%1,                         Dean R.%Chittock%null%1,                         Hussein D.%Kanji%null%1,                         Mypinder S.%Sekhon%null%1,                         Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                           Mark%Caridi-Scheible%NULL%0,                           James M.%Blum%NULL%0,                           Chad%Robichaux%NULL%0,                           Colleen%Kraft%NULL%0,                           Jesse T.%Jacob%NULL%0,                           Craig S.%Jabaley%NULL%0,                           David%Carpenter%NULL%0,                           Roberta%Kaplow%NULL%0,                           Alfonso C.%Hernandez-Romieu%NULL%0,                           Max W.%Adelman%NULL%0,                           Greg S.%Martin%NULL%0,                           Craig M.%Coopersmith%NULL%0,                           David J.%Murphy%NULL%0,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,                           Caroline P. E.%Price%NULL%1,                           Elizabeth L.%Gray%NULL%1,                           Reeti K.%Gulati%NULL%1,                           Matthew%Maksimoski%NULL%1,                           Samuel D.%Racette%NULL%1,                           Alexander L.%Schneider%NULL%1,                           Ashoke R.%Khanwalkar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1886,22 +2001,22 @@
         <v>43920.0</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>431</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>449</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>450</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>434</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>435</v>
       </c>
       <c r="I2" t="s">
         <v>117</v>
@@ -1924,7 +2039,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1956,7 +2071,7 @@
         <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1988,7 +2103,7 @@
         <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -2020,7 +2135,7 @@
         <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -2052,7 +2167,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
@@ -2084,7 +2199,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -2116,7 +2231,7 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -2148,7 +2263,7 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -2180,7 +2295,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -2212,7 +2327,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -2244,7 +2359,7 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="F13" t="s">
         <v>68</v>
@@ -2276,7 +2391,7 @@
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="F14" t="s">
         <v>73</v>
@@ -2308,7 +2423,7 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="F15" t="s">
         <v>79</v>
@@ -2340,7 +2455,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
